--- a/results/merged_result_MJ_with_properties.xlsx
+++ b/results/merged_result_MJ_with_properties.xlsx
@@ -3965,6 +3965,9 @@
       <c r="AF24" t="n">
         <v>73.51988280065039</v>
       </c>
+      <c r="AG24" t="n">
+        <v>3850</v>
+      </c>
       <c r="AH24" t="n">
         <v>0.6617253</v>
       </c>
@@ -4678,6 +4681,9 @@
       <c r="AG29" t="n">
         <v>4897.033</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0.7</v>
+      </c>
       <c r="AI29" t="n">
         <v>0.28352284</v>
       </c>
@@ -6400,6 +6406,9 @@
       <c r="AG41" t="n">
         <v>5421.711</v>
       </c>
+      <c r="AH41" t="n">
+        <v>1.2</v>
+      </c>
       <c r="AI41" t="n">
         <v>0.6974737</v>
       </c>
@@ -12646,6 +12655,9 @@
       </c>
       <c r="AG85" t="n">
         <v>5184.4775</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.2</v>
       </c>
       <c r="AI85" t="n">
         <v>0.6048682</v>

--- a/results/merged_result_MJ_with_properties.xlsx
+++ b/results/merged_result_MJ_with_properties.xlsx
@@ -829,6 +829,11 @@
           <t>GJ 796</t>
         </is>
       </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>101997</t>
+        </is>
+      </c>
       <c r="AO2" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -971,6 +976,11 @@
           <t>GJ 722</t>
         </is>
       </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>91438</t>
+        </is>
+      </c>
       <c r="AO3" t="inlineStr">
         <is>
           <t>**</t>
@@ -1113,6 +1123,11 @@
           <t>GJ 565</t>
         </is>
       </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>72688</t>
+        </is>
+      </c>
       <c r="AO4" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -1255,6 +1270,11 @@
           <t>GJ 9824, GJ 894.5</t>
         </is>
       </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>115445</t>
+        </is>
+      </c>
       <c r="AO5" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -1397,6 +1417,11 @@
           <t>GJ 71.0, GJ 71</t>
         </is>
       </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>8102</t>
+        </is>
+      </c>
       <c r="AO6" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -1539,6 +1564,11 @@
           <t>GJ 1079</t>
         </is>
       </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>25421</t>
+        </is>
+      </c>
       <c r="AO7" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -1684,6 +1714,11 @@
           <t>GJ 1126</t>
         </is>
       </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>46626</t>
+        </is>
+      </c>
       <c r="AO8" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -1829,6 +1864,11 @@
           <t>GJ 1094</t>
         </is>
       </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>33955</t>
+        </is>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -1971,6 +2011,11 @@
           <t>GJ 776</t>
         </is>
       </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>98959</t>
+        </is>
+      </c>
       <c r="AO10" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -2116,6 +2161,11 @@
           <t>GJ 666 A, GJ 666</t>
         </is>
       </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>84720</t>
+        </is>
+      </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -2260,6 +2310,11 @@
           <t>GJ 9425, GJ 496.1</t>
         </is>
       </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>63833</t>
+        </is>
+      </c>
       <c r="AO12" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -2405,6 +2460,11 @@
           <t>GJ 604</t>
         </is>
       </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>78170</t>
+        </is>
+      </c>
       <c r="AO13" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -2547,6 +2607,11 @@
           <t>GJ 582</t>
         </is>
       </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>75181</t>
+        </is>
+      </c>
       <c r="AO14" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -2689,6 +2754,11 @@
           <t>GJ 506</t>
         </is>
       </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>64924</t>
+        </is>
+      </c>
       <c r="AO15" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -2831,6 +2901,11 @@
           <t>GJ 446</t>
         </is>
       </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>57507</t>
+        </is>
+      </c>
       <c r="AO16" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -2976,6 +3051,11 @@
           <t>GJ 3</t>
         </is>
       </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
       <c r="AO17" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -3126,6 +3206,11 @@
           <t>GJ 715</t>
         </is>
       </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>90656</t>
+        </is>
+      </c>
       <c r="AO18" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -3268,6 +3353,11 @@
           <t>GJ 798.0, GJ 798</t>
         </is>
       </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>102186</t>
+        </is>
+      </c>
       <c r="AO19" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -3413,6 +3503,11 @@
           <t>GJ 435</t>
         </is>
       </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>56998</t>
+        </is>
+      </c>
       <c r="AO20" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -3563,6 +3658,11 @@
           <t>GJ 787</t>
         </is>
       </c>
+      <c r="AN21" t="inlineStr">
+        <is>
+          <t>100223</t>
+        </is>
+      </c>
       <c r="AO21" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -3708,6 +3808,11 @@
           <t>GJ 9115 A, GJ 140.1 A</t>
         </is>
       </c>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>15774</t>
+        </is>
+      </c>
       <c r="AO22" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -3850,6 +3955,11 @@
           <t>GJ 9226, GJ 268.2</t>
         </is>
       </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>34890</t>
+        </is>
+      </c>
       <c r="AO23" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -3992,6 +4102,11 @@
           <t>GJ 146</t>
         </is>
       </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>16711</t>
+        </is>
+      </c>
       <c r="AO24" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -4134,6 +4249,11 @@
           <t>GJ 18.0, GJ 18</t>
         </is>
       </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1936</t>
+        </is>
+      </c>
       <c r="AO25" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -4276,6 +4396,11 @@
           <t>GJ 139</t>
         </is>
       </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>15510</t>
+        </is>
+      </c>
       <c r="AO26" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -4418,6 +4543,11 @@
           <t>GJ 166 A</t>
         </is>
       </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>19849</t>
+        </is>
+      </c>
       <c r="AO27" t="inlineStr">
         <is>
           <t>Eruptive*</t>
@@ -4563,6 +4693,11 @@
           <t>GJ 143</t>
         </is>
       </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>16069</t>
+        </is>
+      </c>
       <c r="AO28" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -4705,6 +4840,11 @@
           <t>GJ 688</t>
         </is>
       </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>86400</t>
+        </is>
+      </c>
       <c r="AO29" t="inlineStr">
         <is>
           <t>SB*</t>
@@ -4842,6 +4982,11 @@
           <t>HD 157347</t>
         </is>
       </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>85042</t>
+        </is>
+      </c>
       <c r="AO30" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -4987,6 +5132,11 @@
           <t>GJ 653</t>
         </is>
       </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>83591</t>
+        </is>
+      </c>
       <c r="AO31" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -5129,6 +5279,11 @@
           <t>GJ 327</t>
         </is>
       </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>43726</t>
+        </is>
+      </c>
       <c r="AO32" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -5269,6 +5424,11 @@
           <t>HD  23356</t>
         </is>
       </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>17420</t>
+        </is>
+      </c>
       <c r="AO33" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -5416,6 +5576,11 @@
           <t>GJ 136</t>
         </is>
       </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>15330</t>
+        </is>
+      </c>
       <c r="AO34" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -5561,6 +5726,11 @@
           <t>GJ 818</t>
         </is>
       </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>104092</t>
+        </is>
+      </c>
       <c r="AO35" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -5703,6 +5873,11 @@
           <t>GJ 9833, GJ 902.1</t>
         </is>
       </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>116763</t>
+        </is>
+      </c>
       <c r="AO36" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -5848,6 +6023,11 @@
           <t>GJ 529</t>
         </is>
       </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>67487</t>
+        </is>
+      </c>
       <c r="AO37" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -5990,6 +6170,11 @@
           <t>GJ 755</t>
         </is>
       </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>95149</t>
+        </is>
+      </c>
       <c r="AO38" t="inlineStr">
         <is>
           <t>SB*</t>
@@ -6140,6 +6325,11 @@
           <t>GJ 862</t>
         </is>
       </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>110996</t>
+        </is>
+      </c>
       <c r="AO39" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -6285,6 +6475,11 @@
           <t>GJ 726</t>
         </is>
       </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>92200</t>
+        </is>
+      </c>
       <c r="AO40" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -6430,6 +6625,11 @@
           <t>GJ 652</t>
         </is>
       </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>83541</t>
+        </is>
+      </c>
       <c r="AO41" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -6572,6 +6772,11 @@
           <t>GJ 785</t>
         </is>
       </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>99825</t>
+        </is>
+      </c>
       <c r="AO42" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -6714,6 +6919,11 @@
           <t>GJ 9736, GJ 826.1</t>
         </is>
       </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>105341</t>
+        </is>
+      </c>
       <c r="AO43" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -6856,6 +7066,11 @@
           <t>GJ 95</t>
         </is>
       </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>10798</t>
+        </is>
+      </c>
       <c r="AO44" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -6998,6 +7213,11 @@
           <t>GJ 144.0, GJ 144</t>
         </is>
       </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>16537</t>
+        </is>
+      </c>
       <c r="AO45" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -7135,6 +7355,11 @@
           <t>GJ 744</t>
         </is>
       </c>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>93858</t>
+        </is>
+      </c>
       <c r="AO46" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -7282,6 +7507,11 @@
           <t>GJ 780</t>
         </is>
       </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>99240</t>
+        </is>
+      </c>
       <c r="AO47" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -7422,6 +7652,11 @@
           <t>GJ 583</t>
         </is>
       </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>75201</t>
+        </is>
+      </c>
       <c r="AO48" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -7567,6 +7802,11 @@
           <t>GJ 370</t>
         </is>
       </c>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>48331</t>
+        </is>
+      </c>
       <c r="AO49" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -7709,6 +7949,11 @@
           <t>GJ 9507, GJ 571.1</t>
         </is>
       </c>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>73457</t>
+        </is>
+      </c>
       <c r="AO50" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -7851,6 +8096,11 @@
           <t>GJ 302</t>
         </is>
       </c>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>40693</t>
+        </is>
+      </c>
       <c r="AO51" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -7996,6 +8246,11 @@
           <t>GJ 570, GJ 570 A</t>
         </is>
       </c>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>73184</t>
+        </is>
+      </c>
       <c r="AO52" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -8133,6 +8388,11 @@
           <t>GJ 530</t>
         </is>
       </c>
+      <c r="AN53" t="inlineStr">
+        <is>
+          <t>67620</t>
+        </is>
+      </c>
       <c r="AO53" t="inlineStr">
         <is>
           <t>SB*</t>
@@ -8275,6 +8535,11 @@
           <t>GJ 131</t>
         </is>
       </c>
+      <c r="AN54" t="inlineStr">
+        <is>
+          <t>15095</t>
+        </is>
+      </c>
       <c r="AO54" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -8420,6 +8685,11 @@
           <t>GJ 845 A, GJ 845</t>
         </is>
       </c>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>108870</t>
+        </is>
+      </c>
       <c r="AO55" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -8562,6 +8832,11 @@
           <t>GJ 1021</t>
         </is>
       </c>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>3583</t>
+        </is>
+      </c>
       <c r="AO56" t="inlineStr">
         <is>
           <t>EclBin</t>
@@ -8709,6 +8984,11 @@
           <t>GJ 3222</t>
         </is>
       </c>
+      <c r="AN57" t="inlineStr">
+        <is>
+          <t>15799</t>
+        </is>
+      </c>
       <c r="AO57" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -8838,6 +9118,11 @@
           <t>K</t>
         </is>
       </c>
+      <c r="AN58" t="inlineStr">
+        <is>
+          <t>92444</t>
+        </is>
+      </c>
       <c r="AO58" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -8980,6 +9265,11 @@
           <t>GJ 3317</t>
         </is>
       </c>
+      <c r="AN59" t="inlineStr">
+        <is>
+          <t>22451</t>
+        </is>
+      </c>
       <c r="AO59" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -9125,6 +9415,11 @@
           <t>GJ 4008</t>
         </is>
       </c>
+      <c r="AN60" t="inlineStr">
+        <is>
+          <t>85561</t>
+        </is>
+      </c>
       <c r="AO60" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -9264,6 +9559,11 @@
           <t>GJ 1066</t>
         </is>
       </c>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>18450</t>
+        </is>
+      </c>
       <c r="AO61" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -9401,6 +9701,11 @@
           <t>GJ 105 A</t>
         </is>
       </c>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>12114</t>
+        </is>
+      </c>
       <c r="AO62" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -9543,6 +9848,11 @@
           <t>GJ 138</t>
         </is>
       </c>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>15371</t>
+        </is>
+      </c>
       <c r="AO63" t="inlineStr">
         <is>
           <t>**</t>
@@ -9685,6 +9995,11 @@
           <t>GJ 3021 A, GJ 3021</t>
         </is>
       </c>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
       <c r="AO64" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -9832,6 +10147,11 @@
           <t>GJ 616</t>
         </is>
       </c>
+      <c r="AN65" t="inlineStr">
+        <is>
+          <t>79672</t>
+        </is>
+      </c>
       <c r="AO65" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -9971,6 +10291,11 @@
           <t>GJ 227</t>
         </is>
       </c>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>28954</t>
+        </is>
+      </c>
       <c r="AO66" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -10113,6 +10438,11 @@
           <t>GJ 2037</t>
         </is>
       </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>22907</t>
+        </is>
+      </c>
       <c r="AO67" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -10255,6 +10585,11 @@
           <t>GJ 1164 B</t>
         </is>
       </c>
+      <c r="AN68" t="inlineStr">
+        <is>
+          <t>62471</t>
+        </is>
+      </c>
       <c r="AO68" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -10395,6 +10730,11 @@
           <t>HD 139763</t>
         </is>
       </c>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>76779</t>
+        </is>
+      </c>
       <c r="AO69" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -10537,6 +10877,11 @@
           <t>GJ 233 A, GJ 233</t>
         </is>
       </c>
+      <c r="AN70" t="inlineStr">
+        <is>
+          <t>30630</t>
+        </is>
+      </c>
       <c r="AO70" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -10679,6 +11024,11 @@
           <t>GJ 902</t>
         </is>
       </c>
+      <c r="AN71" t="inlineStr">
+        <is>
+          <t>116745</t>
+        </is>
+      </c>
       <c r="AO71" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -10824,6 +11174,11 @@
           <t>GJ 157 A</t>
         </is>
       </c>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>18512</t>
+        </is>
+      </c>
       <c r="AO72" t="inlineStr">
         <is>
           <t>Eruptive*</t>
@@ -10969,6 +11324,11 @@
           <t>GJ 183</t>
         </is>
       </c>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>23311</t>
+        </is>
+      </c>
       <c r="AO73" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -11114,6 +11474,11 @@
           <t>GJ 879</t>
         </is>
       </c>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>113283</t>
+        </is>
+      </c>
       <c r="AO74" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -11230,7 +11595,7 @@
         <v>56.64121974787593</v>
       </c>
       <c r="AG75" t="n">
-        <v>4340</v>
+        <v>4453</v>
       </c>
       <c r="AH75" t="n">
         <v>0.7643373999999999</v>
@@ -11254,6 +11619,11 @@
       <c r="AM75" t="inlineStr">
         <is>
           <t>GJ 293.1 A, GJ 293.1</t>
+        </is>
+      </c>
+      <c r="AN75" t="inlineStr">
+        <is>
+          <t>38931</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
@@ -11398,6 +11768,11 @@
           <t>GJ 1085</t>
         </is>
       </c>
+      <c r="AN76" t="inlineStr">
+        <is>
+          <t>27435</t>
+        </is>
+      </c>
       <c r="AO76" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -11540,6 +11915,11 @@
           <t>GJ 177</t>
         </is>
       </c>
+      <c r="AN77" t="inlineStr">
+        <is>
+          <t>22263</t>
+        </is>
+      </c>
       <c r="AO77" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -11679,6 +12059,11 @@
           <t>GJ 33</t>
         </is>
       </c>
+      <c r="AN78" t="inlineStr">
+        <is>
+          <t>3765</t>
+        </is>
+      </c>
       <c r="AO78" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -11824,6 +12209,11 @@
           <t>GJ 707</t>
         </is>
       </c>
+      <c r="AN79" t="inlineStr">
+        <is>
+          <t>89211</t>
+        </is>
+      </c>
       <c r="AO79" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -11913,43 +12303,38 @@
           <t>2552288133874677760</t>
         </is>
       </c>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>2552288133874677760</t>
-        </is>
-      </c>
       <c r="Z80" t="n">
-        <v>15.60377702114439</v>
+        <v>15.60373575245375</v>
       </c>
       <c r="AA80" t="n">
-        <v>5.062519159832716</v>
+        <v>5.06248962829555</v>
       </c>
       <c r="AB80" t="n">
-        <v>8.022833824157715</v>
+        <v>7.887868881225586</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.372888565063477</v>
+        <v>8.399222373962402</v>
       </c>
       <c r="AD80" t="n">
-        <v>7.088135242462158</v>
+        <v>7.097153663635254</v>
       </c>
       <c r="AE80" t="n">
-        <v>1.284753322601318</v>
+        <v>1.302068710327148</v>
       </c>
       <c r="AF80" t="n">
-        <v>44.45961683567542</v>
+        <v>65.76032180609275</v>
       </c>
       <c r="AG80" t="n">
-        <v>4620</v>
+        <v>4753.16</v>
       </c>
       <c r="AH80" t="n">
         <v>0.7</v>
       </c>
       <c r="AI80" t="n">
-        <v>0.401</v>
+        <v>0.14162683</v>
       </c>
       <c r="AJ80" t="n">
-        <v>1.02</v>
+        <v>0.5549585</v>
       </c>
       <c r="AK80" t="inlineStr">
         <is>
@@ -11964,6 +12349,11 @@
       <c r="AM80" t="inlineStr">
         <is>
           <t>GJ 3071</t>
+        </is>
+      </c>
+      <c r="AN80" t="inlineStr">
+        <is>
+          <t>4849</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -12111,6 +12501,11 @@
           <t>GJ 898</t>
         </is>
       </c>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>116215</t>
+        </is>
+      </c>
       <c r="AO81" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -12256,6 +12651,11 @@
           <t>GJ 770</t>
         </is>
       </c>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>97944</t>
+        </is>
+      </c>
       <c r="AO82" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -12401,6 +12801,11 @@
           <t>GJ 204</t>
         </is>
       </c>
+      <c r="AN83" t="inlineStr">
+        <is>
+          <t>25623</t>
+        </is>
+      </c>
       <c r="AO83" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -12538,6 +12943,11 @@
           <t>GJ 429.0 B, GJ 429 B</t>
         </is>
       </c>
+      <c r="AN84" t="inlineStr">
+        <is>
+          <t>55848</t>
+        </is>
+      </c>
       <c r="AO84" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -12617,74 +13027,6 @@
           <t>704967037090946688</t>
         </is>
       </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>704967037090946688</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>704967037090946688</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>704967037090946688</t>
-        </is>
-      </c>
-      <c r="Z85" t="n">
-        <v>133.146760620834</v>
-      </c>
-      <c r="AA85" t="n">
-        <v>28.3297830003627</v>
-      </c>
-      <c r="AB85" t="n">
-        <v>5.732680797576904</v>
-      </c>
-      <c r="AC85" t="n">
-        <v>6.155681133270264</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>5.147009372711182</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>1.008671760559082</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>79.44818375718161</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>5184.4775</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AI85" t="n">
-        <v>0.6048682</v>
-      </c>
-      <c r="AJ85" t="n">
-        <v>0.92796665</v>
-      </c>
-      <c r="AK85" t="inlineStr">
-        <is>
-          <t>G</t>
-        </is>
-      </c>
-      <c r="AL85" t="inlineStr">
-        <is>
-          <t>HD  75732</t>
-        </is>
-      </c>
-      <c r="AM85" t="inlineStr">
-        <is>
-          <t>GJ 324 A</t>
-        </is>
-      </c>
-      <c r="AO85" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -12822,6 +13164,11 @@
           <t>GJ 641</t>
         </is>
       </c>
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>82588</t>
+        </is>
+      </c>
       <c r="AO86" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -12959,6 +13306,11 @@
           <t>HD 274255</t>
         </is>
       </c>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>25775</t>
+        </is>
+      </c>
       <c r="AO87" t="inlineStr">
         <is>
           <t>BYDraV*_Candidate</t>
@@ -13075,7 +13427,7 @@
         <v>77.32613406116261</v>
       </c>
       <c r="AG88" t="n">
-        <v>4830.588190118799</v>
+        <v>4907</v>
       </c>
       <c r="AH88" t="n">
         <v>0.7568047</v>
@@ -13099,6 +13451,11 @@
       <c r="AM88" t="inlineStr">
         <is>
           <t>GJ 2046</t>
+        </is>
+      </c>
+      <c r="AN88" t="inlineStr">
+        <is>
+          <t>27887</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
@@ -13243,6 +13600,11 @@
           <t>GJ 260</t>
         </is>
       </c>
+      <c r="AN89" t="inlineStr">
+        <is>
+          <t>33690</t>
+        </is>
+      </c>
       <c r="AO89" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -13380,6 +13742,11 @@
           <t>GJ 9527 A, GJ 9527, GJ 596.1</t>
         </is>
       </c>
+      <c r="AN90" t="inlineStr">
+        <is>
+          <t>77052</t>
+        </is>
+      </c>
       <c r="AO90" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -13522,6 +13889,11 @@
           <t>GJ 309</t>
         </is>
       </c>
+      <c r="AN91" t="inlineStr">
+        <is>
+          <t>41926</t>
+        </is>
+      </c>
       <c r="AO91" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -13667,6 +14039,11 @@
           <t>GJ 3633</t>
         </is>
       </c>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>53486</t>
+        </is>
+      </c>
       <c r="AO92" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -13809,6 +14186,11 @@
           <t>GJ 117</t>
         </is>
       </c>
+      <c r="AN93" t="inlineStr">
+        <is>
+          <t>13402</t>
+        </is>
+      </c>
       <c r="AO93" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
@@ -13954,6 +14336,11 @@
           <t>GJ 355</t>
         </is>
       </c>
+      <c r="AN94" t="inlineStr">
+        <is>
+          <t>46816</t>
+        </is>
+      </c>
       <c r="AO94" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -14096,6 +14483,11 @@
           <t>GJ 615</t>
         </is>
       </c>
+      <c r="AN95" t="inlineStr">
+        <is>
+          <t>79537</t>
+        </is>
+      </c>
       <c r="AO95" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -14238,6 +14630,11 @@
           <t>GJ 613.0, GJ 613</t>
         </is>
       </c>
+      <c r="AN96" t="inlineStr">
+        <is>
+          <t>79190</t>
+        </is>
+      </c>
       <c r="AO96" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -14380,6 +14777,11 @@
           <t>GJ 472</t>
         </is>
       </c>
+      <c r="AN97" t="inlineStr">
+        <is>
+          <t>61291</t>
+        </is>
+      </c>
       <c r="AO97" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -14522,6 +14924,11 @@
           <t>GJ 782</t>
         </is>
       </c>
+      <c r="AN98" t="inlineStr">
+        <is>
+          <t>99385</t>
+        </is>
+      </c>
       <c r="AO98" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -14667,6 +15074,11 @@
           <t>GJ 542</t>
         </is>
       </c>
+      <c r="AN99" t="inlineStr">
+        <is>
+          <t>69972</t>
+        </is>
+      </c>
       <c r="AO99" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -14809,6 +15221,11 @@
           <t>GJ 656</t>
         </is>
       </c>
+      <c r="AN100" t="inlineStr">
+        <is>
+          <t>83990</t>
+        </is>
+      </c>
       <c r="AO100" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -14922,13 +15339,13 @@
         <v>52.39629220529056</v>
       </c>
       <c r="AG101" t="n">
-        <v>3920</v>
+        <v>4205</v>
       </c>
       <c r="AH101" t="n">
         <v>0.6</v>
       </c>
       <c r="AI101" t="n">
-        <v>0.187</v>
+        <v>0.102434</v>
       </c>
       <c r="AJ101" t="n">
         <v>0.967</v>
@@ -14946,6 +15363,11 @@
       <c r="AM101" t="inlineStr">
         <is>
           <t>GJ 710</t>
+        </is>
+      </c>
+      <c r="AN101" t="inlineStr">
+        <is>
+          <t>89825</t>
         </is>
       </c>
       <c r="AO101" t="inlineStr">
@@ -15090,6 +15512,11 @@
           <t>GJ 631</t>
         </is>
       </c>
+      <c r="AN102" t="inlineStr">
+        <is>
+          <t>81300</t>
+        </is>
+      </c>
       <c r="AO102" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -15227,6 +15654,11 @@
           <t>HD  35650</t>
         </is>
       </c>
+      <c r="AN103" t="inlineStr">
+        <is>
+          <t>25283</t>
+        </is>
+      </c>
       <c r="AO103" t="inlineStr">
         <is>
           <t>RotV*</t>
@@ -15369,6 +15801,11 @@
           <t>GJ 4130</t>
         </is>
       </c>
+      <c r="AN104" t="inlineStr">
+        <is>
+          <t>98505</t>
+        </is>
+      </c>
       <c r="AO104" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -15506,6 +15943,11 @@
           <t>HD 192263</t>
         </is>
       </c>
+      <c r="AN105" t="inlineStr">
+        <is>
+          <t>99711</t>
+        </is>
+      </c>
       <c r="AO105" t="inlineStr">
         <is>
           <t>BYDraV*</t>
@@ -15650,6 +16092,11 @@
           <t>GJ 230</t>
         </is>
       </c>
+      <c r="AN106" t="inlineStr">
+        <is>
+          <t>29525</t>
+        </is>
+      </c>
       <c r="AO106" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
@@ -15792,6 +16239,11 @@
           <t>GJ 1267</t>
         </is>
       </c>
+      <c r="AN107" t="inlineStr">
+        <is>
+          <t>110443</t>
+        </is>
+      </c>
       <c r="AO107" t="inlineStr">
         <is>
           <t>HighPM*</t>
@@ -15932,6 +16384,11 @@
       <c r="AM108" t="inlineStr">
         <is>
           <t>GJ 86 A, GJ 86</t>
+        </is>
+      </c>
+      <c r="AN108" t="inlineStr">
+        <is>
+          <t>10138</t>
         </is>
       </c>
       <c r="AO108" t="inlineStr">

--- a/results/merged_result_MJ_with_properties.xlsx
+++ b/results/merged_result_MJ_with_properties.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP108"/>
+  <dimension ref="A1:AW108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,18 +467,25 @@
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="19" customWidth="1" min="29" max="29"/>
     <col width="19" customWidth="1" min="30" max="30"/>
-    <col width="20" customWidth="1" min="31" max="31"/>
-    <col width="19" customWidth="1" min="32" max="32"/>
+    <col width="19" customWidth="1" min="31" max="31"/>
+    <col width="20" customWidth="1" min="32" max="32"/>
     <col width="19" customWidth="1" min="33" max="33"/>
-    <col width="14" customWidth="1" min="34" max="34"/>
-    <col width="20" customWidth="1" min="35" max="35"/>
-    <col width="16" customWidth="1" min="36" max="36"/>
-    <col width="15" customWidth="1" min="37" max="37"/>
-    <col width="23" customWidth="1" min="38" max="38"/>
-    <col width="30" customWidth="1" min="39" max="39"/>
-    <col width="12" customWidth="1" min="40" max="40"/>
-    <col width="19" customWidth="1" min="41" max="41"/>
-    <col width="22" customWidth="1" min="42" max="42"/>
+    <col width="19" customWidth="1" min="34" max="34"/>
+    <col width="14" customWidth="1" min="35" max="35"/>
+    <col width="20" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="20" customWidth="1" min="38" max="38"/>
+    <col width="21" customWidth="1" min="39" max="39"/>
+    <col width="33" customWidth="1" min="40" max="40"/>
+    <col width="15" customWidth="1" min="41" max="41"/>
+    <col width="23" customWidth="1" min="42" max="42"/>
+    <col width="30" customWidth="1" min="43" max="43"/>
+    <col width="12" customWidth="1" min="44" max="44"/>
+    <col width="19" customWidth="1" min="45" max="45"/>
+    <col width="22" customWidth="1" min="46" max="46"/>
+    <col width="22" customWidth="1" min="47" max="47"/>
+    <col width="19" customWidth="1" min="48" max="48"/>
+    <col width="13" customWidth="1" min="49" max="49"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -619,77 +626,112 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
+          <t>V_mag</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>Phot G Mean Mag</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Phot BP Mean Mag</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Phot RP Mean Mag</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>BP-RP</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Parallax</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>T_eff [K]</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Mass [M_Sun]</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Luminosity [L_Sun]</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Radius [R_Sun]</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>HZ_limit [AU]</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>RV precision [m/s]</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>HZ Detection Limit [Earth Mass]</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Spectral Type</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>HD Number</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>GJ Number</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>HIP Number</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Object Type</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Spectral Type Simbad</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Density [Solar unit]</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Distance [pc]</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>V_mag_group</t>
         </is>
       </c>
     </row>
@@ -791,52 +833,75 @@
         <v>6.179915428161621</v>
       </c>
       <c r="AC2" t="n">
+        <v>6.179915428161621</v>
+      </c>
+      <c r="AD2" t="n">
         <v>6.542906284332275</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>5.640710353851318</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>0.902195930480957</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>68.15574658958347</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>5457.578467100084</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>0.9262577</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>0.5525801</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>0.8462783699999999</v>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="n">
+        <v>0.7395379585908587</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.1245391263988588</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.152812753034363</v>
+      </c>
+      <c r="AO2" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>HD 196761</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>GJ 796</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>101997</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.528241921070437</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>14.67227710117747</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -943,47 +1008,70 @@
         <v>5.679285526275635</v>
       </c>
       <c r="AC3" t="n">
+        <v>5.679285526275635</v>
+      </c>
+      <c r="AD3" t="n">
         <v>6.020049095153809</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>5.162708282470703</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>0.8573408126831055</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>76.74052986202392</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>5610.480696655709</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>0.960087</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>0.6832166</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>0.89115345</v>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AL3" t="n">
+        <v>0.8147463279646253</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.1060209558978352</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.048732974408903</v>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>HD 172051</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>GJ 722</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>91438</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>**</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>1.356604055150243</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>13.0309238390451</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -1082,55 +1170,78 @@
         <v>-24.30605070904718</v>
       </c>
       <c r="AB4" t="n">
+        <v>7.790173266768456</v>
+      </c>
+      <c r="AC4" t="n">
         <v>7.489461421966553</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>8.022768020629883</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>6.801604747772217</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>1.221163272857666</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>59.63878921662309</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>4655.411</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>0.7715746</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>0.2413517</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>0.72295415</v>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="n">
+        <v>0.5093707813462323</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.201162245042034</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1.410456304757436</v>
+      </c>
+      <c r="AO4" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>HD 130992</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>GJ 565</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>72688</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU4" t="n">
+        <v>2.041952602911969</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>16.76761069658454</v>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1229,55 +1340,78 @@
         <v>-10.76308682814852</v>
       </c>
       <c r="AB5" t="n">
+        <v>7.774552190699577</v>
+      </c>
+      <c r="AC5" t="n">
         <v>7.543477058410645</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>8.003902435302734</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>6.913093090057373</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>1.090809345245361</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>52.1642879193471</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>4884.119</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>0.8156233000000001</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>0.28513727</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>0.71417576</v>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AL5" t="n">
+        <v>0.5479969233034633</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.2017153241870024</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>1.508273029456042</v>
+      </c>
+      <c r="AO5" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>HD 220339</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>GJ 9824, GJ 894.5</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>115445</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU5" t="n">
+        <v>2.239104212270826</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>19.17020321539005</v>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1376,55 +1510,78 @@
         <v>-15.93368020069386</v>
       </c>
       <c r="AB6" t="n">
+        <v>3.571155598571301</v>
+      </c>
+      <c r="AC6" t="n">
         <v>3.300399780273438</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>3.799520492553711</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>2.748299360275269</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>1.051221132278442</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>273.8097451185997</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>5420.00849935214</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>0.4528975560350175</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>1.06</v>
       </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AL6" t="n">
+        <v>0.6710101207150422</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.03679153671820569</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.3033620232341859</v>
+      </c>
+      <c r="AO6" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>HD  10700</t>
         </is>
       </c>
-      <c r="AM6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>GJ 71.0, GJ 71</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>8102</t>
         </is>
       </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.6800916192561645</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>3.652170961142577</v>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -1523,55 +1680,78 @@
         <v>-32.50515745795846</v>
       </c>
       <c r="AB7" t="n">
+        <v>7.684235645537377</v>
+      </c>
+      <c r="AC7" t="n">
         <v>7.422554492950439</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>7.915007591247559</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>6.767078876495361</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>1.147928714752197</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>55.98581713923642</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>4791.3335</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>0.81422794</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>0.2808603</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>0.7347523</v>
       </c>
-      <c r="AK7" t="inlineStr">
+      <c r="AL7" t="n">
+        <v>0.5462309240165526</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.1928609668566229</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1.438509150100335</v>
+      </c>
+      <c r="AO7" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
+      <c r="AP7" t="inlineStr">
         <is>
           <t>HD  35854</t>
         </is>
       </c>
-      <c r="AM7" t="inlineStr">
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>GJ 1079</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>25421</t>
         </is>
       </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU7" t="n">
+        <v>2.052688921124784</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>17.86166659875671</v>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1673,55 +1853,78 @@
         <v>-32.10200628852181</v>
       </c>
       <c r="AB8" t="n">
+        <v>8.306259956345558</v>
+      </c>
+      <c r="AC8" t="n">
         <v>8.002314567565918</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>8.539155006408691</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>7.30592679977417</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>1.233228206634521</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>50.9426573151017</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>4576.884</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>0.724203</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>0.22255945</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>0.7643726</v>
       </c>
-      <c r="AK8" t="inlineStr">
+      <c r="AL8" t="n">
+        <v>0.490707367225516</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.2539042489581328</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1.692851787552183</v>
+      </c>
+      <c r="AO8" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AP8" t="inlineStr">
         <is>
           <t>HD  82342</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>GJ 1126</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>46626</t>
         </is>
       </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU8" t="n">
+        <v>1.621604673108436</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>19.62991435281008</v>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -1823,55 +2026,78 @@
         <v>-6.800619953537471</v>
       </c>
       <c r="AB9" t="n">
+        <v>8.34030846391201</v>
+      </c>
+      <c r="AC9" t="n">
         <v>7.993809700012207</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>8.575010299682617</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>7.269191265106201</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>1.305819034576416</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>52.31876162072341</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>4507.9497</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>0.7417565</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>0.20528483</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>0.7047331</v>
       </c>
-      <c r="AK9" t="inlineStr">
+      <c r="AL9" t="n">
+        <v>0.4725395394589149</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.2566731386623086</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>1.699564563194139</v>
+      </c>
+      <c r="AO9" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
+      <c r="AP9" t="inlineStr">
         <is>
           <t>HD  52919</t>
         </is>
       </c>
-      <c r="AM9" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>GJ 1094</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>33955</t>
         </is>
       </c>
-      <c r="AO9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU9" t="n">
+        <v>2.11927517458269</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>19.11360225322881</v>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -1973,52 +2199,75 @@
         <v>5.91546106338501</v>
       </c>
       <c r="AC10" t="n">
+        <v>5.91546106338501</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6.239302635192871</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>5.418190956115723</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>0.8211116790771484</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
         <v>55.76543555731051</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>5631.3403</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
         <v>0.9574586</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>1.0285605</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>1.0393018</v>
       </c>
-      <c r="AK10" t="inlineStr">
+      <c r="AL10" t="n">
+        <v>0.9983899572125283</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.11928043043461</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1.304326100741545</v>
+      </c>
+      <c r="AO10" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>HD 189567</t>
         </is>
       </c>
-      <c r="AM10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
         <is>
           <t>GJ 776</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>98959</t>
         </is>
       </c>
-      <c r="AO10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.8528938169750084</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>17.93225480992242</v>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -2123,52 +2372,75 @@
         <v>5.301429271697998</v>
       </c>
       <c r="AC11" t="n">
+        <v>5.301429271697998</v>
+      </c>
+      <c r="AD11" t="n">
         <v>5.708796977996826</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>4.734676837921143</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>0.9741201400756836</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AG11" t="n">
         <v>113.7513444394578</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AH11" t="n">
         <v>5182.5312</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
         <v>0.8441952</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>0.45831785</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
         <v>0.83351916</v>
       </c>
-      <c r="AK11" t="inlineStr">
+      <c r="AL11" t="n">
+        <v>0.6841940872900755</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.07216470868393889</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.613398104141734</v>
+      </c>
+      <c r="AO11" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>HD 156274</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
         <is>
           <t>GJ 666 A, GJ 666</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>84720</t>
         </is>
       </c>
-      <c r="AO11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU11" t="n">
+        <v>1.457793859010921</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>8.791104886960111</v>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -2269,55 +2541,78 @@
         <v>-52.4464606454391</v>
       </c>
       <c r="AB12" t="n">
+        <v>9.038844431605339</v>
+      </c>
+      <c r="AC12" t="n">
         <v>8.445794105529785</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>9.284271240234375</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>7.547557353973389</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>1.736713886260986</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AG12" t="n">
         <v>61.3202021352086</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
         <v>3640</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>0.5</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>0.1310105</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
         <v>0.7293058</v>
       </c>
-      <c r="AK12" t="inlineStr">
+      <c r="AL12" t="n">
+        <v>0.3862192906125948</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.2029069987476966</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.997255190854221</v>
+      </c>
+      <c r="AO12" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>HD 113538</t>
         </is>
       </c>
-      <c r="AM12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>GJ 9425, GJ 496.1</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>63833</t>
         </is>
       </c>
-      <c r="AO12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU12" t="n">
+        <v>1.288964635557539</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>16.30783926307092</v>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -2419,55 +2714,78 @@
         <v>-42.62508240537215</v>
       </c>
       <c r="AB13" t="n">
+        <v>8.036714071187973</v>
+      </c>
+      <c r="AC13" t="n">
         <v>7.658037185668945</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>8.272919654846191</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>6.906684875488281</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>1.36623477935791</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
         <v>67.84333793843794</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>4413.7607</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>0.17772165</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>0.71036565</v>
       </c>
-      <c r="AK13" t="inlineStr">
+      <c r="AL13" t="n">
+        <v>0.4411868963696321</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.2252009048390298</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1.39970899103004</v>
+      </c>
+      <c r="AO13" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AP13" t="inlineStr">
         <is>
           <t>HD 142709</t>
         </is>
       </c>
-      <c r="AM13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
         <is>
           <t>GJ 604</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>78170</t>
         </is>
       </c>
-      <c r="AO13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU13" t="n">
+        <v>1.952774888141471</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>14.73984079184628</v>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2569,52 +2887,75 @@
         <v>5.482170104980469</v>
       </c>
       <c r="AC14" t="n">
+        <v>5.482170104980469</v>
+      </c>
+      <c r="AD14" t="n">
         <v>5.811648845672607</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>4.974900245666504</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>0.8367486000061035</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
         <v>67.84669435693799</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
         <v>5620.91</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
         <v>0.94079065</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
         <v>1.0413179</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>1.0581557</v>
       </c>
-      <c r="AK14" t="inlineStr">
+      <c r="AL14" t="n">
+        <v>1.005208564864544</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.09726235839645561</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1.057854921086912</v>
+      </c>
+      <c r="AO14" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AP14" t="inlineStr">
         <is>
           <t>HD 136352</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
+      <c r="AQ14" t="inlineStr">
         <is>
           <t>GJ 582</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>75181</t>
         </is>
       </c>
-      <c r="AO14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.7940434459215121</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>14.73911160268253</v>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -2716,52 +3057,75 @@
         <v>4.532528400421143</v>
       </c>
       <c r="AC15" t="n">
+        <v>4.532528400421143</v>
+      </c>
+      <c r="AD15" t="n">
         <v>4.904673099517822</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>4.006235122680664</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>0.8984379768371582</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AG15" t="n">
         <v>117.1726460991387</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AH15" t="n">
         <v>5571.858150027292</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AI15" t="n">
         <v>0.89668727</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
         <v>0.8442275</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>0.99628156</v>
       </c>
-      <c r="AK15" t="inlineStr">
+      <c r="AL15" t="n">
+        <v>0.9078213370848499</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.06146555734838024</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.6202388494486155</v>
+      </c>
+      <c r="AO15" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>HD 115617</t>
         </is>
       </c>
-      <c r="AM15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
         <is>
           <t>GJ 506</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>64924</t>
         </is>
       </c>
-      <c r="AO15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.906764956917385</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>8.534415098502675</v>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -2863,52 +3227,75 @@
         <v>6.304665088653564</v>
       </c>
       <c r="AC16" t="n">
+        <v>6.304665088653564</v>
+      </c>
+      <c r="AD16" t="n">
         <v>6.647039890289307</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>5.786444187164307</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>0.860595703125</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AG16" t="n">
         <v>56.36256241989167</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
         <v>5481.9854</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
         <v>0.9539093</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>0.71086067</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>0.9036883</v>
       </c>
-      <c r="AK16" t="inlineStr">
+      <c r="AL16" t="n">
+        <v>0.8375727330608415</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.1334264782305205</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1.333870711205297</v>
+      </c>
+      <c r="AO16" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
+      <c r="AP16" t="inlineStr">
         <is>
           <t>HD 102438</t>
         </is>
       </c>
-      <c r="AM16" t="inlineStr">
+      <c r="AQ16" t="inlineStr">
         <is>
           <t>GJ 446</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>57507</t>
         </is>
       </c>
-      <c r="AO16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU16" t="n">
+        <v>1.292561167675858</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>17.74227354232349</v>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -3010,55 +3397,78 @@
         <v>-67.83508132890724</v>
       </c>
       <c r="AB17" t="n">
+        <v>8.455076312074661</v>
+      </c>
+      <c r="AC17" t="n">
         <v>8.091019630432129</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>8.690603256225586</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>7.35163402557373</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
         <v>1.338969230651855</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AG17" t="n">
         <v>61.00639982208859</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
         <v>4398.7754</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AI17" t="n">
         <v>0.7053809</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AJ17" t="n">
         <v>0.14590912</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AK17" t="n">
         <v>0.63571703</v>
       </c>
-      <c r="AK17" t="inlineStr">
+      <c r="AL17" t="n">
+        <v>0.3999643383147214</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.2729440123358245</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.621449951999693</v>
+      </c>
+      <c r="AO17" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
+      <c r="AP17" t="inlineStr">
         <is>
           <t>HD     55</t>
         </is>
       </c>
-      <c r="AM17" t="inlineStr">
+      <c r="AQ17" t="inlineStr">
         <is>
           <t>GJ 3</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>436</t>
         </is>
       </c>
-      <c r="AO17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU17" t="n">
+        <v>2.745567710296219</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>16.39172288343968</v>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -3165,55 +3575,78 @@
         <v>-1.818962486339465</v>
       </c>
       <c r="AB18" t="n">
+        <v>8.018656087083816</v>
+      </c>
+      <c r="AC18" t="n">
         <v>7.68353271484375</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>8.2528076171875</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>6.969098091125488</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>1.283709526062012</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AG18" t="n">
         <v>53.15862953107903</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
         <v>4658.3945</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AI18" t="n">
         <v>0.74393433</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
         <v>0.25366303</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
         <v>0.7473658</v>
       </c>
-      <c r="AK18" t="inlineStr">
+      <c r="AL18" t="n">
+        <v>0.5221354252764914</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.2235200076512947</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1.558054496663065</v>
+      </c>
+      <c r="AO18" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
+      <c r="AP18" t="inlineStr">
         <is>
           <t>HD 170493</t>
         </is>
       </c>
-      <c r="AM18" t="inlineStr">
+      <c r="AQ18" t="inlineStr">
         <is>
           <t>GJ 715</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>90656</t>
         </is>
       </c>
-      <c r="AO18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU18" t="n">
+        <v>1.78211177339737</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>18.81162115767776</v>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -3312,55 +3745,78 @@
         <v>-52.70400747589355</v>
       </c>
       <c r="AB19" t="n">
+        <v>8.804230053181648</v>
+      </c>
+      <c r="AC19" t="n">
         <v>8.240460395812988</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>9.048484802246094</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>7.358860492706299</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
         <v>1.689624309539795</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AG19" t="n">
         <v>81.02792076812638</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AH19" t="n">
         <v>3917.272</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AI19" t="n">
         <v>0.61094534</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AJ19" t="n">
         <v>0.08590003</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AK19" t="n">
         <v>0.6361759299999999</v>
       </c>
-      <c r="AK19" t="inlineStr">
+      <c r="AL19" t="n">
+        <v>0.3110902437816222</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.261076460238167</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.27297373505892</v>
+      </c>
+      <c r="AO19" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
+      <c r="AP19" t="inlineStr">
         <is>
           <t>HD 196877</t>
         </is>
       </c>
-      <c r="AM19" t="inlineStr">
+      <c r="AQ19" t="inlineStr">
         <is>
           <t>GJ 798.0, GJ 798</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>102186</t>
         </is>
       </c>
-      <c r="AO19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU19" t="n">
+        <v>2.3728520291368</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>12.34142491279828</v>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -3462,55 +3918,78 @@
         <v>-44.40411484982858</v>
       </c>
       <c r="AB20" t="n">
+        <v>7.744590456547737</v>
+      </c>
+      <c r="AC20" t="n">
         <v>7.394228935241699</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>7.979490756988525</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="n">
         <v>6.665698051452637</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
         <v>1.313792705535889</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AG20" t="n">
         <v>78.22675647892444</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AH20" t="n">
         <v>4270</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AI20" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
         <v>0.16284244</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
         <v>0.6427813</v>
       </c>
-      <c r="AK20" t="inlineStr">
+      <c r="AL20" t="n">
+        <v>0.4243346297157088</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1928964054458701</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1.17580278043234</v>
+      </c>
+      <c r="AO20" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
+      <c r="AP20" t="inlineStr">
         <is>
           <t>HD 101581</t>
         </is>
       </c>
-      <c r="AM20" t="inlineStr">
+      <c r="AQ20" t="inlineStr">
         <is>
           <t>GJ 435</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>56998</t>
         </is>
       </c>
-      <c r="AO20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU20" t="n">
+        <v>2.635775028242927</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>12.7833499049576</v>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -3617,55 +4096,78 @@
         <v>-46.42856921734209</v>
       </c>
       <c r="AB21" t="n">
+        <v>8.696639160513877</v>
+      </c>
+      <c r="AC21" t="n">
         <v>8.282655715942383</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>8.93438720703125</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AE21" t="n">
         <v>7.506181240081787</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
         <v>1.428205966949463</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AG21" t="n">
         <v>54.04408367109657</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AH21" t="n">
         <v>4389.5796</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AI21" t="n">
         <v>0.6886628</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AJ21" t="n">
         <v>0.16172463</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
         <v>0.69715226</v>
       </c>
-      <c r="AK21" t="inlineStr">
+      <c r="AL21" t="n">
+        <v>0.4212175615883222</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.3049162003307058</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.836727717196075</v>
+      </c>
+      <c r="AO21" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
+      <c r="AP21" t="inlineStr">
         <is>
           <t>HD 192961</t>
         </is>
       </c>
-      <c r="AM21" t="inlineStr">
+      <c r="AQ21" t="inlineStr">
         <is>
           <t>GJ 787</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>100223</t>
         </is>
       </c>
-      <c r="AO21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU21" t="n">
+        <v>2.032467946890793</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>18.50341299310089</v>
+      </c>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -3767,55 +4269,78 @@
         <v>-49.9907184713681</v>
       </c>
       <c r="AB22" t="n">
+        <v>8.543711507334709</v>
+      </c>
+      <c r="AC22" t="n">
         <v>8.192389488220215</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>8.778672218322754</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
         <v>7.462452411651611</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
         <v>1.316219806671143</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AG22" t="n">
         <v>51.81551879878727</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AH22" t="n">
         <v>4410</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AI22" t="n">
         <v>0.74283314</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AJ22" t="n">
         <v>0.17813864</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AK22" t="n">
         <v>0.67277056</v>
       </c>
-      <c r="AK22" t="inlineStr">
+      <c r="AL22" t="n">
+        <v>0.4417625331460715</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2844115961768082</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.822195496765714</v>
+      </c>
+      <c r="AO22" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
+      <c r="AP22" t="inlineStr">
         <is>
           <t>HD  21209A, HD  21209</t>
         </is>
       </c>
-      <c r="AM22" t="inlineStr">
+      <c r="AQ22" t="inlineStr">
         <is>
           <t>GJ 9115 A, GJ 140.1 A</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>15774</t>
         </is>
       </c>
-      <c r="AO22" t="inlineStr">
+      <c r="AS22" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU22" t="n">
+        <v>2.439441087603737</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>19.29923743277091</v>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -3914,55 +4439,78 @@
         <v>-63.34238904353339</v>
       </c>
       <c r="AB23" t="n">
+        <v>9.05973434832096</v>
+      </c>
+      <c r="AC23" t="n">
         <v>8.570058822631836</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>9.300670623779297</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
         <v>7.744371891021729</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
         <v>1.556298732757568</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AG23" t="n">
         <v>51.05388225075709</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AH23" t="n">
         <v>4179.2197</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AI23" t="n">
         <v>0.6</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
         <v>0.15366574</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
         <v>0.74814504</v>
       </c>
-      <c r="AK23" t="inlineStr">
+      <c r="AL23" t="n">
+        <v>0.4133280492459198</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.3434973018235495</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.913173990332276</v>
+      </c>
+      <c r="AO23" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
+      <c r="AP23" t="inlineStr">
         <is>
           <t>HD  56533</t>
         </is>
       </c>
-      <c r="AM23" t="inlineStr">
+      <c r="AQ23" t="inlineStr">
         <is>
           <t>GJ 9226, GJ 268.2</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
+      <c r="AR23" t="inlineStr">
         <is>
           <t>34890</t>
         </is>
       </c>
-      <c r="AO23" t="inlineStr">
+      <c r="AS23" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU23" t="n">
+        <v>1.43282729890182</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>19.58714902597188</v>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -4061,55 +4609,78 @@
         <v>-48.41777462792747</v>
       </c>
       <c r="AB24" t="n">
+        <v>8.559503447828293</v>
+      </c>
+      <c r="AC24" t="n">
         <v>8.020994186401367</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>8.802591323852539</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AE24" t="n">
         <v>7.159848213195801</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
         <v>1.642743110656738</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AG24" t="n">
         <v>73.51988280065039</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AH24" t="n">
         <v>3850</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AI24" t="n">
         <v>0.6617253</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AJ24" t="n">
         <v>0.1286912</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AK24" t="n">
         <v>0.7185779</v>
       </c>
-      <c r="AK24" t="inlineStr">
+      <c r="AL24" t="n">
+        <v>0.3813171613997799</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.218216145001496</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.225959512009539</v>
+      </c>
+      <c r="AO24" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
+      <c r="AP24" t="inlineStr">
         <is>
           <t>HD  22496</t>
         </is>
       </c>
-      <c r="AM24" t="inlineStr">
+      <c r="AQ24" t="inlineStr">
         <is>
           <t>GJ 146</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
+      <c r="AR24" t="inlineStr">
         <is>
           <t>16711</t>
         </is>
       </c>
-      <c r="AO24" t="inlineStr">
+      <c r="AS24" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.783430422381145</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>13.60176270562762</v>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -4208,55 +4779,78 @@
         <v>-27.02639926481456</v>
       </c>
       <c r="AB25" t="n">
+        <v>7.894557420854569</v>
+      </c>
+      <c r="AC25" t="n">
         <v>7.629270553588867</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>8.125583648681641</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
         <v>6.967438697814941</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AF25" t="n">
         <v>1.158144950866699</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AG25" t="n">
         <v>55.82427515848546</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AH25" t="n">
         <v>4759.745</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AI25" t="n">
         <v>0.77834666</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AJ25" t="n">
         <v>0.23749635</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
         <v>0.6903041</v>
       </c>
-      <c r="AK25" t="inlineStr">
+      <c r="AL25" t="n">
+        <v>0.5030111466548021</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.2121883157125962</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1.484923368667618</v>
+      </c>
+      <c r="AO25" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
+      <c r="AP25" t="inlineStr">
         <is>
           <t>HD   2025</t>
         </is>
       </c>
-      <c r="AM25" t="inlineStr">
+      <c r="AQ25" t="inlineStr">
         <is>
           <t>GJ 18.0, GJ 18</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
+      <c r="AR25" t="inlineStr">
         <is>
           <t>1936</t>
         </is>
       </c>
-      <c r="AO25" t="inlineStr">
+      <c r="AS25" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU25" t="n">
+        <v>2.366201403288587</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>17.91335395150217</v>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -4358,52 +4952,75 @@
         <v>4.063914775848389</v>
       </c>
       <c r="AC26" t="n">
+        <v>4.063914775848389</v>
+      </c>
+      <c r="AD26" t="n">
         <v>4.440890789031982</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AE26" t="n">
         <v>3.508292675018311</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
         <v>0.9325981140136719</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AG26" t="n">
         <v>165.5242095575573</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AH26" t="n">
         <v>5427.3184</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AI26" t="n">
         <v>0.88599557</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AJ26" t="n">
         <v>0.64640737</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AK26" t="n">
         <v>0.9096495</v>
       </c>
-      <c r="AK26" t="inlineStr">
+      <c r="AL26" t="n">
+        <v>0.8012996714716814</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.04632668239999019</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.4365668691110729</v>
+      </c>
+      <c r="AO26" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
+      <c r="AP26" t="inlineStr">
         <is>
           <t>HD  20794</t>
         </is>
       </c>
-      <c r="AM26" t="inlineStr">
+      <c r="AQ26" t="inlineStr">
         <is>
           <t>GJ 139</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
+      <c r="AR26" t="inlineStr">
         <is>
           <t>15510</t>
         </is>
       </c>
-      <c r="AO26" t="inlineStr">
+      <c r="AS26" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU26" t="n">
+        <v>1.177088983194154</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>6.041412326770681</v>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -4502,55 +5119,78 @@
         <v>-7.668077815019982</v>
       </c>
       <c r="AB27" t="n">
+        <v>4.382878216314316</v>
+      </c>
+      <c r="AC27" t="n">
         <v>4.179893970489502</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>4.610994815826416</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AE27" t="n">
         <v>3.569749355316162</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AF27" t="n">
         <v>1.041245460510254</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AG27" t="n">
         <v>199.6080124181338</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AH27" t="n">
         <v>5284.453121171031</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AI27" t="n">
         <v>0.8019177</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AJ27" t="n">
         <v>0.42413774</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AK27" t="n">
         <v>0.8341754</v>
       </c>
-      <c r="AK27" t="inlineStr">
+      <c r="AL27" t="n">
+        <v>0.6544642933511488</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.04994655629876341</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.4046874649343485</v>
+      </c>
+      <c r="AO27" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
+      <c r="AP27" t="inlineStr">
         <is>
           <t>HD  26965</t>
         </is>
       </c>
-      <c r="AM27" t="inlineStr">
+      <c r="AQ27" t="inlineStr">
         <is>
           <t>GJ 166 A</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
+      <c r="AR27" t="inlineStr">
         <is>
           <t>19849</t>
         </is>
       </c>
-      <c r="AO27" t="inlineStr">
+      <c r="AS27" t="inlineStr">
         <is>
           <t>Eruptive*</t>
+        </is>
+      </c>
+      <c r="AU27" t="n">
+        <v>1.381521552589273</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>5.009818934047725</v>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -4652,55 +5292,78 @@
         <v>-63.50020035944183</v>
       </c>
       <c r="AB28" t="n">
+        <v>8.069829419689178</v>
+      </c>
+      <c r="AC28" t="n">
         <v>7.686758995056152</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>8.306118011474609</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AE28" t="n">
         <v>6.936548233032227</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
         <v>1.369569778442383</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AG28" t="n">
         <v>61.22711646241579</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AH28" t="n">
         <v>4425.028</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AI28" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AJ28" t="n">
         <v>0.20409887</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AK28" t="n">
         <v>0.7259589</v>
       </c>
-      <c r="AK28" t="inlineStr">
+      <c r="AL28" t="n">
+        <v>0.4726066306240386</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.2286520868473961</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>1.470894281626461</v>
+      </c>
+      <c r="AO28" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr">
+      <c r="AP28" t="inlineStr">
         <is>
           <t>HD  21749</t>
         </is>
       </c>
-      <c r="AM28" t="inlineStr">
+      <c r="AQ28" t="inlineStr">
         <is>
           <t>GJ 143</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
+      <c r="AR28" t="inlineStr">
         <is>
           <t>16069</t>
         </is>
       </c>
-      <c r="AO28" t="inlineStr">
+      <c r="AS28" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU28" t="n">
+        <v>1.82962437834759</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>16.33263262714404</v>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -4799,55 +5462,78 @@
         <v>3.554823749415744</v>
       </c>
       <c r="AB29" t="n">
+        <v>6.513840073809623</v>
+      </c>
+      <c r="AC29" t="n">
         <v>6.200440406799316</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
         <v>6.745635509490967</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AE29" t="n">
         <v>5.556586265563965</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AF29" t="n">
         <v>1.189049243927002</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AG29" t="n">
         <v>99.13913477749777</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AH29" t="n">
         <v>4897.033</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AI29" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AJ29" t="n">
         <v>0.28352284</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AK29" t="n">
         <v>0.7397425</v>
       </c>
-      <c r="AK29" t="inlineStr">
+      <c r="AL29" t="n">
+        <v>0.5461048055189085</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.1129173461585706</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.7808262481243979</v>
+      </c>
+      <c r="AO29" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
+      <c r="AP29" t="inlineStr">
         <is>
           <t>HD 160346</t>
         </is>
       </c>
-      <c r="AM29" t="inlineStr">
+      <c r="AQ29" t="inlineStr">
         <is>
           <t>GJ 688</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
+      <c r="AR29" t="inlineStr">
         <is>
           <t>86400</t>
         </is>
       </c>
-      <c r="AO29" t="inlineStr">
+      <c r="AS29" t="inlineStr">
         <is>
           <t>SB*</t>
+        </is>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.729244200975598</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>10.0868340463566</v>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -4949,47 +5635,70 @@
         <v>6.12160587310791</v>
       </c>
       <c r="AC30" t="n">
+        <v>6.12160587310791</v>
+      </c>
+      <c r="AD30" t="n">
         <v>6.455145359039307</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AE30" t="n">
         <v>5.610275268554688</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AF30" t="n">
         <v>0.8448700904846191</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AG30" t="n">
         <v>50.96943844765955</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AH30" t="n">
         <v>5561.0615</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AI30" t="n">
         <v>0.93571603</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AJ30" t="n">
         <v>1.0067211</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AK30" t="n">
         <v>1.0467366</v>
       </c>
-      <c r="AK30" t="inlineStr">
+      <c r="AL30" t="n">
+        <v>0.9919986249234217</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.1271599625423813</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>1.370202990177078</v>
+      </c>
+      <c r="AO30" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL30" t="inlineStr">
+      <c r="AP30" t="inlineStr">
         <is>
           <t>HD 157347</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
+      <c r="AR30" t="inlineStr">
         <is>
           <t>85042</t>
         </is>
       </c>
-      <c r="AO30" t="inlineStr">
+      <c r="AS30" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.8158904314580906</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>19.61960010657953</v>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5091,55 +5800,78 @@
         <v>-5.071571994790812</v>
       </c>
       <c r="AB31" t="n">
+        <v>7.695864108662605</v>
+      </c>
+      <c r="AC31" t="n">
         <v>7.264702320098877</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>7.934502124786377</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AE31" t="n">
         <v>6.470540046691895</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AF31" t="n">
         <v>1.463962078094482</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AG31" t="n">
         <v>95.56697122169996</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AH31" t="n">
         <v>4311.1157</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AI31" t="n">
         <v>0.67106116</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AJ31" t="n">
         <v>0.14315967</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AK31" t="n">
         <v>0.7222007</v>
       </c>
-      <c r="AK31" t="inlineStr">
+      <c r="AL31" t="n">
+        <v>0.3973449310173337</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.1903600066048743</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1.099379575955347</v>
+      </c>
+      <c r="AO31" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AP31" t="inlineStr">
         <is>
           <t>HD 154363</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
+      <c r="AQ31" t="inlineStr">
         <is>
           <t>GJ 653</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
+      <c r="AR31" t="inlineStr">
         <is>
           <t>83591</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr">
+      <c r="AS31" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU31" t="n">
+        <v>1.781510507227236</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>10.46386619996736</v>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -5241,52 +5973,75 @@
         <v>5.846634864807129</v>
       </c>
       <c r="AC32" t="n">
+        <v>5.846634864807129</v>
+      </c>
+      <c r="AD32" t="n">
         <v>6.175871849060059</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AE32" t="n">
         <v>5.350765705108643</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AF32" t="n">
         <v>0.825106143951416</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AG32" t="n">
         <v>59.35951989622318</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AH32" t="n">
         <v>5656.338</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AI32" t="n">
         <v>1.0054084</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AJ32" t="n">
         <v>0.93628365</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AK32" t="n">
         <v>0.9249107</v>
       </c>
-      <c r="AK32" t="inlineStr">
+      <c r="AL32" t="n">
+        <v>0.9510816047243581</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.1168088156435435</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>1.277504944351899</v>
+      </c>
+      <c r="AO32" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL32" t="inlineStr">
+      <c r="AP32" t="inlineStr">
         <is>
           <t>HD  76151</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AQ32" t="inlineStr">
         <is>
           <t>GJ 327</t>
         </is>
       </c>
-      <c r="AN32" t="inlineStr">
+      <c r="AR32" t="inlineStr">
         <is>
           <t>43726</t>
         </is>
       </c>
-      <c r="AO32" t="inlineStr">
+      <c r="AS32" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU32" t="n">
+        <v>1.270700200018976</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>16.8464974404826</v>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5388,50 +6143,73 @@
         <v>-19.11019954508799</v>
       </c>
       <c r="AB33" t="n">
+        <v>7.068928769321442</v>
+      </c>
+      <c r="AC33" t="n">
         <v>6.820210456848145</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
         <v>7.299110412597656</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AE33" t="n">
         <v>6.174898147583008</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AF33" t="n">
         <v>1.124212265014648</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AG33" t="n">
         <v>71.75052791922663</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AH33" t="n">
         <v>4816.173</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AI33" t="n">
         <v>0.8265657</v>
       </c>
-      <c r="AI33" t="n">
+      <c r="AJ33" t="n">
         <v>0.2948673</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AK33" t="n">
         <v>0.7384988</v>
       </c>
-      <c r="AK33" t="inlineStr">
+      <c r="AL33" t="n">
+        <v>0.5590498097984404</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.1454149911698278</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1.10555407604609</v>
+      </c>
+      <c r="AO33" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL33" t="inlineStr">
+      <c r="AP33" t="inlineStr">
         <is>
           <t>HD  23356</t>
         </is>
       </c>
-      <c r="AN33" t="inlineStr">
+      <c r="AR33" t="inlineStr">
         <is>
           <t>17420</t>
         </is>
       </c>
-      <c r="AO33" t="inlineStr">
+      <c r="AS33" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU33" t="n">
+        <v>2.052239288285687</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>13.93717968355234</v>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -5538,52 +6316,75 @@
         <v>5.344615936279297</v>
       </c>
       <c r="AC34" t="n">
+        <v>5.344615936279297</v>
+      </c>
+      <c r="AD34" t="n">
         <v>5.674380779266357</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AE34" t="n">
         <v>4.839785575866699</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AF34" t="n">
         <v>0.8345952033996582</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AG34" t="n">
         <v>83.02397018243857</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AH34" t="n">
         <v>5630.648</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AI34" t="n">
         <v>1.0091475</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AJ34" t="n">
         <v>0.7834111499999999</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AK34" t="n">
         <v>0.9016999</v>
       </c>
-      <c r="AK34" t="inlineStr">
+      <c r="AL34" t="n">
+        <v>0.871362180021362</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.09167902358438686</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0.9615088214022163</v>
+      </c>
+      <c r="AO34" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL34" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>HD  20766</t>
         </is>
       </c>
-      <c r="AM34" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>GJ 136</t>
         </is>
       </c>
-      <c r="AN34" t="inlineStr">
+      <c r="AR34" t="inlineStr">
         <is>
           <t>15330</t>
         </is>
       </c>
-      <c r="AO34" t="inlineStr">
+      <c r="AS34" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU34" t="n">
+        <v>1.37647581175124</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>12.04471428916949</v>
+      </c>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5685,55 +6486,78 @@
         <v>7.066791776223249</v>
       </c>
       <c r="AB35" t="n">
+        <v>8.269753558840751</v>
+      </c>
+      <c r="AC35" t="n">
         <v>7.816643714904785</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
         <v>8.509196281433105</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AE35" t="n">
         <v>7.012903690338135</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AF35" t="n">
         <v>1.496292591094971</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AG35" t="n">
         <v>66.46255615107758</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AH35" t="n">
         <v>4060</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AI35" t="n">
         <v>0.6</v>
       </c>
-      <c r="AI35" t="n">
+      <c r="AJ35" t="n">
         <v>0.18256173</v>
       </c>
-      <c r="AJ35" t="n">
+      <c r="AK35" t="n">
         <v>0.8133548</v>
       </c>
-      <c r="AK35" t="inlineStr">
+      <c r="AL35" t="n">
+        <v>0.4519785977553837</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.2258359775272261</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.315331177466831</v>
+      </c>
+      <c r="AO35" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AP35" t="inlineStr">
         <is>
           <t>HD 200779</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AQ35" t="inlineStr">
         <is>
           <t>GJ 818</t>
         </is>
       </c>
-      <c r="AN35" t="inlineStr">
+      <c r="AR35" t="inlineStr">
         <is>
           <t>104092</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU35" t="n">
+        <v>1.115093151133548</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>15.04606590403891</v>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -5835,52 +6659,75 @@
         <v>6.973323822021484</v>
       </c>
       <c r="AC36" t="n">
+        <v>6.973323822021484</v>
+      </c>
+      <c r="AD36" t="n">
         <v>7.379981517791748</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AE36" t="n">
         <v>6.393335342407227</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AF36" t="n">
         <v>0.9866461753845215</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AG36" t="n">
         <v>54.71933718636992</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AH36" t="n">
         <v>5141.362</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AI36" t="n">
         <v>0.87355226</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AJ36" t="n">
         <v>0.41800067</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AK36" t="n">
         <v>0.7783938</v>
       </c>
-      <c r="AK36" t="inlineStr">
+      <c r="AL36" t="n">
+        <v>0.6548681621073078</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.1522657020427535</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.288043201811957</v>
+      </c>
+      <c r="AO36" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL36" t="inlineStr">
+      <c r="AP36" t="inlineStr">
         <is>
           <t>HD 222335</t>
         </is>
       </c>
-      <c r="AM36" t="inlineStr">
+      <c r="AQ36" t="inlineStr">
         <is>
           <t>GJ 9833, GJ 902.1</t>
         </is>
       </c>
-      <c r="AN36" t="inlineStr">
+      <c r="AR36" t="inlineStr">
         <is>
           <t>116763</t>
         </is>
       </c>
-      <c r="AO36" t="inlineStr">
+      <c r="AS36" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.852212400374402</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>18.27507516390551</v>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -5982,55 +6829,78 @@
         <v>-22.11328889048028</v>
       </c>
       <c r="AB37" t="n">
+        <v>8.153160107531548</v>
+      </c>
+      <c r="AC37" t="n">
         <v>7.691279411315918</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AD37" t="n">
         <v>8.393013954162598</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AE37" t="n">
         <v>6.880203723907471</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AF37" t="n">
         <v>1.512810230255127</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AG37" t="n">
         <v>71.07799890467766</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AH37" t="n">
         <v>4214.972</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AI37" t="n">
         <v>0.6</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AJ37" t="n">
         <v>0.17158246</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AK37" t="n">
         <v>0.75877374</v>
       </c>
-      <c r="AK37" t="inlineStr">
+      <c r="AL37" t="n">
+        <v>0.4363038004387554</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.2291331933202787</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.311189765087929</v>
+      </c>
+      <c r="AO37" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL37" t="inlineStr">
+      <c r="AP37" t="inlineStr">
         <is>
           <t>HD 120467</t>
         </is>
       </c>
-      <c r="AM37" t="inlineStr">
+      <c r="AQ37" t="inlineStr">
         <is>
           <t>GJ 529</t>
         </is>
       </c>
-      <c r="AN37" t="inlineStr">
+      <c r="AR37" t="inlineStr">
         <is>
           <t>67487</t>
         </is>
       </c>
-      <c r="AO37" t="inlineStr">
+      <c r="AS37" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.373454807188958</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>14.06905111863229</v>
+      </c>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -6132,52 +7002,75 @@
         <v>6.312130451202393</v>
       </c>
       <c r="AC38" t="n">
+        <v>6.312130451202393</v>
+      </c>
+      <c r="AD38" t="n">
         <v>6.660956859588623</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AE38" t="n">
         <v>5.850902557373047</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AF38" t="n">
         <v>0.8100543022155762</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AG38" t="n">
         <v>50.28644486484526</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AH38" t="n">
         <v>5848.5</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AI38" t="n">
         <v>1</v>
       </c>
-      <c r="AI38" t="n">
+      <c r="AJ38" t="n">
         <v>0.87565553</v>
       </c>
-      <c r="AJ38" t="n">
+      <c r="AK38" t="n">
         <v>0.91144466</v>
       </c>
-      <c r="AK38" t="inlineStr">
+      <c r="AL38" t="n">
+        <v>0.908749052603017</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.1565707366592258</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.669320258238543</v>
+      </c>
+      <c r="AO38" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL38" t="inlineStr">
+      <c r="AP38" t="inlineStr">
         <is>
           <t>HD 181321</t>
         </is>
       </c>
-      <c r="AM38" t="inlineStr">
+      <c r="AQ38" t="inlineStr">
         <is>
           <t>GJ 755</t>
         </is>
       </c>
-      <c r="AN38" t="inlineStr">
+      <c r="AR38" t="inlineStr">
         <is>
           <t>95149</t>
         </is>
       </c>
-      <c r="AO38" t="inlineStr">
+      <c r="AS38" t="inlineStr">
         <is>
           <t>SB*</t>
+        </is>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.320714924499832</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>19.88607472028888</v>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6284,55 +7177,78 @@
         <v>-30.02201682027422</v>
       </c>
       <c r="AB39" t="n">
+        <v>7.632300328040123</v>
+      </c>
+      <c r="AC39" t="n">
         <v>7.298902034759521</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AD39" t="n">
         <v>7.86634635925293</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AE39" t="n">
         <v>6.586875438690186</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AF39" t="n">
         <v>1.279470920562744</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AG39" t="n">
         <v>63.65194057756435</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AH39" t="n">
         <v>4598.2256</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AI39" t="n">
         <v>0.7419512</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AJ39" t="n">
         <v>0.25279695</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AK39" t="n">
         <v>0.7484602299999999</v>
       </c>
-      <c r="AK39" t="inlineStr">
+      <c r="AL39" t="n">
+        <v>0.5225342508361663</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.1864138779743661</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.298166593707967</v>
+      </c>
+      <c r="AO39" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL39" t="inlineStr">
+      <c r="AP39" t="inlineStr">
         <is>
           <t>HD 213042</t>
         </is>
       </c>
-      <c r="AM39" t="inlineStr">
+      <c r="AQ39" t="inlineStr">
         <is>
           <t>GJ 862</t>
         </is>
       </c>
-      <c r="AN39" t="inlineStr">
+      <c r="AR39" t="inlineStr">
         <is>
           <t>110996</t>
         </is>
       </c>
-      <c r="AO39" t="inlineStr">
+      <c r="AS39" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.769575738741929</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>15.71044010482964</v>
+      </c>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -6434,55 +7350,78 @@
         <v>-3.641055455311226</v>
       </c>
       <c r="AB40" t="n">
+        <v>8.786167160444259</v>
+      </c>
+      <c r="AC40" t="n">
         <v>8.26960277557373</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AD40" t="n">
         <v>9.028376579284668</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AE40" t="n">
         <v>7.420927047729492</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AF40" t="n">
         <v>1.607449531555176</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AG40" t="n">
         <v>70.13347528858606</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AH40" t="n">
         <v>4022.2102</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AI40" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI40" t="n">
+      <c r="AJ40" t="n">
         <v>0.11139318</v>
       </c>
-      <c r="AJ40" t="n">
+      <c r="AK40" t="n">
         <v>0.69506925</v>
       </c>
-      <c r="AK40" t="inlineStr">
+      <c r="AL40" t="n">
+        <v>0.3533903924347861</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.2800848151418651</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.55802133070193</v>
+      </c>
+      <c r="AO40" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL40" t="inlineStr">
+      <c r="AP40" t="inlineStr">
         <is>
           <t>HD 173818</t>
         </is>
       </c>
-      <c r="AM40" t="inlineStr">
+      <c r="AQ40" t="inlineStr">
         <is>
           <t>GJ 726</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
+      <c r="AR40" t="inlineStr">
         <is>
           <t>92200</t>
         </is>
       </c>
-      <c r="AO40" t="inlineStr">
+      <c r="AS40" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU40" t="n">
+        <v>2.084557182793672</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>14.25852627272766</v>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -6587,52 +7526,75 @@
         <v>6.380115509033203</v>
       </c>
       <c r="AC41" t="n">
+        <v>6.380115509033203</v>
+      </c>
+      <c r="AD41" t="n">
         <v>6.777419090270996</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AE41" t="n">
         <v>5.814102172851562</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AF41" t="n">
         <v>0.9633169174194336</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AG41" t="n">
         <v>54.72597918734041</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AH41" t="n">
         <v>5421.711</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AI41" t="n">
         <v>1.2</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AJ41" t="n">
         <v>0.6974737</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AK41" t="n">
         <v>0.9731488</v>
       </c>
-      <c r="AK41" t="inlineStr">
+      <c r="AL41" t="n">
+        <v>0.8326249431969582</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.1342446975344438</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1.500787772810031</v>
+      </c>
+      <c r="AO41" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL41" t="inlineStr">
+      <c r="AP41" t="inlineStr">
         <is>
           <t>HD 154088</t>
         </is>
       </c>
-      <c r="AM41" t="inlineStr">
+      <c r="AQ41" t="inlineStr">
         <is>
           <t>GJ 652</t>
         </is>
       </c>
-      <c r="AN41" t="inlineStr">
+      <c r="AR41" t="inlineStr">
         <is>
           <t>83541</t>
         </is>
       </c>
-      <c r="AO41" t="inlineStr">
+      <c r="AS41" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.302097459932565</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>18.27285714846244</v>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6731,55 +7693,78 @@
         <v>-27.03378080946467</v>
       </c>
       <c r="AB42" t="n">
+        <v>5.706821329026222</v>
+      </c>
+      <c r="AC42" t="n">
         <v>5.481349945068359</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AD42" t="n">
         <v>5.935905933380127</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AE42" t="n">
         <v>4.855769157409668</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AF42" t="n">
         <v>1.080136775970459</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AG42" t="n">
         <v>113.4871798847664</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AH42" t="n">
         <v>4978.235</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AI42" t="n">
         <v>0.84917706</v>
       </c>
-      <c r="AI42" t="n">
+      <c r="AJ42" t="n">
         <v>0.38908634</v>
       </c>
-      <c r="AJ42" t="n">
+      <c r="AK42" t="n">
         <v>0.79156786</v>
       </c>
-      <c r="AK42" t="inlineStr">
+      <c r="AL42" t="n">
+        <v>0.637194243489966</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.07801717720773045</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6418473749061834</v>
+      </c>
+      <c r="AO42" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL42" t="inlineStr">
+      <c r="AP42" t="inlineStr">
         <is>
           <t>HD 192310</t>
         </is>
       </c>
-      <c r="AM42" t="inlineStr">
+      <c r="AQ42" t="inlineStr">
         <is>
           <t>GJ 785</t>
         </is>
       </c>
-      <c r="AN42" t="inlineStr">
+      <c r="AR42" t="inlineStr">
         <is>
           <t>99825</t>
         </is>
       </c>
-      <c r="AO42" t="inlineStr">
+      <c r="AS42" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.712118408202441</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>8.811567976359871</v>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6878,55 +7863,78 @@
         <v>-19.85548923847976</v>
       </c>
       <c r="AB43" t="n">
+        <v>9.066298904175758</v>
+      </c>
+      <c r="AC43" t="n">
         <v>8.497677803039551</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AD43" t="n">
         <v>9.310630798339844</v>
       </c>
-      <c r="AD43" t="n">
+      <c r="AE43" t="n">
         <v>7.617907047271729</v>
       </c>
-      <c r="AE43" t="n">
+      <c r="AF43" t="n">
         <v>1.692723751068115</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AG43" t="n">
         <v>63.38643828104384</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AH43" t="n">
         <v>3939.6514</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AI43" t="n">
         <v>0.6</v>
       </c>
-      <c r="AI43" t="n">
+      <c r="AJ43" t="n">
         <v>0.10051212</v>
       </c>
-      <c r="AJ43" t="n">
+      <c r="AK43" t="n">
         <v>0.5759601</v>
       </c>
-      <c r="AK43" t="inlineStr">
+      <c r="AL43" t="n">
+        <v>0.3363424972877731</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.3002265324091725</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.508423193722087</v>
+      </c>
+      <c r="AO43" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL43" t="inlineStr">
+      <c r="AP43" t="inlineStr">
         <is>
           <t>HD 203040</t>
         </is>
       </c>
-      <c r="AM43" t="inlineStr">
+      <c r="AQ43" t="inlineStr">
         <is>
           <t>GJ 9736, GJ 826.1</t>
         </is>
       </c>
-      <c r="AN43" t="inlineStr">
+      <c r="AR43" t="inlineStr">
         <is>
           <t>105341</t>
         </is>
       </c>
-      <c r="AO43" t="inlineStr">
+      <c r="AS43" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU43" t="n">
+        <v>3.140321084148939</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>15.77624531553869</v>
+      </c>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -7028,52 +8036,75 @@
         <v>6.147863864898682</v>
       </c>
       <c r="AC44" t="n">
+        <v>6.147863864898682</v>
+      </c>
+      <c r="AD44" t="n">
         <v>6.518683910369873</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AE44" t="n">
         <v>5.598161220550537</v>
       </c>
-      <c r="AE44" t="n">
+      <c r="AF44" t="n">
         <v>0.9205226898193359</v>
       </c>
-      <c r="AF44" t="n">
+      <c r="AG44" t="n">
         <v>77.91401913043707</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AH44" t="n">
         <v>5357.897</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AI44" t="n">
         <v>0.8</v>
       </c>
-      <c r="AI44" t="n">
+      <c r="AJ44" t="n">
         <v>0.44263253</v>
       </c>
-      <c r="AJ44" t="n">
+      <c r="AK44" t="n">
         <v>0.7770072</v>
       </c>
-      <c r="AK44" t="inlineStr">
+      <c r="AL44" t="n">
+        <v>0.6657742669072401</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.1169016179159743</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.9541920429052705</v>
+      </c>
+      <c r="AO44" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL44" t="inlineStr">
+      <c r="AP44" t="inlineStr">
         <is>
           <t>HD  14412</t>
         </is>
       </c>
-      <c r="AM44" t="inlineStr">
+      <c r="AQ44" t="inlineStr">
         <is>
           <t>GJ 95</t>
         </is>
       </c>
-      <c r="AN44" t="inlineStr">
+      <c r="AR44" t="inlineStr">
         <is>
           <t>10798</t>
         </is>
       </c>
-      <c r="AO44" t="inlineStr">
+      <c r="AS44" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU44" t="n">
+        <v>1.705355230604966</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>12.83466070882423</v>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -7172,55 +8203,78 @@
         <v>-9.458168216292322</v>
       </c>
       <c r="AB45" t="n">
+        <v>3.751865854084492</v>
+      </c>
+      <c r="AC45" t="n">
         <v>3.465751886367798</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AD45" t="n">
         <v>3.982447862625122</v>
       </c>
-      <c r="AD45" t="n">
+      <c r="AE45" t="n">
         <v>2.842150211334229</v>
       </c>
-      <c r="AE45" t="n">
+      <c r="AF45" t="n">
         <v>1.140297651290894</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AG45" t="n">
         <v>310.5772928005821</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AH45" t="n">
         <v>5002.0435</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AI45" t="n">
         <v>0.8111994</v>
       </c>
-      <c r="AI45" t="n">
+      <c r="AJ45" t="n">
         <v>0.33970678</v>
       </c>
-      <c r="AJ45" t="n">
+      <c r="AK45" t="n">
         <v>0.77611643</v>
       </c>
-      <c r="AK45" t="inlineStr">
+      <c r="AL45" t="n">
+        <v>0.5946751281182406</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.03176323541349732</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.246737195897434</v>
+      </c>
+      <c r="AO45" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL45" t="inlineStr">
+      <c r="AP45" t="inlineStr">
         <is>
           <t>HD  22049</t>
         </is>
       </c>
-      <c r="AM45" t="inlineStr">
+      <c r="AQ45" t="inlineStr">
         <is>
           <t>GJ 144.0, GJ 144</t>
         </is>
       </c>
-      <c r="AN45" t="inlineStr">
+      <c r="AR45" t="inlineStr">
         <is>
           <t>16537</t>
         </is>
       </c>
-      <c r="AO45" t="inlineStr">
+      <c r="AS45" t="inlineStr">
         <is>
           <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU45" t="n">
+        <v>1.735189810693292</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>3.219810408490127</v>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -7322,47 +8376,70 @@
         <v>5.980798244476318</v>
       </c>
       <c r="AC46" t="n">
+        <v>5.980798244476318</v>
+      </c>
+      <c r="AD46" t="n">
         <v>6.326191902160645</v>
       </c>
-      <c r="AD46" t="n">
+      <c r="AE46" t="n">
         <v>5.45892333984375</v>
       </c>
-      <c r="AE46" t="n">
+      <c r="AF46" t="n">
         <v>0.8672685623168945</v>
       </c>
-      <c r="AF46" t="n">
+      <c r="AG46" t="n">
         <v>58.98601112979235</v>
       </c>
-      <c r="AG46" t="n">
+      <c r="AH46" t="n">
         <v>5571.858150027292</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AI46" t="n">
         <v>0.9714971</v>
       </c>
-      <c r="AI46" t="n">
+      <c r="AJ46" t="n">
         <v>0.8506513</v>
       </c>
-      <c r="AJ46" t="n">
+      <c r="AK46" t="n">
         <v>0.95533544</v>
       </c>
-      <c r="AL46" t="inlineStr">
+      <c r="AL46" t="n">
+        <v>0.9112686373116805</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>0.1197528320292361</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1.260191655960232</v>
+      </c>
+      <c r="AP46" t="inlineStr">
         <is>
           <t>HD 177565</t>
         </is>
       </c>
-      <c r="AM46" t="inlineStr">
+      <c r="AQ46" t="inlineStr">
         <is>
           <t>GJ 744</t>
         </is>
       </c>
-      <c r="AN46" t="inlineStr">
+      <c r="AR46" t="inlineStr">
         <is>
           <t>93858</t>
         </is>
       </c>
-      <c r="AO46" t="inlineStr">
+      <c r="AS46" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU46" t="n">
+        <v>1.114227419076153</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>16.95317213092454</v>
+      </c>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -7466,55 +8543,78 @@
         <v>-66.18709128441725</v>
       </c>
       <c r="AB47" t="n">
+        <v>3.618788456735611</v>
+      </c>
+      <c r="AC47" t="n">
         <v>3.364138126373291</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AD47" t="n">
         <v>3.846358299255371</v>
       </c>
-      <c r="AD47" t="n">
+      <c r="AE47" t="n">
         <v>2.827079772949219</v>
       </c>
-      <c r="AE47" t="n">
+      <c r="AF47" t="n">
         <v>1.019278526306152</v>
       </c>
-      <c r="AF47" t="n">
+      <c r="AG47" t="n">
         <v>163.9544145383167</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AH47" t="n">
         <v>5437.5474</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AI47" t="n">
         <v>1.5</v>
       </c>
-      <c r="AI47" t="n">
+      <c r="AJ47" t="n">
         <v>1.2535083</v>
       </c>
-      <c r="AJ47" t="n">
+      <c r="AK47" t="n">
         <v>1.2615935</v>
       </c>
-      <c r="AK47" t="inlineStr">
+      <c r="AL47" t="n">
+        <v>1.115174356615853</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>0.03792613478839159</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.5486076188205466</v>
+      </c>
+      <c r="AO47" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL47" t="inlineStr">
+      <c r="AP47" t="inlineStr">
         <is>
           <t>HD 190248</t>
         </is>
       </c>
-      <c r="AM47" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
         <is>
           <t>GJ 780</t>
         </is>
       </c>
-      <c r="AN47" t="inlineStr">
+      <c r="AR47" t="inlineStr">
         <is>
           <t>99240</t>
         </is>
       </c>
-      <c r="AO47" t="inlineStr">
+      <c r="AS47" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU47" t="n">
+        <v>0.7470212065555705</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>6.099256325704463</v>
+      </c>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -7616,50 +8716,73 @@
         <v>-4.777508623880735</v>
       </c>
       <c r="AB48" t="n">
+        <v>9.435870217838287</v>
+      </c>
+      <c r="AC48" t="n">
         <v>8.901265144348145</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AD48" t="n">
         <v>9.678739547729492</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AE48" t="n">
         <v>8.044776916503906</v>
       </c>
-      <c r="AE48" t="n">
+      <c r="AF48" t="n">
         <v>1.633962631225586</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AG48" t="n">
         <v>52.21004716861264</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AH48" t="n">
         <v>4093.7727</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AI48" t="n">
         <v>0.64730173</v>
       </c>
-      <c r="AI48" t="n">
+      <c r="AJ48" t="n">
         <v>0.113832116</v>
       </c>
-      <c r="AJ48" t="n">
+      <c r="AK48" t="n">
         <v>0.7120389</v>
       </c>
-      <c r="AK48" t="inlineStr">
+      <c r="AL48" t="n">
+        <v>0.3565852273888486</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0.3933991440170905</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>2.11386180640969</v>
+      </c>
+      <c r="AO48" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AM48" t="inlineStr">
+      <c r="AQ48" t="inlineStr">
         <is>
           <t>GJ 583</t>
         </is>
       </c>
-      <c r="AN48" t="inlineStr">
+      <c r="AR48" t="inlineStr">
         <is>
           <t>75201</t>
         </is>
       </c>
-      <c r="AO48" t="inlineStr">
+      <c r="AS48" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU48" t="n">
+        <v>1.793063235341547</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>19.15340158131814</v>
+      </c>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -7761,55 +8884,78 @@
         <v>-43.50488163509864</v>
       </c>
       <c r="AB49" t="n">
+        <v>7.625186750273705</v>
+      </c>
+      <c r="AC49" t="n">
         <v>7.196407794952393</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AD49" t="n">
         <v>7.863672256469727</v>
       </c>
-      <c r="AD49" t="n">
+      <c r="AE49" t="n">
         <v>6.405837535858154</v>
       </c>
-      <c r="AE49" t="n">
+      <c r="AF49" t="n">
         <v>1.457834720611572</v>
       </c>
-      <c r="AF49" t="n">
+      <c r="AG49" t="n">
         <v>88.67366322546205</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AH49" t="n">
         <v>4060</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AI49" t="n">
         <v>0.6977318</v>
       </c>
-      <c r="AI49" t="n">
+      <c r="AJ49" t="n">
         <v>0.17581</v>
       </c>
-      <c r="AJ49" t="n">
+      <c r="AK49" t="n">
         <v>0.78265923</v>
       </c>
-      <c r="AK49" t="inlineStr">
+      <c r="AL49" t="n">
+        <v>0.4435420364286489</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>0.1678339315201408</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.04423534837364</v>
+      </c>
+      <c r="AO49" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL49" t="inlineStr">
+      <c r="AP49" t="inlineStr">
         <is>
           <t>HD  85512</t>
         </is>
       </c>
-      <c r="AM49" t="inlineStr">
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>GJ 370</t>
         </is>
       </c>
-      <c r="AN49" t="inlineStr">
+      <c r="AR49" t="inlineStr">
         <is>
           <t>48331</t>
         </is>
       </c>
-      <c r="AO49" t="inlineStr">
+      <c r="AS49" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU49" t="n">
+        <v>1.455359828131016</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>11.27730561279955</v>
+      </c>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -7908,55 +9054,78 @@
         <v>-11.13726849432206</v>
       </c>
       <c r="AB50" t="n">
+        <v>9.452585903630256</v>
+      </c>
+      <c r="AC50" t="n">
         <v>8.844958305358887</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AD50" t="n">
         <v>9.698563575744629</v>
       </c>
-      <c r="AD50" t="n">
+      <c r="AE50" t="n">
         <v>7.939717769622803</v>
       </c>
-      <c r="AE50" t="n">
+      <c r="AF50" t="n">
         <v>1.758845806121826</v>
       </c>
-      <c r="AF50" t="n">
+      <c r="AG50" t="n">
         <v>56.06777131891592</v>
       </c>
-      <c r="AG50" t="n">
+      <c r="AH50" t="n">
         <v>3890.9976</v>
       </c>
-      <c r="AH50" t="n">
+      <c r="AI50" t="n">
         <v>0.6</v>
       </c>
-      <c r="AI50" t="n">
+      <c r="AJ50" t="n">
         <v>0.110792436</v>
       </c>
-      <c r="AJ50" t="n">
+      <c r="AK50" t="n">
         <v>0.764504</v>
       </c>
-      <c r="AK50" t="inlineStr">
+      <c r="AL50" t="n">
+        <v>0.3535030973536811</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.3434949446544288</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.769296033820299</v>
+      </c>
+      <c r="AO50" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL50" t="inlineStr">
+      <c r="AP50" t="inlineStr">
         <is>
           <t>HD 132683</t>
         </is>
       </c>
-      <c r="AM50" t="inlineStr">
+      <c r="AQ50" t="inlineStr">
         <is>
           <t>GJ 9507, GJ 571.1</t>
         </is>
       </c>
-      <c r="AN50" t="inlineStr">
+      <c r="AR50" t="inlineStr">
         <is>
           <t>73457</t>
         </is>
       </c>
-      <c r="AO50" t="inlineStr">
+      <c r="AS50" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU50" t="n">
+        <v>1.342801953045888</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>17.83555822670312</v>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -8058,52 +9227,75 @@
         <v>5.755219459533691</v>
       </c>
       <c r="AC51" t="n">
+        <v>5.755219459533691</v>
+      </c>
+      <c r="AD51" t="n">
         <v>6.13964319229126</v>
       </c>
-      <c r="AD51" t="n">
+      <c r="AE51" t="n">
         <v>5.203418254852295</v>
       </c>
-      <c r="AE51" t="n">
+      <c r="AF51" t="n">
         <v>0.9362249374389648</v>
       </c>
-      <c r="AF51" t="n">
+      <c r="AG51" t="n">
         <v>79.49527095617434</v>
       </c>
-      <c r="AG51" t="n">
+      <c r="AH51" t="n">
         <v>5361.131</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AI51" t="n">
         <v>0.8726523</v>
       </c>
-      <c r="AI51" t="n">
+      <c r="AJ51" t="n">
         <v>0.597206</v>
       </c>
-      <c r="AJ51" t="n">
+      <c r="AK51" t="n">
         <v>0.8927628</v>
       </c>
-      <c r="AK51" t="inlineStr">
+      <c r="AL51" t="n">
+        <v>0.7731896455781064</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>0.09772240863258282</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>0.8977687046067748</v>
+      </c>
+      <c r="AO51" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL51" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>HD  69830</t>
         </is>
       </c>
-      <c r="AM51" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
         <is>
           <t>GJ 302</t>
         </is>
       </c>
-      <c r="AN51" t="inlineStr">
+      <c r="AR51" t="inlineStr">
         <is>
           <t>40693</t>
         </is>
       </c>
-      <c r="AO51" t="inlineStr">
+      <c r="AS51" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU51" t="n">
+        <v>1.226402369197755</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>12.57936463354278</v>
+      </c>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8205,55 +9397,78 @@
         <v>-21.42314039626168</v>
       </c>
       <c r="AB52" t="n">
+        <v>5.725483061494828</v>
+      </c>
+      <c r="AC52" t="n">
         <v>5.364036560058594</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AD52" t="n">
         <v>5.960627555847168</v>
       </c>
-      <c r="AD52" t="n">
+      <c r="AE52" t="n">
         <v>4.63702392578125</v>
       </c>
-      <c r="AE52" t="n">
+      <c r="AF52" t="n">
         <v>1.323603630065918</v>
       </c>
-      <c r="AF52" t="n">
+      <c r="AG52" t="n">
         <v>169.8842702825854</v>
       </c>
-      <c r="AG52" t="n">
+      <c r="AH52" t="n">
         <v>4503.0303</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AI52" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI52" t="n">
+      <c r="AJ52" t="n">
         <v>0.22034836</v>
       </c>
-      <c r="AJ52" t="n">
+      <c r="AK52" t="n">
         <v>0.7356795</v>
       </c>
-      <c r="AK52" t="inlineStr">
+      <c r="AL52" t="n">
+        <v>0.4896606979971491</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>0.076958406914061</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>0.5039171941821956</v>
+      </c>
+      <c r="AO52" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL52" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>HD 131977</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
         <is>
           <t>GJ 570, GJ 570 A</t>
         </is>
       </c>
-      <c r="AN52" t="inlineStr">
+      <c r="AR52" t="inlineStr">
         <is>
           <t>73184</t>
         </is>
       </c>
-      <c r="AO52" t="inlineStr">
+      <c r="AS52" t="inlineStr">
         <is>
           <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU52" t="n">
+        <v>1.758053457990462</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>5.886360157633197</v>
+      </c>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8350,52 +9565,75 @@
         <v>6.238136291503906</v>
       </c>
       <c r="AC53" t="n">
+        <v>6.238136291503906</v>
+      </c>
+      <c r="AD53" t="n">
         <v>6.630614757537842</v>
       </c>
-      <c r="AD53" t="n">
+      <c r="AE53" t="n">
         <v>5.73026704788208</v>
       </c>
-      <c r="AE53" t="n">
+      <c r="AF53" t="n">
         <v>0.9003477096557617</v>
       </c>
-      <c r="AF53" t="n">
+      <c r="AG53" t="n">
         <v>53.87850062839401</v>
       </c>
-      <c r="AG53" t="n">
+      <c r="AH53" t="n">
         <v>5576.3335</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AI53" t="n">
         <v>0.9</v>
       </c>
-      <c r="AI53" t="n">
+      <c r="AJ53" t="n">
         <v>0.83231246</v>
       </c>
-      <c r="AJ53" t="n">
+      <c r="AK53" t="n">
         <v>0.9774586</v>
       </c>
-      <c r="AK53" t="inlineStr">
+      <c r="AL53" t="n">
+        <v>0.9011460241167897</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>0.1350887681894243</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1.360645728100882</v>
+      </c>
+      <c r="AO53" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="AL53" t="inlineStr">
+      <c r="AP53" t="inlineStr">
         <is>
           <t>HD 120690</t>
         </is>
       </c>
-      <c r="AM53" t="inlineStr">
+      <c r="AQ53" t="inlineStr">
         <is>
           <t>GJ 530</t>
         </is>
       </c>
-      <c r="AN53" t="inlineStr">
+      <c r="AR53" t="inlineStr">
         <is>
           <t>67620</t>
         </is>
       </c>
-      <c r="AO53" t="inlineStr">
+      <c r="AS53" t="inlineStr">
         <is>
           <t>SB*</t>
+        </is>
+      </c>
+      <c r="AU53" t="n">
+        <v>0.9637122808438549</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>18.56027893012671</v>
+      </c>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8494,55 +9732,78 @@
         <v>-26.44581248850255</v>
       </c>
       <c r="AB54" t="n">
+        <v>9.127499003171922</v>
+      </c>
+      <c r="AC54" t="n">
         <v>8.660046577453613</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AD54" t="n">
         <v>9.367588996887207</v>
       </c>
-      <c r="AD54" t="n">
+      <c r="AE54" t="n">
         <v>7.845291137695312</v>
       </c>
-      <c r="AE54" t="n">
+      <c r="AF54" t="n">
         <v>1.522297859191895</v>
       </c>
-      <c r="AF54" t="n">
+      <c r="AG54" t="n">
         <v>53.55426056338445</v>
       </c>
-      <c r="AG54" t="n">
+      <c r="AH54" t="n">
         <v>4130.81</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AI54" t="n">
         <v>0.662613</v>
       </c>
-      <c r="AI54" t="n">
+      <c r="AJ54" t="n">
         <v>0.12756857</v>
       </c>
-      <c r="AJ54" t="n">
+      <c r="AK54" t="n">
         <v>0.69739515</v>
       </c>
-      <c r="AK54" t="inlineStr">
+      <c r="AL54" t="n">
+        <v>0.3771107961493197</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0.347385855302755</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.942157721485126</v>
+      </c>
+      <c r="AO54" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL54" t="inlineStr">
+      <c r="AP54" t="inlineStr">
         <is>
           <t>HD  20280</t>
         </is>
       </c>
-      <c r="AM54" t="inlineStr">
+      <c r="AQ54" t="inlineStr">
         <is>
           <t>GJ 131</t>
         </is>
       </c>
-      <c r="AN54" t="inlineStr">
+      <c r="AR54" t="inlineStr">
         <is>
           <t>15095</t>
         </is>
       </c>
-      <c r="AO54" t="inlineStr">
+      <c r="AS54" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU54" t="n">
+        <v>1.953543939316974</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>18.67265068138592</v>
+      </c>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -8644,55 +9905,78 @@
         <v>-56.79725466122902</v>
       </c>
       <c r="AB55" t="n">
+        <v>4.673483854799271</v>
+      </c>
+      <c r="AC55" t="n">
         <v>4.322904109954834</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AD55" t="n">
         <v>4.907976627349854</v>
       </c>
-      <c r="AD55" t="n">
+      <c r="AE55" t="n">
         <v>3.610557079315186</v>
       </c>
-      <c r="AE55" t="n">
+      <c r="AF55" t="n">
         <v>1.297419548034668</v>
       </c>
-      <c r="AF55" t="n">
+      <c r="AG55" t="n">
         <v>274.8431415216296</v>
       </c>
-      <c r="AG55" t="n">
+      <c r="AH55" t="n">
         <v>4560.303</v>
       </c>
-      <c r="AH55" t="n">
+      <c r="AI55" t="n">
         <v>0.7674768</v>
       </c>
-      <c r="AI55" t="n">
+      <c r="AJ55" t="n">
         <v>0.21481201</v>
       </c>
-      <c r="AJ55" t="n">
+      <c r="AK55" t="n">
         <v>0.7022301</v>
       </c>
-      <c r="AK55" t="inlineStr">
+      <c r="AL55" t="n">
+        <v>0.4824064445175111</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>0.04760277646490326</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>0.3239498125541532</v>
+      </c>
+      <c r="AO55" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL55" t="inlineStr">
+      <c r="AP55" t="inlineStr">
         <is>
           <t>HD 209100</t>
         </is>
       </c>
-      <c r="AM55" t="inlineStr">
+      <c r="AQ55" t="inlineStr">
         <is>
           <t>GJ 845 A, GJ 845</t>
         </is>
       </c>
-      <c r="AN55" t="inlineStr">
+      <c r="AR55" t="inlineStr">
         <is>
           <t>108870</t>
         </is>
       </c>
-      <c r="AO55" t="inlineStr">
+      <c r="AS55" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU55" t="n">
+        <v>2.216291768419251</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>3.638438981826665</v>
+      </c>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -8794,52 +10078,75 @@
         <v>5.645046710968018</v>
       </c>
       <c r="AC56" t="n">
+        <v>5.645046710968018</v>
+      </c>
+      <c r="AD56" t="n">
         <v>5.956469535827637</v>
       </c>
-      <c r="AD56" t="n">
+      <c r="AE56" t="n">
         <v>5.14769458770752</v>
       </c>
-      <c r="AE56" t="n">
+      <c r="AF56" t="n">
         <v>0.8087749481201172</v>
       </c>
-      <c r="AF56" t="n">
+      <c r="AG56" t="n">
         <v>66.45087121691725</v>
       </c>
-      <c r="AG56" t="n">
+      <c r="AH56" t="n">
         <v>5693.858</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AI56" t="n">
         <v>1.0213869</v>
       </c>
-      <c r="AI56" t="n">
+      <c r="AJ56" t="n">
         <v>0.91561615</v>
       </c>
-      <c r="AJ56" t="n">
+      <c r="AK56" t="n">
         <v>0.9342702000000001</v>
       </c>
-      <c r="AK56" t="inlineStr">
+      <c r="AL56" t="n">
+        <v>0.9383358835476157</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>0.1081595513125706</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>1.184256922800679</v>
+      </c>
+      <c r="AO56" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="AL56" t="inlineStr">
+      <c r="AP56" t="inlineStr">
         <is>
           <t>HD   4391</t>
         </is>
       </c>
-      <c r="AM56" t="inlineStr">
+      <c r="AQ56" t="inlineStr">
         <is>
           <t>GJ 1021</t>
         </is>
       </c>
-      <c r="AN56" t="inlineStr">
+      <c r="AR56" t="inlineStr">
         <is>
           <t>3583</t>
         </is>
       </c>
-      <c r="AO56" t="inlineStr">
+      <c r="AS56" t="inlineStr">
         <is>
           <t>EclBin</t>
+        </is>
+      </c>
+      <c r="AU56" t="n">
+        <v>1.252485750795232</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>15.04871165248797</v>
+      </c>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8943,55 +10250,78 @@
         <v>-40.07622273995087</v>
       </c>
       <c r="AB57" t="n">
+        <v>6.89334539867878</v>
+      </c>
+      <c r="AC57" t="n">
         <v>6.703752517700195</v>
       </c>
-      <c r="AC57" t="n">
+      <c r="AD57" t="n">
         <v>7.120555400848389</v>
       </c>
-      <c r="AD57" t="n">
+      <c r="AE57" t="n">
         <v>6.115734100341797</v>
       </c>
-      <c r="AE57" t="n">
+      <c r="AF57" t="n">
         <v>1.004821300506592</v>
       </c>
-      <c r="AF57" t="n">
+      <c r="AG57" t="n">
         <v>56.55696734255255</v>
       </c>
-      <c r="AG57" t="n">
+      <c r="AH57" t="n">
         <v>5304.386</v>
       </c>
-      <c r="AH57" t="n">
+      <c r="AI57" t="n">
         <v>0.9203091</v>
       </c>
-      <c r="AI57" t="n">
+      <c r="AJ57" t="n">
         <v>0.48952618</v>
       </c>
-      <c r="AJ57" t="n">
+      <c r="AK57" t="n">
         <v>0.8146252</v>
       </c>
-      <c r="AK57" t="inlineStr">
+      <c r="AL57" t="n">
+        <v>0.7023097271960853</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>0.1603607960287167</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>1.441904243329443</v>
+      </c>
+      <c r="AO57" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL57" t="inlineStr">
+      <c r="AP57" t="inlineStr">
         <is>
           <t>HD  21175</t>
         </is>
       </c>
-      <c r="AM57" t="inlineStr">
+      <c r="AQ57" t="inlineStr">
         <is>
           <t>GJ 3222</t>
         </is>
       </c>
-      <c r="AN57" t="inlineStr">
+      <c r="AR57" t="inlineStr">
         <is>
           <t>15799</t>
         </is>
       </c>
-      <c r="AO57" t="inlineStr">
+      <c r="AS57" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU57" t="n">
+        <v>1.702394448792871</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>17.68128750509605</v>
+      </c>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -9087,45 +10417,68 @@
         <v>-26.92373729815386</v>
       </c>
       <c r="AB58" t="n">
+        <v>9.67037747138977</v>
+      </c>
+      <c r="AC58" t="n">
         <v>9.050765991210938</v>
       </c>
-      <c r="AC58" t="n">
+      <c r="AD58" t="n">
         <v>9.916899681091309</v>
       </c>
-      <c r="AD58" t="n">
+      <c r="AE58" t="n">
         <v>8.136176109313965</v>
       </c>
-      <c r="AE58" t="n">
+      <c r="AF58" t="n">
         <v>1.780723571777344</v>
       </c>
-      <c r="AF58" t="n">
+      <c r="AG58" t="n">
         <v>56.66021768982383</v>
       </c>
-      <c r="AG58" t="n">
+      <c r="AH58" t="n">
         <v>3780</v>
       </c>
-      <c r="AH58" t="n">
+      <c r="AI58" t="n">
         <v>0.6</v>
       </c>
-      <c r="AI58" t="n">
+      <c r="AJ58" t="n">
         <v>0.155</v>
       </c>
-      <c r="AJ58" t="n">
+      <c r="AK58" t="n">
         <v>0.946</v>
       </c>
-      <c r="AK58" t="inlineStr">
+      <c r="AL58" t="n">
+        <v>0.4190619018868291</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0.3330449041784046</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.867779189947706</v>
+      </c>
+      <c r="AO58" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AN58" t="inlineStr">
+      <c r="AR58" t="inlineStr">
         <is>
           <t>92444</t>
         </is>
       </c>
-      <c r="AO58" t="inlineStr">
+      <c r="AS58" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU58" t="n">
+        <v>0.7087251445485094</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>17.64906738400336</v>
+      </c>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -9224,55 +10577,78 @@
         <v>-35.10813709607592</v>
       </c>
       <c r="AB59" t="n">
+        <v>7.486979710493088</v>
+      </c>
+      <c r="AC59" t="n">
         <v>7.254369735717773</v>
       </c>
-      <c r="AC59" t="n">
+      <c r="AD59" t="n">
         <v>7.71633243560791</v>
       </c>
-      <c r="AD59" t="n">
+      <c r="AE59" t="n">
         <v>6.625423431396484</v>
       </c>
-      <c r="AE59" t="n">
+      <c r="AF59" t="n">
         <v>1.090909004211426</v>
       </c>
-      <c r="AF59" t="n">
+      <c r="AG59" t="n">
         <v>56.53743031557914</v>
       </c>
-      <c r="AG59" t="n">
+      <c r="AH59" t="n">
         <v>4899.634</v>
       </c>
-      <c r="AH59" t="n">
+      <c r="AI59" t="n">
         <v>0.76933944</v>
       </c>
-      <c r="AI59" t="n">
+      <c r="AJ59" t="n">
         <v>0.3231842</v>
       </c>
-      <c r="AJ59" t="n">
+      <c r="AK59" t="n">
         <v>0.78894806</v>
       </c>
-      <c r="AK59" t="inlineStr">
+      <c r="AL59" t="n">
+        <v>0.5829785897175407</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>0.1767749066620553</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>1.324076369442571</v>
+      </c>
+      <c r="AO59" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL59" t="inlineStr">
+      <c r="AP59" t="inlineStr">
         <is>
           <t>HD  30876</t>
         </is>
       </c>
-      <c r="AM59" t="inlineStr">
+      <c r="AQ59" t="inlineStr">
         <is>
           <t>GJ 3317</t>
         </is>
       </c>
-      <c r="AN59" t="inlineStr">
+      <c r="AR59" t="inlineStr">
         <is>
           <t>22451</t>
         </is>
       </c>
-      <c r="AO59" t="inlineStr">
+      <c r="AS59" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU59" t="n">
+        <v>1.566652800021061</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>17.68739743596811</v>
+      </c>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -9374,55 +10750,78 @@
         <v>-23.83643565047791</v>
       </c>
       <c r="AB60" t="n">
+        <v>9.582686301946641</v>
+      </c>
+      <c r="AC60" t="n">
         <v>9.06427001953125</v>
       </c>
-      <c r="AC60" t="n">
+      <c r="AD60" t="n">
         <v>9.824929237365723</v>
       </c>
-      <c r="AD60" t="n">
+      <c r="AE60" t="n">
         <v>8.216133117675781</v>
       </c>
-      <c r="AE60" t="n">
+      <c r="AF60" t="n">
         <v>1.608796119689941</v>
       </c>
-      <c r="AF60" t="n">
+      <c r="AG60" t="n">
         <v>54.36675345788812</v>
       </c>
-      <c r="AG60" t="n">
+      <c r="AH60" t="n">
         <v>4108.1836</v>
       </c>
-      <c r="AH60" t="n">
+      <c r="AI60" t="n">
         <v>0.63693863</v>
       </c>
-      <c r="AI60" t="n">
+      <c r="AJ60" t="n">
         <v>0.08764215</v>
       </c>
-      <c r="AJ60" t="n">
+      <c r="AK60" t="n">
         <v>0.5844045</v>
       </c>
-      <c r="AK60" t="inlineStr">
+      <c r="AL60" t="n">
+        <v>0.312766704585708</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0.4239206135824281</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>2.116175820186592</v>
+      </c>
+      <c r="AO60" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL60" t="inlineStr">
+      <c r="AP60" t="inlineStr">
         <is>
           <t>HD 158233</t>
         </is>
       </c>
-      <c r="AM60" t="inlineStr">
+      <c r="AQ60" t="inlineStr">
         <is>
           <t>GJ 4008</t>
         </is>
       </c>
-      <c r="AN60" t="inlineStr">
+      <c r="AR60" t="inlineStr">
         <is>
           <t>85561</t>
         </is>
       </c>
-      <c r="AO60" t="inlineStr">
+      <c r="AS60" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU60" t="n">
+        <v>3.191221396749432</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>18.39359418021142</v>
+      </c>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -9518,55 +10917,78 @@
         <v>-41.3431573010344</v>
       </c>
       <c r="AB61" t="n">
+        <v>8.834761856145859</v>
+      </c>
+      <c r="AC61" t="n">
         <v>8.376395225524902</v>
       </c>
-      <c r="AC61" t="n">
+      <c r="AD61" t="n">
         <v>9.074453353881836</v>
       </c>
-      <c r="AD61" t="n">
+      <c r="AE61" t="n">
         <v>7.56816577911377</v>
       </c>
-      <c r="AE61" t="n">
+      <c r="AF61" t="n">
         <v>1.506287574768066</v>
       </c>
-      <c r="AF61" t="n">
+      <c r="AG61" t="n">
         <v>56.93518463192297</v>
       </c>
-      <c r="AG61" t="n">
+      <c r="AH61" t="n">
         <v>4336.919</v>
       </c>
-      <c r="AH61" t="n">
+      <c r="AI61" t="n">
         <v>0.672662</v>
       </c>
-      <c r="AI61" t="n">
+      <c r="AJ61" t="n">
         <v>0.14044195</v>
       </c>
-      <c r="AJ61" t="n">
+      <c r="AK61" t="n">
         <v>0.6694981</v>
       </c>
-      <c r="AK61" t="inlineStr">
+      <c r="AL61" t="n">
+        <v>0.3932234203104373</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3230788704383446</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.858379847004002</v>
+      </c>
+      <c r="AO61" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL61" t="inlineStr">
+      <c r="AP61" t="inlineStr">
         <is>
           <t>HD  25004</t>
         </is>
       </c>
-      <c r="AM61" t="inlineStr">
+      <c r="AQ61" t="inlineStr">
         <is>
           <t>GJ 1066</t>
         </is>
       </c>
-      <c r="AN61" t="inlineStr">
+      <c r="AR61" t="inlineStr">
         <is>
           <t>18450</t>
         </is>
       </c>
-      <c r="AO61" t="inlineStr">
+      <c r="AS61" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU61" t="n">
+        <v>2.241552152343242</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>17.56383168799474</v>
+      </c>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -9665,50 +11087,73 @@
         <v>6.893339107578528</v>
       </c>
       <c r="AB62" t="n">
+        <v>5.787130809626579</v>
+      </c>
+      <c r="AC62" t="n">
         <v>5.498319625854492</v>
       </c>
-      <c r="AC62" t="n">
+      <c r="AD62" t="n">
         <v>6.0191650390625</v>
       </c>
-      <c r="AD62" t="n">
+      <c r="AE62" t="n">
         <v>4.820521831512451</v>
       </c>
-      <c r="AE62" t="n">
+      <c r="AF62" t="n">
         <v>1.198643207550049</v>
       </c>
-      <c r="AF62" t="n">
+      <c r="AG62" t="n">
         <v>138.3400038096467</v>
       </c>
-      <c r="AG62" t="n">
+      <c r="AH62" t="n">
         <v>4819.478949903018</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AI62" t="n">
         <v>0.8</v>
       </c>
-      <c r="AI62" t="n">
+      <c r="AJ62" t="n">
         <v>0.2870424</v>
       </c>
-      <c r="AJ62" t="n">
+      <c r="AK62" t="n">
         <v>0.79312927</v>
       </c>
-      <c r="AL62" t="inlineStr">
+      <c r="AL62" t="n">
+        <v>0.5514980314530383</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>0.08059422994419436</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>0.5987250239337579</v>
+      </c>
+      <c r="AP62" t="inlineStr">
         <is>
           <t>HD  16160</t>
         </is>
       </c>
-      <c r="AM62" t="inlineStr">
+      <c r="AQ62" t="inlineStr">
         <is>
           <t>GJ 105 A</t>
         </is>
       </c>
-      <c r="AN62" t="inlineStr">
+      <c r="AR62" t="inlineStr">
         <is>
           <t>12114</t>
         </is>
       </c>
-      <c r="AO62" t="inlineStr">
+      <c r="AS62" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU62" t="n">
+        <v>1.603459718691285</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>7.228567098899183</v>
+      </c>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9810,52 +11255,75 @@
         <v>5.07960844039917</v>
       </c>
       <c r="AC63" t="n">
+        <v>5.07960844039917</v>
+      </c>
+      <c r="AD63" t="n">
         <v>5.379741668701172</v>
       </c>
-      <c r="AD63" t="n">
+      <c r="AE63" t="n">
         <v>4.594065189361572</v>
       </c>
-      <c r="AE63" t="n">
+      <c r="AF63" t="n">
         <v>0.7856764793395996</v>
       </c>
-      <c r="AF63" t="n">
+      <c r="AG63" t="n">
         <v>83.06064664354982</v>
       </c>
-      <c r="AG63" t="n">
+      <c r="AH63" t="n">
         <v>5765.0996</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AI63" t="n">
         <v>0.997309</v>
       </c>
-      <c r="AI63" t="n">
+      <c r="AJ63" t="n">
         <v>0.9984872299999999</v>
       </c>
-      <c r="AJ63" t="n">
+      <c r="AK63" t="n">
         <v>1.0010624</v>
       </c>
-      <c r="AK63" t="inlineStr">
+      <c r="AL63" t="n">
+        <v>0.9755192360774028</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>0.08585392268891817</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>0.9471080877111765</v>
+      </c>
+      <c r="AO63" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL63" t="inlineStr">
+      <c r="AP63" t="inlineStr">
         <is>
           <t>HD  20807</t>
         </is>
       </c>
-      <c r="AM63" t="inlineStr">
+      <c r="AQ63" t="inlineStr">
         <is>
           <t>GJ 138</t>
         </is>
       </c>
-      <c r="AN63" t="inlineStr">
+      <c r="AR63" t="inlineStr">
         <is>
           <t>15371</t>
         </is>
       </c>
-      <c r="AO63" t="inlineStr">
+      <c r="AS63" t="inlineStr">
         <is>
           <t>**</t>
+        </is>
+      </c>
+      <c r="AU63" t="n">
+        <v>0.9941371187539264</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>12.03939579583873</v>
+      </c>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9957,52 +11425,75 @@
         <v>6.40867280960083</v>
       </c>
       <c r="AC64" t="n">
+        <v>6.40867280960083</v>
+      </c>
+      <c r="AD64" t="n">
         <v>6.787174224853516</v>
       </c>
-      <c r="AD64" t="n">
+      <c r="AE64" t="n">
         <v>5.862994194030762</v>
       </c>
-      <c r="AE64" t="n">
+      <c r="AF64" t="n">
         <v>0.9241800308227539</v>
       </c>
-      <c r="AF64" t="n">
+      <c r="AG64" t="n">
         <v>56.96442817792121</v>
       </c>
-      <c r="AG64" t="n">
+      <c r="AH64" t="n">
         <v>5419.8447</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AI64" t="n">
         <v>0.84768456</v>
       </c>
-      <c r="AI64" t="n">
+      <c r="AJ64" t="n">
         <v>0.64614695</v>
       </c>
-      <c r="AJ64" t="n">
+      <c r="AK64" t="n">
         <v>0.92965513</v>
       </c>
-      <c r="AK64" t="inlineStr">
+      <c r="AL64" t="n">
+        <v>0.8014915047866248</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>0.1358992258600777</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1.252825370782558</v>
+      </c>
+      <c r="AO64" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL64" t="inlineStr">
+      <c r="AP64" t="inlineStr">
         <is>
           <t>HD   1237A, HD   1237</t>
         </is>
       </c>
-      <c r="AM64" t="inlineStr">
+      <c r="AQ64" t="inlineStr">
         <is>
           <t>GJ 3021 A, GJ 3021</t>
         </is>
       </c>
-      <c r="AN64" t="inlineStr">
+      <c r="AR64" t="inlineStr">
         <is>
           <t>1292</t>
         </is>
       </c>
-      <c r="AO64" t="inlineStr">
+      <c r="AS64" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU64" t="n">
+        <v>1.055039360931723</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>17.55481503082285</v>
+      </c>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -10109,52 +11600,75 @@
         <v>5.327651023864746</v>
       </c>
       <c r="AC65" t="n">
+        <v>5.327651023864746</v>
+      </c>
+      <c r="AD65" t="n">
         <v>5.654931545257568</v>
       </c>
-      <c r="AD65" t="n">
+      <c r="AE65" t="n">
         <v>4.837854385375977</v>
       </c>
-      <c r="AE65" t="n">
+      <c r="AF65" t="n">
         <v>0.8170771598815918</v>
       </c>
-      <c r="AF65" t="n">
+      <c r="AG65" t="n">
         <v>70.73714672122247</v>
       </c>
-      <c r="AG65" t="n">
+      <c r="AH65" t="n">
         <v>5678.4277</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AI65" t="n">
         <v>1.0083778</v>
       </c>
-      <c r="AI65" t="n">
+      <c r="AJ65" t="n">
         <v>1.0749472</v>
       </c>
-      <c r="AJ65" t="n">
+      <c r="AK65" t="n">
         <v>1.0235711</v>
       </c>
-      <c r="AK65" t="inlineStr">
+      <c r="AL65" t="n">
+        <v>1.017682356952956</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>0.09284537153286876</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1.051924800738141</v>
+      </c>
+      <c r="AO65" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="AL65" t="inlineStr">
+      <c r="AP65" t="inlineStr">
         <is>
           <t>HD 146233</t>
         </is>
       </c>
-      <c r="AM65" t="inlineStr">
+      <c r="AQ65" t="inlineStr">
         <is>
           <t>GJ 616</t>
         </is>
       </c>
-      <c r="AN65" t="inlineStr">
+      <c r="AR65" t="inlineStr">
         <is>
           <t>79672</t>
         </is>
       </c>
-      <c r="AO65" t="inlineStr">
+      <c r="AS65" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU65" t="n">
+        <v>0.9403060490214101</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>14.136843884035</v>
+      </c>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -10253,52 +11767,75 @@
         <v>6.538569927215576</v>
       </c>
       <c r="AC66" t="n">
+        <v>6.538569927215576</v>
+      </c>
+      <c r="AD66" t="n">
         <v>6.942165374755859</v>
       </c>
-      <c r="AD66" t="n">
+      <c r="AE66" t="n">
         <v>5.958354473114014</v>
       </c>
-      <c r="AE66" t="n">
+      <c r="AF66" t="n">
         <v>0.9838109016418457</v>
       </c>
-      <c r="AF66" t="n">
+      <c r="AG66" t="n">
         <v>63.40654504107503</v>
       </c>
-      <c r="AG66" t="n">
+      <c r="AH66" t="n">
         <v>5214.826</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AI66" t="n">
         <v>0.82140017</v>
       </c>
-      <c r="AI66" t="n">
+      <c r="AJ66" t="n">
         <v>0.4724082</v>
       </c>
-      <c r="AJ66" t="n">
+      <c r="AK66" t="n">
         <v>0.8509048</v>
       </c>
-      <c r="AK66" t="inlineStr">
+      <c r="AL66" t="n">
+        <v>0.6933996690425208</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>0.129864266986694</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.096139284920955</v>
+      </c>
+      <c r="AO66" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL66" t="inlineStr">
+      <c r="AP66" t="inlineStr">
         <is>
           <t>HD  41593</t>
         </is>
       </c>
-      <c r="AM66" t="inlineStr">
+      <c r="AQ66" t="inlineStr">
         <is>
           <t>GJ 227</t>
         </is>
       </c>
-      <c r="AN66" t="inlineStr">
+      <c r="AR66" t="inlineStr">
         <is>
           <t>28954</t>
         </is>
       </c>
-      <c r="AO66" t="inlineStr">
+      <c r="AS66" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU66" t="n">
+        <v>1.333250845514523</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>15.771242532647</v>
+      </c>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -10397,55 +11934,78 @@
         <v>-28.56491862106159</v>
       </c>
       <c r="AB67" t="n">
+        <v>8.108486263890267</v>
+      </c>
+      <c r="AC67" t="n">
         <v>7.771414756774902</v>
       </c>
-      <c r="AC67" t="n">
+      <c r="AD67" t="n">
         <v>8.34276294708252</v>
       </c>
-      <c r="AD67" t="n">
+      <c r="AE67" t="n">
         <v>7.054025173187256</v>
       </c>
-      <c r="AE67" t="n">
+      <c r="AF67" t="n">
         <v>1.288737773895264</v>
       </c>
-      <c r="AF67" t="n">
+      <c r="AG67" t="n">
         <v>54.91990365732818</v>
       </c>
-      <c r="AG67" t="n">
+      <c r="AH67" t="n">
         <v>4548.9517</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AI67" t="n">
         <v>0.7491206</v>
       </c>
-      <c r="AI67" t="n">
+      <c r="AJ67" t="n">
         <v>0.22400543</v>
       </c>
-      <c r="AJ67" t="n">
+      <c r="AK67" t="n">
         <v>0.7177162</v>
       </c>
-      <c r="AK67" t="inlineStr">
+      <c r="AL67" t="n">
+        <v>0.4928398336115472</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>0.231363206856021</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>1.572281953541113</v>
+      </c>
+      <c r="AO67" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL67" t="inlineStr">
+      <c r="AP67" t="inlineStr">
         <is>
           <t>HD  31560</t>
         </is>
       </c>
-      <c r="AM67" t="inlineStr">
+      <c r="AQ67" t="inlineStr">
         <is>
           <t>GJ 2037</t>
         </is>
       </c>
-      <c r="AN67" t="inlineStr">
+      <c r="AR67" t="inlineStr">
         <is>
           <t>22907</t>
         </is>
       </c>
-      <c r="AO67" t="inlineStr">
+      <c r="AS67" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU67" t="n">
+        <v>2.026252168653316</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>18.2083349278885</v>
+      </c>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10544,55 +12104,78 @@
         <v>-24.80394386396552</v>
       </c>
       <c r="AB68" t="n">
+        <v>9.903611348943711</v>
+      </c>
+      <c r="AC68" t="n">
         <v>9.304690361022949</v>
       </c>
-      <c r="AC68" t="n">
+      <c r="AD68" t="n">
         <v>10.14919948577881</v>
       </c>
-      <c r="AD68" t="n">
+      <c r="AE68" t="n">
         <v>8.406003952026367</v>
       </c>
-      <c r="AE68" t="n">
+      <c r="AF68" t="n">
         <v>1.743195533752441</v>
       </c>
-      <c r="AF68" t="n">
+      <c r="AG68" t="n">
         <v>53.39872999671822</v>
       </c>
-      <c r="AG68" t="n">
+      <c r="AH68" t="n">
         <v>3973.937</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AI68" t="n">
         <v>0.59998924</v>
       </c>
-      <c r="AI68" t="n">
+      <c r="AJ68" t="n">
         <v>0.07866455999999999</v>
       </c>
-      <c r="AJ68" t="n">
+      <c r="AK68" t="n">
         <v>0.5917184</v>
       </c>
-      <c r="AK68" t="inlineStr">
+      <c r="AL68" t="n">
+        <v>0.2973165950806304</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0.4533946297083031</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>2.141736311873126</v>
+      </c>
+      <c r="AO68" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL68" t="inlineStr">
+      <c r="AP68" t="inlineStr">
         <is>
           <t>HD 111261B</t>
         </is>
       </c>
-      <c r="AM68" t="inlineStr">
+      <c r="AQ68" t="inlineStr">
         <is>
           <t>GJ 1164 B</t>
         </is>
       </c>
-      <c r="AN68" t="inlineStr">
+      <c r="AR68" t="inlineStr">
         <is>
           <t>62471</t>
         </is>
       </c>
-      <c r="AO68" t="inlineStr">
+      <c r="AS68" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU68" t="n">
+        <v>2.895997877367483</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>18.72703714229642</v>
+      </c>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -10694,50 +12277,73 @@
         <v>-18.04862887919031</v>
       </c>
       <c r="AB69" t="n">
+        <v>8.889188472819328</v>
+      </c>
+      <c r="AC69" t="n">
         <v>8.362634658813477</v>
       </c>
-      <c r="AC69" t="n">
+      <c r="AD69" t="n">
         <v>9.131756782531738</v>
       </c>
-      <c r="AD69" t="n">
+      <c r="AE69" t="n">
         <v>7.509888172149658</v>
       </c>
-      <c r="AE69" t="n">
+      <c r="AF69" t="n">
         <v>1.62186861038208</v>
       </c>
-      <c r="AF69" t="n">
+      <c r="AG69" t="n">
         <v>64.18253335778927</v>
       </c>
-      <c r="AG69" t="n">
+      <c r="AH69" t="n">
         <v>4101.4546</v>
       </c>
-      <c r="AH69" t="n">
+      <c r="AI69" t="n">
         <v>0.6586084</v>
       </c>
-      <c r="AI69" t="n">
+      <c r="AJ69" t="n">
         <v>0.12352164</v>
       </c>
-      <c r="AJ69" t="n">
+      <c r="AK69" t="n">
         <v>0.6961553700000001</v>
       </c>
-      <c r="AK69" t="inlineStr">
+      <c r="AL69" t="n">
+        <v>0.3713759460688757</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0.3070159535824746</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.69820117765091</v>
+      </c>
+      <c r="AO69" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL69" t="inlineStr">
+      <c r="AP69" t="inlineStr">
         <is>
           <t>HD 139763</t>
         </is>
       </c>
-      <c r="AN69" t="inlineStr">
+      <c r="AR69" t="inlineStr">
         <is>
           <t>76779</t>
         </is>
       </c>
-      <c r="AO69" t="inlineStr">
+      <c r="AS69" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU69" t="n">
+        <v>1.95212998726749</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>15.58056293018915</v>
+      </c>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -10836,55 +12442,78 @@
         <v>18.75620888605506</v>
       </c>
       <c r="AB70" t="n">
+        <v>6.760678221149445</v>
+      </c>
+      <c r="AC70" t="n">
         <v>6.484982013702393</v>
       </c>
-      <c r="AC70" t="n">
+      <c r="AD70" t="n">
         <v>6.992666721343994</v>
       </c>
-      <c r="AD70" t="n">
+      <c r="AE70" t="n">
         <v>5.795860767364502</v>
       </c>
-      <c r="AE70" t="n">
+      <c r="AF70" t="n">
         <v>1.196805953979492</v>
       </c>
-      <c r="AF70" t="n">
+      <c r="AG70" t="n">
         <v>68.4141911114458</v>
       </c>
-      <c r="AG70" t="n">
+      <c r="AH70" t="n">
         <v>4602.566867780783</v>
       </c>
-      <c r="AH70" t="n">
+      <c r="AI70" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI70" t="n">
+      <c r="AJ70" t="n">
         <v>0.3698282317554196</v>
       </c>
-      <c r="AJ70" t="n">
+      <c r="AK70" t="n">
         <v>1.02</v>
       </c>
-      <c r="AK70" t="inlineStr">
+      <c r="AL70" t="n">
+        <v>0.6319064737305783</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>0.1248168035010945</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.9284431972491323</v>
+      </c>
+      <c r="AO70" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL70" t="inlineStr">
+      <c r="AP70" t="inlineStr">
         <is>
           <t>HD  45088</t>
         </is>
       </c>
-      <c r="AM70" t="inlineStr">
+      <c r="AQ70" t="inlineStr">
         <is>
           <t>GJ 233 A, GJ 233</t>
         </is>
       </c>
-      <c r="AN70" t="inlineStr">
+      <c r="AR70" t="inlineStr">
         <is>
           <t>30630</t>
         </is>
       </c>
-      <c r="AO70" t="inlineStr">
+      <c r="AS70" t="inlineStr">
         <is>
           <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU70" t="n">
+        <v>0.659625634182931</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>14.6168504480454</v>
+      </c>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10983,55 +12612,78 @@
         <v>-72.72542944515125</v>
       </c>
       <c r="AB71" t="n">
+        <v>7.058919092321396</v>
+      </c>
+      <c r="AC71" t="n">
         <v>6.753961086273193</v>
       </c>
-      <c r="AC71" t="n">
+      <c r="AD71" t="n">
         <v>7.291834354400635</v>
       </c>
-      <c r="AD71" t="n">
+      <c r="AE71" t="n">
         <v>6.057794094085693</v>
       </c>
-      <c r="AE71" t="n">
+      <c r="AF71" t="n">
         <v>1.234040260314941</v>
       </c>
-      <c r="AF71" t="n">
+      <c r="AG71" t="n">
         <v>87.37235542781944</v>
       </c>
-      <c r="AG71" t="n">
+      <c r="AH71" t="n">
         <v>4720.63068215475</v>
       </c>
-      <c r="AH71" t="n">
+      <c r="AI71" t="n">
         <v>0.7474004</v>
       </c>
-      <c r="AI71" t="n">
+      <c r="AJ71" t="n">
         <v>0.23293945</v>
       </c>
-      <c r="AJ71" t="n">
+      <c r="AK71" t="n">
         <v>0.7578372</v>
       </c>
-      <c r="AK71" t="inlineStr">
+      <c r="AL71" t="n">
+        <v>0.4990225084126916</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>0.1441440461347837</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>0.9845557048061666</v>
+      </c>
+      <c r="AO71" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL71" t="inlineStr">
+      <c r="AP71" t="inlineStr">
         <is>
           <t>HD 222237</t>
         </is>
       </c>
-      <c r="AM71" t="inlineStr">
+      <c r="AQ71" t="inlineStr">
         <is>
           <t>GJ 902</t>
         </is>
       </c>
-      <c r="AN71" t="inlineStr">
+      <c r="AR71" t="inlineStr">
         <is>
           <t>116745</t>
         </is>
       </c>
-      <c r="AO71" t="inlineStr">
+      <c r="AS71" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.717218532617633</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>11.44526772917466</v>
+      </c>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11133,55 +12785,78 @@
         <v>-1.160099156787286</v>
       </c>
       <c r="AB72" t="n">
+        <v>8.047439370741845</v>
+      </c>
+      <c r="AC72" t="n">
         <v>7.672568321228027</v>
       </c>
-      <c r="AC72" t="n">
+      <c r="AD72" t="n">
         <v>8.283413887023926</v>
       </c>
-      <c r="AD72" t="n">
+      <c r="AE72" t="n">
         <v>6.926462650299072</v>
       </c>
-      <c r="AE72" t="n">
+      <c r="AF72" t="n">
         <v>1.356951236724854</v>
       </c>
-      <c r="AF72" t="n">
+      <c r="AG72" t="n">
         <v>65.42618467484711</v>
       </c>
-      <c r="AG72" t="n">
+      <c r="AH72" t="n">
         <v>4465.0986</v>
       </c>
-      <c r="AH72" t="n">
+      <c r="AI72" t="n">
         <v>0.70740694</v>
       </c>
-      <c r="AI72" t="n">
+      <c r="AJ72" t="n">
         <v>0.18760224</v>
       </c>
-      <c r="AJ72" t="n">
+      <c r="AK72" t="n">
         <v>0.7238189</v>
       </c>
-      <c r="AK72" t="inlineStr">
+      <c r="AL72" t="n">
+        <v>0.4524505426747682</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>0.2256660832352747</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.42788692520859</v>
+      </c>
+      <c r="AO72" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL72" t="inlineStr">
+      <c r="AP72" t="inlineStr">
         <is>
           <t>HD  24916, HD  24916A</t>
         </is>
       </c>
-      <c r="AM72" t="inlineStr">
+      <c r="AQ72" t="inlineStr">
         <is>
           <t>GJ 157 A</t>
         </is>
       </c>
-      <c r="AN72" t="inlineStr">
+      <c r="AR72" t="inlineStr">
         <is>
           <t>18512</t>
         </is>
       </c>
-      <c r="AO72" t="inlineStr">
+      <c r="AS72" t="inlineStr">
         <is>
           <t>Eruptive*</t>
+        </is>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.865432587008721</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>15.28440035086513</v>
+      </c>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11283,55 +12958,78 @@
         <v>-5.758598962923454</v>
       </c>
       <c r="AB73" t="n">
+        <v>6.203080644965172</v>
+      </c>
+      <c r="AC73" t="n">
         <v>5.886491775512695</v>
       </c>
-      <c r="AC73" t="n">
+      <c r="AD73" t="n">
         <v>6.436380386352539</v>
       </c>
-      <c r="AD73" t="n">
+      <c r="AE73" t="n">
         <v>5.186892986297607</v>
       </c>
-      <c r="AE73" t="n">
+      <c r="AF73" t="n">
         <v>1.249487400054932</v>
       </c>
-      <c r="AF73" t="n">
+      <c r="AG73" t="n">
         <v>113.0714591247876</v>
       </c>
-      <c r="AG73" t="n">
+      <c r="AH73" t="n">
         <v>4626.91</v>
       </c>
-      <c r="AH73" t="n">
+      <c r="AI73" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI73" t="n">
+      <c r="AJ73" t="n">
         <v>0.29215857</v>
       </c>
-      <c r="AJ73" t="n">
+      <c r="AK73" t="n">
         <v>0.7966039</v>
       </c>
-      <c r="AK73" t="inlineStr">
+      <c r="AL73" t="n">
+        <v>0.5610884998955769</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>0.09669506855543795</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>0.6777595657245122</v>
+      </c>
+      <c r="AO73" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL73" t="inlineStr">
+      <c r="AP73" t="inlineStr">
         <is>
           <t>HD  32147</t>
         </is>
       </c>
-      <c r="AM73" t="inlineStr">
+      <c r="AQ73" t="inlineStr">
         <is>
           <t>GJ 183</t>
         </is>
       </c>
-      <c r="AN73" t="inlineStr">
+      <c r="AR73" t="inlineStr">
         <is>
           <t>23311</t>
         </is>
       </c>
-      <c r="AO73" t="inlineStr">
+      <c r="AS73" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.384748027353553</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>8.843964761225756</v>
+      </c>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11433,55 +13131,78 @@
         <v>-31.56626896213439</v>
       </c>
       <c r="AB74" t="n">
+        <v>6.451090375370979</v>
+      </c>
+      <c r="AC74" t="n">
         <v>6.091864585876465</v>
       </c>
-      <c r="AC74" t="n">
+      <c r="AD74" t="n">
         <v>6.68665075302124</v>
       </c>
-      <c r="AD74" t="n">
+      <c r="AE74" t="n">
         <v>5.346338272094727</v>
       </c>
-      <c r="AE74" t="n">
+      <c r="AF74" t="n">
         <v>1.340312480926514</v>
       </c>
-      <c r="AF74" t="n">
+      <c r="AG74" t="n">
         <v>131.5525092499576</v>
       </c>
-      <c r="AG74" t="n">
+      <c r="AH74" t="n">
         <v>4463.109</v>
       </c>
-      <c r="AH74" t="n">
+      <c r="AI74" t="n">
         <v>0.72544885</v>
       </c>
-      <c r="AI74" t="n">
+      <c r="AJ74" t="n">
         <v>0.19891936</v>
       </c>
-      <c r="AJ74" t="n">
+      <c r="AK74" t="n">
         <v>0.74598</v>
       </c>
-      <c r="AK74" t="inlineStr">
+      <c r="AL74" t="n">
+        <v>0.4659316794091272</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>0.10821958152473</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>0.703682897584391</v>
+      </c>
+      <c r="AO74" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL74" t="inlineStr">
+      <c r="AP74" t="inlineStr">
         <is>
           <t>HD 216803</t>
         </is>
       </c>
-      <c r="AM74" t="inlineStr">
+      <c r="AQ74" t="inlineStr">
         <is>
           <t>GJ 879</t>
         </is>
       </c>
-      <c r="AN74" t="inlineStr">
+      <c r="AR74" t="inlineStr">
         <is>
           <t>113283</t>
         </is>
       </c>
-      <c r="AO74" t="inlineStr">
+      <c r="AS74" t="inlineStr">
         <is>
           <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.747532432148586</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>7.601527372616974</v>
+      </c>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11580,55 +13301,78 @@
         <v>-0.814376708826008</v>
       </c>
       <c r="AB75" t="n">
+        <v>8.054514473519326</v>
+      </c>
+      <c r="AC75" t="n">
         <v>7.737601757049561</v>
       </c>
-      <c r="AC75" t="n">
+      <c r="AD75" t="n">
         <v>8.287890434265137</v>
       </c>
-      <c r="AD75" t="n">
+      <c r="AE75" t="n">
         <v>7.035340785980225</v>
       </c>
-      <c r="AE75" t="n">
+      <c r="AF75" t="n">
         <v>1.252549648284912</v>
       </c>
-      <c r="AF75" t="n">
+      <c r="AG75" t="n">
         <v>56.64121974787593</v>
       </c>
-      <c r="AG75" t="n">
+      <c r="AH75" t="n">
         <v>4453</v>
       </c>
-      <c r="AH75" t="n">
+      <c r="AI75" t="n">
         <v>0.7643373999999999</v>
       </c>
-      <c r="AI75" t="n">
+      <c r="AJ75" t="n">
         <v>0.22388743</v>
       </c>
-      <c r="AJ75" t="n">
+      <c r="AK75" t="n">
         <v>0.7442147</v>
       </c>
-      <c r="AK75" t="inlineStr">
+      <c r="AL75" t="n">
+        <v>0.4944910507034814</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>0.2267059931574514</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.558806109298379</v>
+      </c>
+      <c r="AO75" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL75" t="inlineStr">
+      <c r="AP75" t="inlineStr">
         <is>
           <t>HD  65277, HD  65277A</t>
         </is>
       </c>
-      <c r="AM75" t="inlineStr">
+      <c r="AQ75" t="inlineStr">
         <is>
           <t>GJ 293.1 A, GJ 293.1</t>
         </is>
       </c>
-      <c r="AN75" t="inlineStr">
+      <c r="AR75" t="inlineStr">
         <is>
           <t>38931</t>
         </is>
       </c>
-      <c r="AO75" t="inlineStr">
+      <c r="AS75" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.854344319993111</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>17.65498702978585</v>
+      </c>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11730,52 +13474,75 @@
         <v>5.805881023406982</v>
       </c>
       <c r="AC76" t="n">
+        <v>5.805881023406982</v>
+      </c>
+      <c r="AD76" t="n">
         <v>6.129700660705566</v>
       </c>
-      <c r="AD76" t="n">
+      <c r="AE76" t="n">
         <v>5.313390254974365</v>
       </c>
-      <c r="AE76" t="n">
+      <c r="AF76" t="n">
         <v>0.8163104057312012</v>
       </c>
-      <c r="AF76" t="n">
+      <c r="AG76" t="n">
         <v>65.74459508507027</v>
       </c>
-      <c r="AG76" t="n">
+      <c r="AH76" t="n">
         <v>5647.247</v>
       </c>
-      <c r="AH76" t="n">
+      <c r="AI76" t="n">
         <v>0.99178565</v>
       </c>
-      <c r="AI76" t="n">
+      <c r="AJ76" t="n">
         <v>0.8201384</v>
       </c>
-      <c r="AJ76" t="n">
+      <c r="AK76" t="n">
         <v>0.9333763</v>
       </c>
-      <c r="AK76" t="inlineStr">
+      <c r="AL76" t="n">
+        <v>0.8906397230961716</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>0.1141911556878663</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.200325944135087</v>
+      </c>
+      <c r="AO76" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL76" t="inlineStr">
+      <c r="AP76" t="inlineStr">
         <is>
           <t>HD  38858</t>
         </is>
       </c>
-      <c r="AM76" t="inlineStr">
+      <c r="AQ76" t="inlineStr">
         <is>
           <t>GJ 1085</t>
         </is>
       </c>
-      <c r="AN76" t="inlineStr">
+      <c r="AR76" t="inlineStr">
         <is>
           <t>27435</t>
         </is>
       </c>
-      <c r="AO76" t="inlineStr">
+      <c r="AS76" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.219684522050477</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>15.21037582946627</v>
+      </c>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11877,52 +13644,75 @@
         <v>5.318377017974854</v>
       </c>
       <c r="AC77" t="n">
+        <v>5.318377017974854</v>
+      </c>
+      <c r="AD77" t="n">
         <v>5.645484924316406</v>
       </c>
-      <c r="AD77" t="n">
+      <c r="AE77" t="n">
         <v>4.82747745513916</v>
       </c>
-      <c r="AE77" t="n">
+      <c r="AF77" t="n">
         <v>0.8180074691772461</v>
       </c>
-      <c r="AF77" t="n">
+      <c r="AG77" t="n">
         <v>75.52889944115644</v>
       </c>
-      <c r="AG77" t="n">
+      <c r="AH77" t="n">
         <v>5699.0146</v>
       </c>
-      <c r="AH77" t="n">
+      <c r="AI77" t="n">
         <v>0.9656809</v>
       </c>
-      <c r="AI77" t="n">
+      <c r="AJ77" t="n">
         <v>0.96576774</v>
       </c>
-      <c r="AJ77" t="n">
+      <c r="AK77" t="n">
         <v>1.0081174</v>
       </c>
-      <c r="AK77" t="inlineStr">
+      <c r="AL77" t="n">
+        <v>0.9633816275052832</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>0.09325466522786466</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.005989024193671</v>
+      </c>
+      <c r="AO77" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="AL77" t="inlineStr">
+      <c r="AP77" t="inlineStr">
         <is>
           <t>HD  30495</t>
         </is>
       </c>
-      <c r="AM77" t="inlineStr">
+      <c r="AQ77" t="inlineStr">
         <is>
           <t>GJ 177</t>
         </is>
       </c>
-      <c r="AN77" t="inlineStr">
+      <c r="AR77" t="inlineStr">
         <is>
           <t>22263</t>
         </is>
       </c>
-      <c r="AO77" t="inlineStr">
+      <c r="AS77" t="inlineStr">
         <is>
           <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU77" t="n">
+        <v>0.94254112753729</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>13.23996519741542</v>
+      </c>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -12018,55 +13808,78 @@
         <v>5.27553944692346</v>
       </c>
       <c r="AB78" t="n">
+        <v>5.708550517215729</v>
+      </c>
+      <c r="AC78" t="n">
         <v>5.467689037322998</v>
       </c>
-      <c r="AC78" t="n">
+      <c r="AD78" t="n">
         <v>5.938368320465088</v>
       </c>
-      <c r="AD78" t="n">
+      <c r="AE78" t="n">
         <v>4.828773975372314</v>
       </c>
-      <c r="AE78" t="n">
+      <c r="AF78" t="n">
         <v>1.109594345092773</v>
       </c>
-      <c r="AF78" t="n">
+      <c r="AG78" t="n">
         <v>134.4948476893115</v>
       </c>
-      <c r="AG78" t="n">
+      <c r="AH78" t="n">
         <v>4859.2896</v>
       </c>
-      <c r="AH78" t="n">
+      <c r="AI78" t="n">
         <v>0.81159145</v>
       </c>
-      <c r="AI78" t="n">
+      <c r="AJ78" t="n">
         <v>0.29489297</v>
       </c>
-      <c r="AJ78" t="n">
+      <c r="AK78" t="n">
         <v>0.74619365</v>
       </c>
-      <c r="AK78" t="inlineStr">
+      <c r="AL78" t="n">
+        <v>0.557950585081452</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>0.07783926346376277</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>0.5858302375064385</v>
+      </c>
+      <c r="AO78" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL78" t="inlineStr">
+      <c r="AP78" t="inlineStr">
         <is>
           <t>HD   4628</t>
         </is>
       </c>
-      <c r="AM78" t="inlineStr">
+      <c r="AQ78" t="inlineStr">
         <is>
           <t>GJ 33</t>
         </is>
       </c>
-      <c r="AN78" t="inlineStr">
+      <c r="AR78" t="inlineStr">
         <is>
           <t>3765</t>
         </is>
       </c>
-      <c r="AO78" t="inlineStr">
+      <c r="AS78" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.953362366508123</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>7.435229060298576</v>
+      </c>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -12168,55 +13981,78 @@
         <v>-43.44670335929374</v>
       </c>
       <c r="AB79" t="n">
+        <v>8.344812724895478</v>
+      </c>
+      <c r="AC79" t="n">
         <v>7.846924781799316</v>
       </c>
-      <c r="AC79" t="n">
+      <c r="AD79" t="n">
         <v>8.58617115020752</v>
       </c>
-      <c r="AD79" t="n">
+      <c r="AE79" t="n">
         <v>7.012911796569824</v>
       </c>
-      <c r="AE79" t="n">
+      <c r="AF79" t="n">
         <v>1.573259353637695</v>
       </c>
-      <c r="AF79" t="n">
+      <c r="AG79" t="n">
         <v>75.7122251862617</v>
       </c>
-      <c r="AG79" t="n">
+      <c r="AH79" t="n">
         <v>4235.4004</v>
       </c>
-      <c r="AH79" t="n">
+      <c r="AI79" t="n">
         <v>0.66545904</v>
       </c>
-      <c r="AI79" t="n">
+      <c r="AJ79" t="n">
         <v>0.13317624</v>
       </c>
-      <c r="AJ79" t="n">
+      <c r="AK79" t="n">
         <v>0.6776436</v>
       </c>
-      <c r="AK79" t="inlineStr">
+      <c r="AL79" t="n">
+        <v>0.3841491626510843</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>0.2518885214596581</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.424381674679118</v>
+      </c>
+      <c r="AO79" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL79" t="inlineStr">
+      <c r="AP79" t="inlineStr">
         <is>
           <t>HD 166348</t>
         </is>
       </c>
-      <c r="AM79" t="inlineStr">
+      <c r="AQ79" t="inlineStr">
         <is>
           <t>GJ 707</t>
         </is>
       </c>
-      <c r="AN79" t="inlineStr">
+      <c r="AR79" t="inlineStr">
         <is>
           <t>89211</t>
         </is>
       </c>
-      <c r="AO79" t="inlineStr">
+      <c r="AS79" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU79" t="n">
+        <v>2.138539647024254</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>13.20790661666426</v>
+      </c>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -12310,55 +14146,78 @@
         <v>5.06248962829555</v>
       </c>
       <c r="AB80" t="n">
+        <v>8.16461388376236</v>
+      </c>
+      <c r="AC80" t="n">
         <v>7.887868881225586</v>
       </c>
-      <c r="AC80" t="n">
+      <c r="AD80" t="n">
         <v>8.399222373962402</v>
       </c>
-      <c r="AD80" t="n">
+      <c r="AE80" t="n">
         <v>7.097153663635254</v>
       </c>
-      <c r="AE80" t="n">
+      <c r="AF80" t="n">
         <v>1.302068710327148</v>
       </c>
-      <c r="AF80" t="n">
+      <c r="AG80" t="n">
         <v>65.76032180609275</v>
       </c>
-      <c r="AG80" t="n">
+      <c r="AH80" t="n">
         <v>4753.16</v>
       </c>
-      <c r="AH80" t="n">
+      <c r="AI80" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI80" t="n">
+      <c r="AJ80" t="n">
         <v>0.14162683</v>
       </c>
-      <c r="AJ80" t="n">
+      <c r="AK80" t="n">
         <v>0.5549585</v>
       </c>
-      <c r="AK80" t="inlineStr">
+      <c r="AL80" t="n">
+        <v>0.3885521458696633</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0.24021713357441</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.401151048948318</v>
+      </c>
+      <c r="AO80" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL80" t="inlineStr">
+      <c r="AP80" t="inlineStr">
         <is>
           <t>HD   6101</t>
         </is>
       </c>
-      <c r="AM80" t="inlineStr">
+      <c r="AQ80" t="inlineStr">
         <is>
           <t>GJ 3071</t>
         </is>
       </c>
-      <c r="AN80" t="inlineStr">
+      <c r="AR80" t="inlineStr">
         <is>
           <t>4849</t>
         </is>
       </c>
-      <c r="AO80" t="inlineStr">
+      <c r="AS80" t="inlineStr">
         <is>
           <t>**</t>
+        </is>
+      </c>
+      <c r="AU80" t="n">
+        <v>4.095590407139206</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>15.20673823569016</v>
+      </c>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -12460,55 +14319,78 @@
         <v>-16.84661852217994</v>
       </c>
       <c r="AB81" t="n">
+        <v>8.587043935575485</v>
+      </c>
+      <c r="AC81" t="n">
         <v>8.085914611816406</v>
       </c>
-      <c r="AC81" t="n">
+      <c r="AD81" t="n">
         <v>8.828512191772461</v>
       </c>
-      <c r="AD81" t="n">
+      <c r="AE81" t="n">
         <v>7.250840187072754</v>
       </c>
-      <c r="AE81" t="n">
+      <c r="AF81" t="n">
         <v>1.577672004699707</v>
       </c>
-      <c r="AF81" t="n">
+      <c r="AG81" t="n">
         <v>68.73564590379422</v>
       </c>
-      <c r="AG81" t="n">
+      <c r="AH81" t="n">
         <v>4066.7944</v>
       </c>
-      <c r="AH81" t="n">
+      <c r="AI81" t="n">
         <v>0.6749642</v>
       </c>
-      <c r="AI81" t="n">
+      <c r="AJ81" t="n">
         <v>0.13573194</v>
       </c>
-      <c r="AJ81" t="n">
+      <c r="AK81" t="n">
         <v>0.7526889</v>
       </c>
-      <c r="AK81" t="inlineStr">
+      <c r="AL81" t="n">
+        <v>0.3896531512744821</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>0.2623562655211376</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.504798516942306</v>
+      </c>
+      <c r="AO81" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL81" t="inlineStr">
+      <c r="AP81" t="inlineStr">
         <is>
           <t>HD 221503</t>
         </is>
       </c>
-      <c r="AM81" t="inlineStr">
+      <c r="AQ81" t="inlineStr">
         <is>
           <t>GJ 898</t>
         </is>
       </c>
-      <c r="AN81" t="inlineStr">
+      <c r="AR81" t="inlineStr">
         <is>
           <t>116215</t>
         </is>
       </c>
-      <c r="AO81" t="inlineStr">
+      <c r="AS81" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.582829748692533</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>14.54849207934481</v>
+      </c>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -12588,79 +14470,6 @@
           <t>6863535898551993472</t>
         </is>
       </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>6863535898551993472</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>6863535898551993472</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>6863535898551993472</t>
-        </is>
-      </c>
-      <c r="Z82" t="n">
-        <v>298.573333453915</v>
-      </c>
-      <c r="AA82" t="n">
-        <v>-23.94289729665476</v>
-      </c>
-      <c r="AB82" t="n">
-        <v>5.908112049102783</v>
-      </c>
-      <c r="AC82" t="n">
-        <v>6.425188064575195</v>
-      </c>
-      <c r="AD82" t="n">
-        <v>5.23886775970459</v>
-      </c>
-      <c r="AE82" t="n">
-        <v>1.186320304870605</v>
-      </c>
-      <c r="AF82" t="n">
-        <v>70.70095856863598</v>
-      </c>
-      <c r="AG82" t="n">
-        <v>4769.5723</v>
-      </c>
-      <c r="AH82" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AI82" t="n">
-        <v>0.7291860999999999</v>
-      </c>
-      <c r="AJ82" t="n">
-        <v>1.2505819</v>
-      </c>
-      <c r="AK82" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AL82" t="inlineStr">
-        <is>
-          <t>HD 188088</t>
-        </is>
-      </c>
-      <c r="AM82" t="inlineStr">
-        <is>
-          <t>GJ 770</t>
-        </is>
-      </c>
-      <c r="AN82" t="inlineStr">
-        <is>
-          <t>97944</t>
-        </is>
-      </c>
-      <c r="AO82" t="inlineStr">
-        <is>
-          <t>BYDraV*</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -12760,55 +14569,78 @@
         <v>-3.503099306330114</v>
       </c>
       <c r="AB83" t="n">
+        <v>7.625078404002189</v>
+      </c>
+      <c r="AC83" t="n">
         <v>7.242387771606445</v>
       </c>
-      <c r="AC83" t="n">
+      <c r="AD83" t="n">
         <v>7.861436367034912</v>
       </c>
-      <c r="AD83" t="n">
+      <c r="AE83" t="n">
         <v>6.489079475402832</v>
       </c>
-      <c r="AE83" t="n">
+      <c r="AF83" t="n">
         <v>1.37235689163208</v>
       </c>
-      <c r="AF83" t="n">
+      <c r="AG83" t="n">
         <v>77.34986706396188</v>
       </c>
-      <c r="AG83" t="n">
+      <c r="AH83" t="n">
         <v>4200</v>
       </c>
-      <c r="AH83" t="n">
+      <c r="AI83" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI83" t="n">
+      <c r="AJ83" t="n">
         <v>0.20168027</v>
       </c>
-      <c r="AJ83" t="n">
+      <c r="AK83" t="n">
         <v>0.7616906</v>
       </c>
-      <c r="AK83" t="inlineStr">
+      <c r="AL83" t="n">
+        <v>0.473234194283935</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0.1787598387922583</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.150705264465096</v>
+      </c>
+      <c r="AO83" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL83" t="inlineStr">
+      <c r="AP83" t="inlineStr">
         <is>
           <t>HD  36003</t>
         </is>
       </c>
-      <c r="AM83" t="inlineStr">
+      <c r="AQ83" t="inlineStr">
         <is>
           <t>GJ 204</t>
         </is>
       </c>
-      <c r="AN83" t="inlineStr">
+      <c r="AR83" t="inlineStr">
         <is>
           <t>25623</t>
         </is>
       </c>
-      <c r="AO83" t="inlineStr">
+      <c r="AS83" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.584025803819568</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>12.92827044128057</v>
+      </c>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -12888,71 +14720,6 @@
           <t>3812355294261019904</t>
         </is>
       </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>3812355294262255104</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>3812355294261019904</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr">
-        <is>
-          <t>3812355294262255104</t>
-        </is>
-      </c>
-      <c r="Z84" t="n">
-        <v>171.6895857640404</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>3.007159334792932</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>7.271236896514893</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>7.782514572143555</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>6.606719970703125</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>1.17579460144043</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>55.06176661082814</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>0.77474535</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>0.3283552</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>0.7871105</v>
-      </c>
-      <c r="AL84" t="inlineStr">
-        <is>
-          <t>HD  99492</t>
-        </is>
-      </c>
-      <c r="AM84" t="inlineStr">
-        <is>
-          <t>GJ 429.0 B, GJ 429 B</t>
-        </is>
-      </c>
-      <c r="AN84" t="inlineStr">
-        <is>
-          <t>55848</t>
-        </is>
-      </c>
-      <c r="AO84" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -13126,52 +14893,75 @@
         <v>6.440524578094482</v>
       </c>
       <c r="AC86" t="n">
+        <v>6.440524578094482</v>
+      </c>
+      <c r="AD86" t="n">
         <v>6.814839363098145</v>
       </c>
-      <c r="AD86" t="n">
+      <c r="AE86" t="n">
         <v>5.892110347747803</v>
       </c>
-      <c r="AE86" t="n">
+      <c r="AF86" t="n">
         <v>0.9227290153503418</v>
       </c>
-      <c r="AF86" t="n">
+      <c r="AG86" t="n">
         <v>59.48050294387718</v>
       </c>
-      <c r="AG86" t="n">
+      <c r="AH86" t="n">
         <v>5392.3716</v>
       </c>
-      <c r="AH86" t="n">
+      <c r="AI86" t="n">
         <v>0.9512452</v>
       </c>
-      <c r="AI86" t="n">
+      <c r="AJ86" t="n">
         <v>0.5625983</v>
       </c>
-      <c r="AJ86" t="n">
+      <c r="AK86" t="n">
         <v>0.8356361</v>
       </c>
-      <c r="AK86" t="inlineStr">
+      <c r="AL86" t="n">
+        <v>0.7490882901644645</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>0.1360739708387927</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.284679154376521</v>
+      </c>
+      <c r="AO86" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL86" t="inlineStr">
+      <c r="AP86" t="inlineStr">
         <is>
           <t>HD 152391</t>
         </is>
       </c>
-      <c r="AM86" t="inlineStr">
+      <c r="AQ86" t="inlineStr">
         <is>
           <t>GJ 641</t>
         </is>
       </c>
-      <c r="AN86" t="inlineStr">
+      <c r="AR86" t="inlineStr">
         <is>
           <t>82588</t>
         </is>
       </c>
-      <c r="AO86" t="inlineStr">
+      <c r="AS86" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.630200033813258</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>16.81223174833525</v>
+      </c>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13270,50 +15060,73 @@
         <v>-42.69796597525414</v>
       </c>
       <c r="AB87" t="n">
+        <v>9.68979214331627</v>
+      </c>
+      <c r="AC87" t="n">
         <v>9.101789474487305</v>
       </c>
-      <c r="AC87" t="n">
+      <c r="AD87" t="n">
         <v>9.934929847717285</v>
       </c>
-      <c r="AD87" t="n">
+      <c r="AE87" t="n">
         <v>8.209831237792969</v>
       </c>
-      <c r="AE87" t="n">
+      <c r="AF87" t="n">
         <v>1.725098609924316</v>
       </c>
-      <c r="AF87" t="n">
+      <c r="AG87" t="n">
         <v>52.19632472037114</v>
       </c>
-      <c r="AG87" t="n">
+      <c r="AH87" t="n">
         <v>4000.1545</v>
       </c>
-      <c r="AH87" t="n">
+      <c r="AI87" t="n">
         <v>0.63111806</v>
       </c>
-      <c r="AI87" t="n">
+      <c r="AJ87" t="n">
         <v>0.09948211999999999</v>
       </c>
-      <c r="AJ87" t="n">
+      <c r="AK87" t="n">
         <v>0.65671146</v>
       </c>
-      <c r="AK87" t="inlineStr">
+      <c r="AL87" t="n">
+        <v>0.3341422746926936</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0.4185498602889894</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>2.149692954629578</v>
+      </c>
+      <c r="AO87" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL87" t="inlineStr">
+      <c r="AP87" t="inlineStr">
         <is>
           <t>HD 274255</t>
         </is>
       </c>
-      <c r="AN87" t="inlineStr">
+      <c r="AR87" t="inlineStr">
         <is>
           <t>25775</t>
         </is>
       </c>
-      <c r="AO87" t="inlineStr">
+      <c r="AS87" t="inlineStr">
         <is>
           <t>BYDraV*_Candidate</t>
+        </is>
+      </c>
+      <c r="AU87" t="n">
+        <v>2.228367536626836</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>19.15843702324353</v>
+      </c>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -13412,55 +15225,78 @@
         <v>-60.023737219948</v>
       </c>
       <c r="AB88" t="n">
+        <v>7.128657276215553</v>
+      </c>
+      <c r="AC88" t="n">
         <v>6.857923030853271</v>
       </c>
-      <c r="AC88" t="n">
+      <c r="AD88" t="n">
         <v>7.359889030456543</v>
       </c>
-      <c r="AD88" t="n">
+      <c r="AE88" t="n">
         <v>6.19348669052124</v>
       </c>
-      <c r="AE88" t="n">
+      <c r="AF88" t="n">
         <v>1.166402339935303</v>
       </c>
-      <c r="AF88" t="n">
+      <c r="AG88" t="n">
         <v>77.32613406116261</v>
       </c>
-      <c r="AG88" t="n">
+      <c r="AH88" t="n">
         <v>4907</v>
       </c>
-      <c r="AH88" t="n">
+      <c r="AI88" t="n">
         <v>0.7568047</v>
       </c>
-      <c r="AI88" t="n">
+      <c r="AJ88" t="n">
         <v>0.2594847</v>
       </c>
-      <c r="AJ88" t="n">
+      <c r="AK88" t="n">
         <v>0.75517464</v>
       </c>
-      <c r="AK88" t="inlineStr">
+      <c r="AL88" t="n">
+        <v>0.5221904062065191</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>0.1499149439884245</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.054042650754229</v>
+      </c>
+      <c r="AO88" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL88" t="inlineStr">
+      <c r="AP88" t="inlineStr">
         <is>
           <t>HD  40307</t>
         </is>
       </c>
-      <c r="AM88" t="inlineStr">
+      <c r="AQ88" t="inlineStr">
         <is>
           <t>GJ 2046</t>
         </is>
       </c>
-      <c r="AN88" t="inlineStr">
+      <c r="AR88" t="inlineStr">
         <is>
           <t>27887</t>
         </is>
       </c>
-      <c r="AO88" t="inlineStr">
+      <c r="AS88" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.75728268109685</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>12.93223839703444</v>
+      </c>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13562,52 +15398,75 @@
         <v>6.616180896759033</v>
       </c>
       <c r="AC89" t="n">
+        <v>6.616180896759033</v>
+      </c>
+      <c r="AD89" t="n">
         <v>7.008779048919678</v>
       </c>
-      <c r="AD89" t="n">
+      <c r="AE89" t="n">
         <v>6.05385684967041</v>
       </c>
-      <c r="AE89" t="n">
+      <c r="AF89" t="n">
         <v>0.9549221992492676</v>
       </c>
-      <c r="AF89" t="n">
+      <c r="AG89" t="n">
         <v>54.52523915853711</v>
       </c>
-      <c r="AG89" t="n">
+      <c r="AH89" t="n">
         <v>5300.3193</v>
       </c>
-      <c r="AH89" t="n">
+      <c r="AI89" t="n">
         <v>0.83605176</v>
       </c>
-      <c r="AI89" t="n">
+      <c r="AJ89" t="n">
         <v>0.5749337</v>
       </c>
-      <c r="AJ89" t="n">
+      <c r="AK89" t="n">
         <v>0.8991651000000001</v>
       </c>
-      <c r="AK89" t="inlineStr">
+      <c r="AL89" t="n">
+        <v>0.7612901167465244</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>0.1408483431878781</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.256754347900539</v>
+      </c>
+      <c r="AO89" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL89" t="inlineStr">
+      <c r="AP89" t="inlineStr">
         <is>
           <t>HD  53143</t>
         </is>
       </c>
-      <c r="AM89" t="inlineStr">
+      <c r="AQ89" t="inlineStr">
         <is>
           <t>GJ 260</t>
         </is>
       </c>
-      <c r="AN89" t="inlineStr">
+      <c r="AR89" t="inlineStr">
         <is>
           <t>33690</t>
         </is>
       </c>
-      <c r="AO89" t="inlineStr">
+      <c r="AS89" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.15004501453396</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>18.34013046861489</v>
+      </c>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13709,47 +15568,70 @@
         <v>5.700447559356689</v>
       </c>
       <c r="AC90" t="n">
+        <v>5.700447559356689</v>
+      </c>
+      <c r="AD90" t="n">
         <v>6.040486812591553</v>
       </c>
-      <c r="AD90" t="n">
+      <c r="AE90" t="n">
         <v>5.187979221343994</v>
       </c>
-      <c r="AE90" t="n">
+      <c r="AF90" t="n">
         <v>0.8525075912475586</v>
       </c>
-      <c r="AF90" t="n">
+      <c r="AG90" t="n">
         <v>67.60073784021641</v>
       </c>
-      <c r="AG90" t="n">
+      <c r="AH90" t="n">
         <v>5579.6113</v>
       </c>
-      <c r="AH90" t="n">
+      <c r="AI90" t="n">
         <v>0.9887707</v>
       </c>
-      <c r="AI90" t="n">
+      <c r="AJ90" t="n">
         <v>0.84080666</v>
       </c>
-      <c r="AJ90" t="n">
+      <c r="AK90" t="n">
         <v>0.9413953</v>
       </c>
-      <c r="AL90" t="inlineStr">
+      <c r="AL90" t="n">
+        <v>0.9055513166884601</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>0.1056122764309012</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.117700546757149</v>
+      </c>
+      <c r="AP90" t="inlineStr">
         <is>
           <t>HD 140538A, HD 140538</t>
         </is>
       </c>
-      <c r="AM90" t="inlineStr">
+      <c r="AQ90" t="inlineStr">
         <is>
           <t>GJ 9527 A, GJ 9527, GJ 596.1</t>
         </is>
       </c>
-      <c r="AN90" t="inlineStr">
+      <c r="AR90" t="inlineStr">
         <is>
           <t>77052</t>
         </is>
       </c>
-      <c r="AO90" t="inlineStr">
+      <c r="AS90" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.185166893634851</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>14.79273794856554</v>
+      </c>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13851,52 +15733,75 @@
         <v>6.168385028839111</v>
       </c>
       <c r="AC91" t="n">
+        <v>6.168385028839111</v>
+      </c>
+      <c r="AD91" t="n">
         <v>6.567158222198486</v>
       </c>
-      <c r="AD91" t="n">
+      <c r="AE91" t="n">
         <v>5.590499877929688</v>
       </c>
-      <c r="AE91" t="n">
+      <c r="AF91" t="n">
         <v>0.9766583442687988</v>
       </c>
-      <c r="AF91" t="n">
+      <c r="AG91" t="n">
         <v>82.20799300166873</v>
       </c>
-      <c r="AG91" t="n">
+      <c r="AH91" t="n">
         <v>5207.114</v>
       </c>
-      <c r="AH91" t="n">
+      <c r="AI91" t="n">
         <v>0.87969726</v>
       </c>
-      <c r="AI91" t="n">
+      <c r="AJ91" t="n">
         <v>0.39650527</v>
       </c>
-      <c r="AJ91" t="n">
+      <c r="AK91" t="n">
         <v>0.7812532</v>
       </c>
-      <c r="AK91" t="inlineStr">
+      <c r="AL91" t="n">
+        <v>0.6355274910297228</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>0.109048502916597</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0.9119271990882597</v>
+      </c>
+      <c r="AO91" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL91" t="inlineStr">
+      <c r="AP91" t="inlineStr">
         <is>
           <t>HD  72673</t>
         </is>
       </c>
-      <c r="AM91" t="inlineStr">
+      <c r="AQ91" t="inlineStr">
         <is>
           <t>GJ 309</t>
         </is>
       </c>
-      <c r="AN91" t="inlineStr">
+      <c r="AR91" t="inlineStr">
         <is>
           <t>41926</t>
         </is>
       </c>
-      <c r="AO91" t="inlineStr">
+      <c r="AS91" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.844836198763456</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>12.16426728699849</v>
+      </c>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13998,55 +15903,78 @@
         <v>7.388130256091411</v>
       </c>
       <c r="AB92" t="n">
+        <v>7.348921079573631</v>
+      </c>
+      <c r="AC92" t="n">
         <v>7.11333179473877</v>
       </c>
-      <c r="AC92" t="n">
+      <c r="AD92" t="n">
         <v>7.578375339508057</v>
       </c>
-      <c r="AD92" t="n">
+      <c r="AE92" t="n">
         <v>6.483386993408203</v>
       </c>
-      <c r="AE92" t="n">
+      <c r="AF92" t="n">
         <v>1.094988346099854</v>
       </c>
-      <c r="AF92" t="n">
+      <c r="AG92" t="n">
         <v>57.80241410525711</v>
       </c>
-      <c r="AG92" t="n">
+      <c r="AH92" t="n">
         <v>4910.116</v>
       </c>
-      <c r="AH92" t="n">
+      <c r="AI92" t="n">
         <v>0.79158026</v>
       </c>
-      <c r="AI92" t="n">
+      <c r="AJ92" t="n">
         <v>0.34974462</v>
       </c>
-      <c r="AJ92" t="n">
+      <c r="AK92" t="n">
         <v>0.8172107</v>
       </c>
-      <c r="AK92" t="inlineStr">
+      <c r="AL92" t="n">
+        <v>0.6061540134083243</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>0.1659336260354615</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.285524706356933</v>
+      </c>
+      <c r="AO92" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL92" t="inlineStr">
+      <c r="AP92" t="inlineStr">
         <is>
           <t>HD  94765</t>
         </is>
       </c>
-      <c r="AM92" t="inlineStr">
+      <c r="AQ92" t="inlineStr">
         <is>
           <t>GJ 3633</t>
         </is>
       </c>
-      <c r="AN92" t="inlineStr">
+      <c r="AR92" t="inlineStr">
         <is>
           <t>53486</t>
         </is>
       </c>
-      <c r="AO92" t="inlineStr">
+      <c r="AS92" t="inlineStr">
         <is>
           <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.450416803044171</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>17.30031548819083</v>
+      </c>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14145,55 +16073,78 @@
         <v>-12.77055460477299</v>
       </c>
       <c r="AB93" t="n">
+        <v>6.030823094797134</v>
+      </c>
+      <c r="AC93" t="n">
         <v>5.812265396118164</v>
       </c>
-      <c r="AC93" t="n">
+      <c r="AD93" t="n">
         <v>6.259414196014404</v>
       </c>
-      <c r="AD93" t="n">
+      <c r="AE93" t="n">
         <v>5.199104785919189</v>
       </c>
-      <c r="AE93" t="n">
+      <c r="AF93" t="n">
         <v>1.060309410095215</v>
       </c>
-      <c r="AF93" t="n">
+      <c r="AG93" t="n">
         <v>96.52004136143886</v>
       </c>
-      <c r="AG93" t="n">
+      <c r="AH93" t="n">
         <v>5002.332</v>
       </c>
-      <c r="AH93" t="n">
+      <c r="AI93" t="n">
         <v>0.79806995</v>
       </c>
-      <c r="AI93" t="n">
+      <c r="AJ93" t="n">
         <v>0.40808997</v>
       </c>
-      <c r="AJ93" t="n">
+      <c r="AK93" t="n">
         <v>0.8505347</v>
       </c>
-      <c r="AK93" t="inlineStr">
+      <c r="AL93" t="n">
+        <v>0.6517773691018696</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0.09073928758809921</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0.7319342602671087</v>
+      </c>
+      <c r="AO93" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL93" t="inlineStr">
+      <c r="AP93" t="inlineStr">
         <is>
           <t>HD  17925</t>
         </is>
       </c>
-      <c r="AM93" t="inlineStr">
+      <c r="AQ93" t="inlineStr">
         <is>
           <t>GJ 117</t>
         </is>
       </c>
-      <c r="AN93" t="inlineStr">
+      <c r="AR93" t="inlineStr">
         <is>
           <t>13402</t>
         </is>
       </c>
-      <c r="AO93" t="inlineStr">
+      <c r="AS93" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
+        </is>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.297074282976997</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>10.36054259710993</v>
+      </c>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14295,55 +16246,78 @@
         <v>-11.18448439131105</v>
       </c>
       <c r="AB94" t="n">
+        <v>7.743117658715248</v>
+      </c>
+      <c r="AC94" t="n">
         <v>7.488391876220703</v>
       </c>
-      <c r="AC94" t="n">
+      <c r="AD94" t="n">
         <v>7.973812103271484</v>
       </c>
-      <c r="AD94" t="n">
+      <c r="AE94" t="n">
         <v>6.828997135162354</v>
       </c>
-      <c r="AE94" t="n">
+      <c r="AF94" t="n">
         <v>1.144814968109131</v>
       </c>
-      <c r="AF94" t="n">
+      <c r="AG94" t="n">
         <v>54.73622066880527</v>
       </c>
-      <c r="AG94" t="n">
+      <c r="AH94" t="n">
         <v>4760</v>
       </c>
-      <c r="AH94" t="n">
+      <c r="AI94" t="n">
         <v>0.8</v>
       </c>
-      <c r="AI94" t="n">
+      <c r="AJ94" t="n">
         <v>0.443</v>
       </c>
-      <c r="AJ94" t="n">
+      <c r="AK94" t="n">
         <v>1.01</v>
       </c>
-      <c r="AK94" t="inlineStr">
+      <c r="AL94" t="n">
+        <v>0.686983108491947</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0.1978966560553824</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.640830842664263</v>
+      </c>
+      <c r="AO94" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL94" t="inlineStr">
+      <c r="AP94" t="inlineStr">
         <is>
           <t>HD  82558</t>
         </is>
       </c>
-      <c r="AM94" t="inlineStr">
+      <c r="AQ94" t="inlineStr">
         <is>
           <t>GJ 355</t>
         </is>
       </c>
-      <c r="AN94" t="inlineStr">
+      <c r="AR94" t="inlineStr">
         <is>
           <t>46816</t>
         </is>
       </c>
-      <c r="AO94" t="inlineStr">
+      <c r="AS94" t="inlineStr">
         <is>
           <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU94" t="n">
+        <v>0.7764721183421155</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>18.26943818519626</v>
+      </c>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14442,55 +16416,78 @@
         <v>-57.57678559702253</v>
       </c>
       <c r="AB95" t="n">
+        <v>7.486204287257195</v>
+      </c>
+      <c r="AC95" t="n">
         <v>7.268626689910889</v>
       </c>
-      <c r="AC95" t="n">
+      <c r="AD95" t="n">
         <v>7.715081691741943</v>
       </c>
-      <c r="AD95" t="n">
+      <c r="AE95" t="n">
         <v>6.643269538879395</v>
       </c>
-      <c r="AE95" t="n">
+      <c r="AF95" t="n">
         <v>1.071812152862549</v>
       </c>
-      <c r="AF95" t="n">
+      <c r="AG95" t="n">
         <v>73.54824313531948</v>
       </c>
-      <c r="AG95" t="n">
+      <c r="AH95" t="n">
         <v>4965.924348597652</v>
       </c>
-      <c r="AH95" t="n">
+      <c r="AI95" t="n">
         <v>0.76233464</v>
       </c>
-      <c r="AI95" t="n">
+      <c r="AJ95" t="n">
         <v>0.20099145</v>
       </c>
-      <c r="AJ95" t="n">
+      <c r="AK95" t="n">
         <v>0.6895932</v>
       </c>
-      <c r="AK95" t="inlineStr">
+      <c r="AL95" t="n">
+        <v>0.4582525021610637</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>0.176995723949191</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.170024671934085</v>
+      </c>
+      <c r="AO95" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL95" t="inlineStr">
+      <c r="AP95" t="inlineStr">
         <is>
           <t>HD 145417</t>
         </is>
       </c>
-      <c r="AM95" t="inlineStr">
+      <c r="AQ95" t="inlineStr">
         <is>
           <t>GJ 615</t>
         </is>
       </c>
-      <c r="AN95" t="inlineStr">
+      <c r="AR95" t="inlineStr">
         <is>
           <t>79537</t>
         </is>
       </c>
-      <c r="AO95" t="inlineStr">
+      <c r="AS95" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU95" t="n">
+        <v>2.324699077934539</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>13.59651784149522</v>
+      </c>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14589,55 +16586,78 @@
         <v>-56.44366680941792</v>
       </c>
       <c r="AB96" t="n">
+        <v>7.078011894307137</v>
+      </c>
+      <c r="AC96" t="n">
         <v>6.866890907287598</v>
       </c>
-      <c r="AC96" t="n">
+      <c r="AD96" t="n">
         <v>7.306442260742188</v>
       </c>
-      <c r="AD96" t="n">
+      <c r="AE96" t="n">
         <v>6.252590656280518</v>
       </c>
-      <c r="AE96" t="n">
+      <c r="AF96" t="n">
         <v>1.05385160446167</v>
       </c>
-      <c r="AF96" t="n">
+      <c r="AG96" t="n">
         <v>67.44689289916005</v>
       </c>
-      <c r="AG96" t="n">
+      <c r="AH96" t="n">
         <v>4986.093</v>
       </c>
-      <c r="AH96" t="n">
+      <c r="AI96" t="n">
         <v>0.8174492</v>
       </c>
-      <c r="AI96" t="n">
+      <c r="AJ96" t="n">
         <v>0.32058176</v>
       </c>
-      <c r="AJ96" t="n">
+      <c r="AK96" t="n">
         <v>0.7619096</v>
       </c>
-      <c r="AK96" t="inlineStr">
+      <c r="AL96" t="n">
+        <v>0.5781584550323466</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0.1467204175415846</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.128109551282594</v>
+      </c>
+      <c r="AO96" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL96" t="inlineStr">
+      <c r="AP96" t="inlineStr">
         <is>
           <t>HD 144628</t>
         </is>
       </c>
-      <c r="AM96" t="inlineStr">
+      <c r="AQ96" t="inlineStr">
         <is>
           <t>GJ 613.0, GJ 613</t>
         </is>
       </c>
-      <c r="AN96" t="inlineStr">
+      <c r="AR96" t="inlineStr">
         <is>
           <t>79190</t>
         </is>
       </c>
-      <c r="AO96" t="inlineStr">
+      <c r="AS96" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.848206256583958</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>14.82647987202467</v>
+      </c>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14736,55 +16756,78 @@
         <v>-68.75719762527582</v>
       </c>
       <c r="AB97" t="n">
+        <v>7.109029698600769</v>
+      </c>
+      <c r="AC97" t="n">
         <v>6.904045104980469</v>
       </c>
-      <c r="AC97" t="n">
+      <c r="AD97" t="n">
         <v>7.337036609649658</v>
       </c>
-      <c r="AD97" t="n">
+      <c r="AE97" t="n">
         <v>6.300198078155518</v>
       </c>
-      <c r="AE97" t="n">
+      <c r="AF97" t="n">
         <v>1.036838531494141</v>
       </c>
-      <c r="AF97" t="n">
+      <c r="AG97" t="n">
         <v>61.77374693161543</v>
       </c>
-      <c r="AG97" t="n">
+      <c r="AH97" t="n">
         <v>5004.881</v>
       </c>
-      <c r="AH97" t="n">
+      <c r="AI97" t="n">
         <v>0.81235</v>
       </c>
-      <c r="AI97" t="n">
+      <c r="AJ97" t="n">
         <v>0.36374724</v>
       </c>
-      <c r="AJ97" t="n">
+      <c r="AK97" t="n">
         <v>0.79076594</v>
       </c>
-      <c r="AK97" t="inlineStr">
+      <c r="AL97" t="n">
+        <v>0.6152689805108964</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>0.1493260444757263</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.18071914793676</v>
+      </c>
+      <c r="AO97" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL97" t="inlineStr">
+      <c r="AP97" t="inlineStr">
         <is>
           <t>HD 109200</t>
         </is>
       </c>
-      <c r="AM97" t="inlineStr">
+      <c r="AQ97" t="inlineStr">
         <is>
           <t>GJ 472</t>
         </is>
       </c>
-      <c r="AN97" t="inlineStr">
+      <c r="AR97" t="inlineStr">
         <is>
           <t>61291</t>
         </is>
       </c>
-      <c r="AO97" t="inlineStr">
+      <c r="AS97" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.642855324617889</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>16.18810659335618</v>
+      </c>
+      <c r="AW97" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14883,55 +16926,78 @@
         <v>-20.4950698499972</v>
       </c>
       <c r="AB98" t="n">
+        <v>8.888467973728179</v>
+      </c>
+      <c r="AC98" t="n">
         <v>8.386856079101562</v>
       </c>
-      <c r="AC98" t="n">
+      <c r="AD98" t="n">
         <v>9.130548477172852</v>
       </c>
-      <c r="AD98" t="n">
+      <c r="AE98" t="n">
         <v>7.528278350830078</v>
       </c>
-      <c r="AE98" t="n">
+      <c r="AF98" t="n">
         <v>1.602270126342773</v>
       </c>
-      <c r="AF98" t="n">
+      <c r="AG98" t="n">
         <v>63.20742001816341</v>
       </c>
-      <c r="AG98" t="n">
+      <c r="AH98" t="n">
         <v>4124.9</v>
       </c>
-      <c r="AH98" t="n">
+      <c r="AI98" t="n">
         <v>0.6622315600000001</v>
       </c>
-      <c r="AI98" t="n">
+      <c r="AJ98" t="n">
         <v>0.12293527</v>
       </c>
-      <c r="AJ98" t="n">
+      <c r="AK98" t="n">
         <v>0.7342213</v>
       </c>
-      <c r="AK98" t="inlineStr">
+      <c r="AL98" t="n">
+        <v>0.3702590183811431</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0.3103460500167974</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.718745875167374</v>
+      </c>
+      <c r="AO98" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL98" t="inlineStr">
+      <c r="AP98" t="inlineStr">
         <is>
           <t>HD 191391</t>
         </is>
       </c>
-      <c r="AM98" t="inlineStr">
+      <c r="AQ98" t="inlineStr">
         <is>
           <t>GJ 782</t>
         </is>
       </c>
-      <c r="AN98" t="inlineStr">
+      <c r="AR98" t="inlineStr">
         <is>
           <t>99385</t>
         </is>
       </c>
-      <c r="AO98" t="inlineStr">
+      <c r="AS98" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.673127109034097</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>15.82092734860303</v>
+      </c>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -15033,55 +17099,78 @@
         <v>-59.38264069990895</v>
       </c>
       <c r="AB99" t="n">
+        <v>6.636012609438896</v>
+      </c>
+      <c r="AC99" t="n">
         <v>6.354505062103271</v>
       </c>
-      <c r="AC99" t="n">
+      <c r="AD99" t="n">
         <v>6.867697715759277</v>
       </c>
-      <c r="AD99" t="n">
+      <c r="AE99" t="n">
         <v>5.683081150054932</v>
       </c>
-      <c r="AE99" t="n">
+      <c r="AF99" t="n">
         <v>1.184616565704346</v>
       </c>
-      <c r="AF99" t="n">
+      <c r="AG99" t="n">
         <v>84.60291005524316</v>
       </c>
-      <c r="AG99" t="n">
+      <c r="AH99" t="n">
         <v>4778.8843</v>
       </c>
-      <c r="AH99" t="n">
+      <c r="AI99" t="n">
         <v>1.7</v>
       </c>
-      <c r="AI99" t="n">
+      <c r="AJ99" t="n">
         <v>0.3268907</v>
       </c>
-      <c r="AJ99" t="n">
+      <c r="AK99" t="n">
         <v>0.79882145</v>
       </c>
-      <c r="AK99" t="inlineStr">
+      <c r="AL99" t="n">
+        <v>0.5896269305727422</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0.1189527091138819</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.33196851694712</v>
+      </c>
+      <c r="AO99" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL99" t="inlineStr">
+      <c r="AP99" t="inlineStr">
         <is>
           <t>HD 125072</t>
         </is>
       </c>
-      <c r="AM99" t="inlineStr">
+      <c r="AQ99" t="inlineStr">
         <is>
           <t>GJ 542</t>
         </is>
       </c>
-      <c r="AN99" t="inlineStr">
+      <c r="AR99" t="inlineStr">
         <is>
           <t>69972</t>
         </is>
       </c>
-      <c r="AO99" t="inlineStr">
+      <c r="AS99" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU99" t="n">
+        <v>3.335030171081395</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>11.81992438968151</v>
+      </c>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15180,55 +17269,78 @@
         <v>-60.7261529768452</v>
       </c>
       <c r="AB100" t="n">
+        <v>7.356441058626175</v>
+      </c>
+      <c r="AC100" t="n">
         <v>7.116920948028564</v>
       </c>
-      <c r="AC100" t="n">
+      <c r="AD100" t="n">
         <v>7.58627986907959</v>
       </c>
-      <c r="AD100" t="n">
+      <c r="AE100" t="n">
         <v>6.475841522216797</v>
       </c>
-      <c r="AE100" t="n">
+      <c r="AF100" t="n">
         <v>1.110438346862793</v>
       </c>
-      <c r="AF100" t="n">
+      <c r="AG100" t="n">
         <v>72.85383430610172</v>
       </c>
-      <c r="AG100" t="n">
+      <c r="AH100" t="n">
         <v>4866.0356</v>
       </c>
-      <c r="AH100" t="n">
+      <c r="AI100" t="n">
         <v>0.7</v>
       </c>
-      <c r="AI100" t="n">
+      <c r="AJ100" t="n">
         <v>0.2271543</v>
       </c>
-      <c r="AJ100" t="n">
+      <c r="AK100" t="n">
         <v>0.68606955</v>
       </c>
-      <c r="AK100" t="inlineStr">
+      <c r="AL100" t="n">
+        <v>0.4895369286453091</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>0.1662923591501416</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.088732163376552</v>
+      </c>
+      <c r="AO100" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL100" t="inlineStr">
+      <c r="AP100" t="inlineStr">
         <is>
           <t>HD 154577</t>
         </is>
       </c>
-      <c r="AM100" t="inlineStr">
+      <c r="AQ100" t="inlineStr">
         <is>
           <t>GJ 656</t>
         </is>
       </c>
-      <c r="AN100" t="inlineStr">
+      <c r="AR100" t="inlineStr">
         <is>
           <t>83990</t>
         </is>
       </c>
-      <c r="AO100" t="inlineStr">
+      <c r="AS100" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU100" t="n">
+        <v>2.167672195328044</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>13.72611351927495</v>
+      </c>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15324,55 +17436,78 @@
         <v>-1.938612759804832</v>
       </c>
       <c r="AB101" t="n">
+        <v>9.632092778863907</v>
+      </c>
+      <c r="AC101" t="n">
         <v>9.063088417053223</v>
       </c>
-      <c r="AC101" t="n">
+      <c r="AD101" t="n">
         <v>9.876449584960938</v>
       </c>
-      <c r="AD101" t="n">
+      <c r="AE101" t="n">
         <v>8.182724952697754</v>
       </c>
-      <c r="AE101" t="n">
+      <c r="AF101" t="n">
         <v>1.693724632263184</v>
       </c>
-      <c r="AF101" t="n">
+      <c r="AG101" t="n">
         <v>52.39629220529056</v>
       </c>
-      <c r="AG101" t="n">
+      <c r="AH101" t="n">
         <v>4205</v>
       </c>
-      <c r="AH101" t="n">
+      <c r="AI101" t="n">
         <v>0.6</v>
       </c>
-      <c r="AI101" t="n">
+      <c r="AJ101" t="n">
         <v>0.102434</v>
       </c>
-      <c r="AJ101" t="n">
+      <c r="AK101" t="n">
         <v>0.967</v>
       </c>
-      <c r="AK101" t="inlineStr">
+      <c r="AL101" t="n">
+        <v>0.3372117479355314</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0.4512559326716648</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2.270169891124356</v>
+      </c>
+      <c r="AO101" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL101" t="inlineStr">
+      <c r="AP101" t="inlineStr">
         <is>
           <t>HD 168442</t>
         </is>
       </c>
-      <c r="AM101" t="inlineStr">
+      <c r="AQ101" t="inlineStr">
         <is>
           <t>GJ 710</t>
         </is>
       </c>
-      <c r="AN101" t="inlineStr">
+      <c r="AR101" t="inlineStr">
         <is>
           <t>89825</t>
         </is>
       </c>
-      <c r="AO101" t="inlineStr">
+      <c r="AS101" t="inlineStr">
         <is>
           <t>Variable*</t>
+        </is>
+      </c>
+      <c r="AU101" t="n">
+        <v>0.6635472110517399</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>19.08531993221894</v>
+      </c>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -15471,55 +17606,78 @@
         <v>-2.325961281516125</v>
       </c>
       <c r="AB102" t="n">
+        <v>5.743167005777359</v>
+      </c>
+      <c r="AC102" t="n">
         <v>5.55355167388916</v>
       </c>
-      <c r="AC102" t="n">
+      <c r="AD102" t="n">
         <v>5.970620632171631</v>
       </c>
-      <c r="AD102" t="n">
+      <c r="AE102" t="n">
         <v>4.956011295318604</v>
       </c>
-      <c r="AE102" t="n">
+      <c r="AF102" t="n">
         <v>1.014609336853027</v>
       </c>
-      <c r="AF102" t="n">
+      <c r="AG102" t="n">
         <v>101.0718881190956</v>
       </c>
-      <c r="AG102" t="n">
+      <c r="AH102" t="n">
         <v>5106.7</v>
       </c>
-      <c r="AH102" t="n">
+      <c r="AI102" t="n">
         <v>0.8221716999999999</v>
       </c>
-      <c r="AI102" t="n">
+      <c r="AJ102" t="n">
         <v>0.46337712</v>
       </c>
-      <c r="AJ102" t="n">
+      <c r="AK102" t="n">
         <v>0.8696263</v>
       </c>
-      <c r="AK102" t="inlineStr">
+      <c r="AL102" t="n">
+        <v>0.6907754048113525</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>0.08469295296394665</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0.7138443586596105</v>
+      </c>
+      <c r="AO102" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL102" t="inlineStr">
+      <c r="AP102" t="inlineStr">
         <is>
           <t>HD 149661</t>
         </is>
       </c>
-      <c r="AM102" t="inlineStr">
+      <c r="AQ102" t="inlineStr">
         <is>
           <t>GJ 631</t>
         </is>
       </c>
-      <c r="AN102" t="inlineStr">
+      <c r="AR102" t="inlineStr">
         <is>
           <t>81300</t>
         </is>
       </c>
-      <c r="AO102" t="inlineStr">
+      <c r="AS102" t="inlineStr">
         <is>
           <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.25015691391364</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>9.893947947441871</v>
+      </c>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15618,50 +17776,73 @@
         <v>-38.96990653268172</v>
       </c>
       <c r="AB103" t="n">
+        <v>9.031418509688377</v>
+      </c>
+      <c r="AC103" t="n">
         <v>8.539438247680664</v>
       </c>
-      <c r="AC103" t="n">
+      <c r="AD103" t="n">
         <v>9.272552490234375</v>
       </c>
-      <c r="AD103" t="n">
+      <c r="AE103" t="n">
         <v>7.708310604095459</v>
       </c>
-      <c r="AE103" t="n">
+      <c r="AF103" t="n">
         <v>1.564241886138916</v>
       </c>
-      <c r="AF103" t="n">
+      <c r="AG103" t="n">
         <v>57.27060617763743</v>
       </c>
-      <c r="AG103" t="n">
+      <c r="AH103" t="n">
         <v>4265.911</v>
       </c>
-      <c r="AH103" t="n">
+      <c r="AI103" t="n">
         <v>0.670469</v>
       </c>
-      <c r="AI103" t="n">
+      <c r="AJ103" t="n">
         <v>0.12170362</v>
       </c>
-      <c r="AJ103" t="n">
+      <c r="AK103" t="n">
         <v>0.6386978</v>
       </c>
-      <c r="AK103" t="inlineStr">
+      <c r="AL103" t="n">
+        <v>0.3668865106019408</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>0.3485261764443434</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.933296656800961</v>
+      </c>
+      <c r="AO103" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL103" t="inlineStr">
+      <c r="AP103" t="inlineStr">
         <is>
           <t>HD  35650</t>
         </is>
       </c>
-      <c r="AN103" t="inlineStr">
+      <c r="AR103" t="inlineStr">
         <is>
           <t>25283</t>
         </is>
       </c>
-      <c r="AO103" t="inlineStr">
+      <c r="AS103" t="inlineStr">
         <is>
           <t>RotV*</t>
+        </is>
+      </c>
+      <c r="AU103" t="n">
+        <v>2.573311979644731</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>17.46096412701272</v>
+      </c>
+      <c r="AW103" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -15760,55 +17941,78 @@
         <v>22.70974110516827</v>
       </c>
       <c r="AB104" t="n">
+        <v>7.663595725979805</v>
+      </c>
+      <c r="AC104" t="n">
         <v>7.428370952606201</v>
       </c>
-      <c r="AC104" t="n">
+      <c r="AD104" t="n">
         <v>7.893073081970215</v>
       </c>
-      <c r="AD104" t="n">
+      <c r="AE104" t="n">
         <v>6.797156810760498</v>
       </c>
-      <c r="AE104" t="n">
+      <c r="AF104" t="n">
         <v>1.095916271209717</v>
       </c>
-      <c r="AF104" t="n">
+      <c r="AG104" t="n">
         <v>50.56684941372739</v>
       </c>
-      <c r="AG104" t="n">
+      <c r="AH104" t="n">
         <v>4897.251</v>
       </c>
-      <c r="AH104" t="n">
+      <c r="AI104" t="n">
         <v>0.79787195</v>
       </c>
-      <c r="AI104" t="n">
+      <c r="AJ104" t="n">
         <v>0.34316152</v>
       </c>
-      <c r="AJ104" t="n">
+      <c r="AK104" t="n">
         <v>0.8137522</v>
       </c>
-      <c r="AK104" t="inlineStr">
+      <c r="AL104" t="n">
+        <v>0.6007955473381266</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>0.1917407804419631</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.484744243946189</v>
+      </c>
+      <c r="AO104" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL104" t="inlineStr">
+      <c r="AP104" t="inlineStr">
         <is>
           <t>HD 189733, HD 189733A</t>
         </is>
       </c>
-      <c r="AM104" t="inlineStr">
+      <c r="AQ104" t="inlineStr">
         <is>
           <t>GJ 4130</t>
         </is>
       </c>
-      <c r="AN104" t="inlineStr">
+      <c r="AR104" t="inlineStr">
         <is>
           <t>98505</t>
         </is>
       </c>
-      <c r="AO104" t="inlineStr">
+      <c r="AS104" t="inlineStr">
         <is>
           <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.480664521061823</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>19.77580196500298</v>
+      </c>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15907,50 +18111,73 @@
         <v>-0.8657212651967648</v>
       </c>
       <c r="AB105" t="n">
+        <v>7.767514817652702</v>
+      </c>
+      <c r="AC105" t="n">
         <v>7.512979030609131</v>
       </c>
-      <c r="AC105" t="n">
+      <c r="AD105" t="n">
         <v>7.99785327911377</v>
       </c>
-      <c r="AD105" t="n">
+      <c r="AE105" t="n">
         <v>6.867340564727783</v>
       </c>
-      <c r="AE105" t="n">
+      <c r="AF105" t="n">
         <v>1.130512714385986</v>
       </c>
-      <c r="AF105" t="n">
+      <c r="AG105" t="n">
         <v>50.94324624411764</v>
       </c>
-      <c r="AG105" t="n">
+      <c r="AH105" t="n">
         <v>4810.8853</v>
       </c>
-      <c r="AH105" t="n">
+      <c r="AI105" t="n">
         <v>0.75</v>
       </c>
-      <c r="AI105" t="n">
+      <c r="AJ105" t="n">
         <v>0.3194363</v>
       </c>
-      <c r="AJ105" t="n">
+      <c r="AK105" t="n">
         <v>0.8135819399999999</v>
       </c>
-      <c r="AK105" t="inlineStr">
+      <c r="AL105" t="n">
+        <v>0.5820161714796293</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>0.2005572136799087</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.48198472804781</v>
+      </c>
+      <c r="AO105" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL105" t="inlineStr">
+      <c r="AP105" t="inlineStr">
         <is>
           <t>HD 192263</t>
         </is>
       </c>
-      <c r="AN105" t="inlineStr">
+      <c r="AR105" t="inlineStr">
         <is>
           <t>99711</t>
         </is>
       </c>
-      <c r="AO105" t="inlineStr">
+      <c r="AS105" t="inlineStr">
         <is>
           <t>BYDraV*</t>
+        </is>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.392699324365376</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>19.6296874213325</v>
+      </c>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -16054,52 +18281,75 @@
         <v>6.271036148071289</v>
       </c>
       <c r="AC106" t="n">
+        <v>6.271036148071289</v>
+      </c>
+      <c r="AD106" t="n">
         <v>6.60129976272583</v>
       </c>
-      <c r="AD106" t="n">
+      <c r="AE106" t="n">
         <v>5.762508869171143</v>
       </c>
-      <c r="AE106" t="n">
+      <c r="AF106" t="n">
         <v>0.8387908935546875</v>
       </c>
-      <c r="AF106" t="n">
+      <c r="AG106" t="n">
         <v>53.76526189706887</v>
       </c>
-      <c r="AG106" t="n">
+      <c r="AH106" t="n">
         <v>5636.9355</v>
       </c>
-      <c r="AH106" t="n">
+      <c r="AI106" t="n">
         <v>0.969942</v>
       </c>
-      <c r="AI106" t="n">
+      <c r="AJ106" t="n">
         <v>0.7957682</v>
       </c>
-      <c r="AJ106" t="n">
+      <c r="AK106" t="n">
         <v>0.93532795</v>
       </c>
-      <c r="AK106" t="inlineStr">
+      <c r="AL106" t="n">
+        <v>0.8778667036136425</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0.1408428551255723</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.453546613752929</v>
+      </c>
+      <c r="AO106" t="inlineStr">
         <is>
           <t>G</t>
         </is>
       </c>
-      <c r="AL106" t="inlineStr">
+      <c r="AP106" t="inlineStr">
         <is>
           <t>HD  42807</t>
         </is>
       </c>
-      <c r="AM106" t="inlineStr">
+      <c r="AQ106" t="inlineStr">
         <is>
           <t>GJ 230</t>
         </is>
       </c>
-      <c r="AN106" t="inlineStr">
+      <c r="AR106" t="inlineStr">
         <is>
           <t>29525</t>
         </is>
       </c>
-      <c r="AO106" t="inlineStr">
+      <c r="AS106" t="inlineStr">
         <is>
           <t>RSCVnV*</t>
+        </is>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.185370263578394</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>18.59937001542844</v>
+      </c>
+      <c r="AW106" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -16198,55 +18448,78 @@
         <v>-54.5595680078303</v>
       </c>
       <c r="AB107" t="n">
+        <v>8.960261054987907</v>
+      </c>
+      <c r="AC107" t="n">
         <v>8.409995079040527</v>
       </c>
-      <c r="AC107" t="n">
+      <c r="AD107" t="n">
         <v>9.203866004943848</v>
       </c>
-      <c r="AD107" t="n">
+      <c r="AE107" t="n">
         <v>7.540348529815674</v>
       </c>
-      <c r="AE107" t="n">
+      <c r="AF107" t="n">
         <v>1.663517475128174</v>
       </c>
-      <c r="AF107" t="n">
+      <c r="AG107" t="n">
         <v>76.15946505307657</v>
       </c>
-      <c r="AG107" t="n">
+      <c r="AH107" t="n">
         <v>3920</v>
       </c>
-      <c r="AH107" t="n">
+      <c r="AI107" t="n">
         <v>0.6</v>
       </c>
-      <c r="AI107" t="n">
+      <c r="AJ107" t="n">
         <v>0.187</v>
       </c>
-      <c r="AJ107" t="n">
+      <c r="AK107" t="n">
         <v>0.967</v>
       </c>
-      <c r="AK107" t="inlineStr">
+      <c r="AL107" t="n">
+        <v>0.4589700401978843</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0.2811993874321437</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.650402802109548</v>
+      </c>
+      <c r="AO107" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL107" t="inlineStr">
+      <c r="AP107" t="inlineStr">
         <is>
           <t>HD 211970</t>
         </is>
       </c>
-      <c r="AM107" t="inlineStr">
+      <c r="AQ107" t="inlineStr">
         <is>
           <t>GJ 1267</t>
         </is>
       </c>
-      <c r="AN107" t="inlineStr">
+      <c r="AR107" t="inlineStr">
         <is>
           <t>110443</t>
         </is>
       </c>
-      <c r="AO107" t="inlineStr">
+      <c r="AS107" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU107" t="n">
+        <v>0.6635472110517399</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>13.13034432822088</v>
+      </c>
+      <c r="AW107" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16345,55 +18618,78 @@
         <v>-50.82090583925884</v>
       </c>
       <c r="AB108" t="n">
+        <v>6.083982253665924</v>
+      </c>
+      <c r="AC108" t="n">
         <v>5.893561840057373</v>
       </c>
-      <c r="AC108" t="n">
+      <c r="AD108" t="n">
         <v>6.31140661239624</v>
       </c>
-      <c r="AD108" t="n">
+      <c r="AE108" t="n">
         <v>5.297973155975342</v>
       </c>
-      <c r="AE108" t="n">
+      <c r="AF108" t="n">
         <v>1.013433456420898</v>
       </c>
-      <c r="AF108" t="n">
+      <c r="AG108" t="n">
         <v>92.92514044230325</v>
       </c>
-      <c r="AG108" t="n">
+      <c r="AH108" t="n">
         <v>5152.9077</v>
       </c>
-      <c r="AH108" t="n">
+      <c r="AI108" t="n">
         <v>0.871883</v>
       </c>
-      <c r="AI108" t="n">
+      <c r="AJ108" t="n">
         <v>0.3898579</v>
       </c>
-      <c r="AJ108" t="n">
+      <c r="AK108" t="n">
         <v>0.73423636</v>
       </c>
-      <c r="AK108" t="inlineStr">
+      <c r="AL108" t="n">
+        <v>0.6320453262746303</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0.1017640896016448</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0.8448982210488089</v>
+      </c>
+      <c r="AO108" t="inlineStr">
         <is>
           <t>K</t>
         </is>
       </c>
-      <c r="AL108" t="inlineStr">
+      <c r="AP108" t="inlineStr">
         <is>
           <t>HD  13445</t>
         </is>
       </c>
-      <c r="AM108" t="inlineStr">
+      <c r="AQ108" t="inlineStr">
         <is>
           <t>GJ 86 A, GJ 86</t>
         </is>
       </c>
-      <c r="AN108" t="inlineStr">
+      <c r="AR108" t="inlineStr">
         <is>
           <t>10138</t>
         </is>
       </c>
-      <c r="AO108" t="inlineStr">
+      <c r="AS108" t="inlineStr">
         <is>
           <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AU108" t="n">
+        <v>2.202675635122268</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>10.76135042939101</v>
+      </c>
+      <c r="AW108" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>

--- a/results/merged_result_MJ_with_properties.xlsx
+++ b/results/merged_result_MJ_with_properties.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW108"/>
+  <dimension ref="A1:AV108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,10 @@
     <col width="23" customWidth="1" min="42" max="42"/>
     <col width="30" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
-    <col width="19" customWidth="1" min="45" max="45"/>
+    <col width="13" customWidth="1" min="45" max="45"/>
     <col width="22" customWidth="1" min="46" max="46"/>
-    <col width="22" customWidth="1" min="47" max="47"/>
-    <col width="19" customWidth="1" min="48" max="48"/>
-    <col width="13" customWidth="1" min="49" max="49"/>
+    <col width="19" customWidth="1" min="47" max="47"/>
+    <col width="13" customWidth="1" min="48" max="48"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -716,20 +715,15 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Spectral Type Simbad</t>
+          <t>Density [Solar unit]</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Density [Solar unit]</t>
+          <t>Distance [pc]</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Distance [pc]</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>V_mag_group</t>
         </is>
@@ -893,15 +887,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT2" t="n">
+        <v>1.528241921070437</v>
+      </c>
       <c r="AU2" t="n">
-        <v>1.528241921070437</v>
-      </c>
-      <c r="AV2" t="n">
         <v>14.67227710117747</v>
       </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1063,15 +1057,15 @@
           <t>**</t>
         </is>
       </c>
+      <c r="AT3" t="n">
+        <v>1.356604055150243</v>
+      </c>
       <c r="AU3" t="n">
-        <v>1.356604055150243</v>
-      </c>
-      <c r="AV3" t="n">
         <v>13.0309238390451</v>
       </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1233,15 +1227,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT4" t="n">
+        <v>2.041952602911969</v>
+      </c>
       <c r="AU4" t="n">
-        <v>2.041952602911969</v>
-      </c>
-      <c r="AV4" t="n">
         <v>16.76761069658454</v>
       </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -1403,15 +1397,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT5" t="n">
+        <v>2.239104212270826</v>
+      </c>
       <c r="AU5" t="n">
-        <v>2.239104212270826</v>
-      </c>
-      <c r="AV5" t="n">
         <v>19.17020321539005</v>
       </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -1573,13 +1567,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT6" t="n">
+        <v>0.6800916192561645</v>
+      </c>
       <c r="AU6" t="n">
-        <v>0.6800916192561645</v>
-      </c>
-      <c r="AV6" t="n">
         <v>3.652170961142577</v>
       </c>
-      <c r="AW6" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -1743,15 +1737,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT7" t="n">
+        <v>2.052688921124784</v>
+      </c>
       <c r="AU7" t="n">
-        <v>2.052688921124784</v>
-      </c>
-      <c r="AV7" t="n">
         <v>17.86166659875671</v>
       </c>
-      <c r="AW7" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -1841,34 +1835,29 @@
           <t>5630532113072532736</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>5630532113072532736</t>
-        </is>
-      </c>
       <c r="Z8" t="n">
-        <v>142.6166788918856</v>
+        <v>142.6166899241985</v>
       </c>
       <c r="AA8" t="n">
-        <v>-32.10200628852181</v>
+        <v>-32.10205002423861</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.306259956345558</v>
+        <v>8.32715599093914</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.002314567565918</v>
+        <v>7.993447303771973</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.539155006408691</v>
+        <v>8.560214042663574</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.30592679977417</v>
+        <v>7.320436954498291</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.233228206634521</v>
+        <v>1.239777088165283</v>
       </c>
       <c r="AG8" t="n">
-        <v>50.9426573151017</v>
+        <v>50.93645103359646</v>
       </c>
       <c r="AH8" t="n">
         <v>4576.884</v>
@@ -1886,10 +1875,10 @@
         <v>0.490707367225516</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.2539042489581328</v>
+        <v>0.2563593581410618</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.692851787552183</v>
+        <v>1.709220756196676</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1916,15 +1905,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT8" t="n">
+        <v>1.621604673108436</v>
+      </c>
       <c r="AU8" t="n">
-        <v>1.621604673108436</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>19.62991435281008</v>
-      </c>
-      <c r="AW8" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
+        <v>19.6323061326048</v>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -2089,15 +2078,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT9" t="n">
+        <v>2.11927517458269</v>
+      </c>
       <c r="AU9" t="n">
-        <v>2.11927517458269</v>
-      </c>
-      <c r="AV9" t="n">
         <v>19.11360225322881</v>
       </c>
-      <c r="AW9" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -2259,15 +2248,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT10" t="n">
+        <v>0.8528938169750084</v>
+      </c>
       <c r="AU10" t="n">
-        <v>0.8528938169750084</v>
-      </c>
-      <c r="AV10" t="n">
         <v>17.93225480992242</v>
       </c>
-      <c r="AW10" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2432,13 +2421,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT11" t="n">
+        <v>1.457793859010921</v>
+      </c>
       <c r="AU11" t="n">
-        <v>1.457793859010921</v>
-      </c>
-      <c r="AV11" t="n">
         <v>8.791104886960111</v>
       </c>
-      <c r="AW11" t="inlineStr">
+      <c r="AV11" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -2519,102 +2508,6 @@
           <t>6080301367488384896</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>6080301367488384896</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>6080301367488384896</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>6080301367488384896</t>
-        </is>
-      </c>
-      <c r="Z12" t="n">
-        <v>196.2337538641043</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>-52.4464606454391</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>9.038844431605339</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.445794105529785</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9.284271240234375</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>7.547557353973389</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1.736713886260986</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>61.3202021352086</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>3640</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0.1310105</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>0.7293058</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>0.3862192906125948</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0.2029069987476966</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>0.997255190854221</v>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>HD 113538</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>GJ 9425, GJ 496.1</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>63833</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU12" t="n">
-        <v>1.288964635557539</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>16.30783926307092</v>
-      </c>
-      <c r="AW12" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2777,15 +2670,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT13" t="n">
+        <v>1.952774888141471</v>
+      </c>
       <c r="AU13" t="n">
-        <v>1.952774888141471</v>
-      </c>
-      <c r="AV13" t="n">
         <v>14.73984079184628</v>
       </c>
-      <c r="AW13" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -2947,13 +2840,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT14" t="n">
+        <v>0.7940434459215121</v>
+      </c>
       <c r="AU14" t="n">
-        <v>0.7940434459215121</v>
-      </c>
-      <c r="AV14" t="n">
         <v>14.73911160268253</v>
       </c>
-      <c r="AW14" t="inlineStr">
+      <c r="AV14" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -3117,15 +3010,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT15" t="n">
+        <v>0.906764956917385</v>
+      </c>
       <c r="AU15" t="n">
-        <v>0.906764956917385</v>
-      </c>
-      <c r="AV15" t="n">
         <v>8.534415098502675</v>
       </c>
-      <c r="AW15" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -3287,15 +3180,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT16" t="n">
+        <v>1.292561167675858</v>
+      </c>
       <c r="AU16" t="n">
-        <v>1.292561167675858</v>
-      </c>
-      <c r="AV16" t="n">
         <v>17.74227354232349</v>
       </c>
-      <c r="AW16" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -3375,102 +3268,6 @@
           <t>4706630501049679744</t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>4706630501049679744</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>4706630501049679744</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>4706630501049679744</t>
-        </is>
-      </c>
-      <c r="Z17" t="n">
-        <v>1.322328801511178</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>-67.83508132890724</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8.455076312074661</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.091019630432129</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8.690603256225586</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>7.35163402557373</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1.338969230651855</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>61.00639982208859</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>4398.7754</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0.7053809</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0.14590912</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0.63571703</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0.3999643383147214</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0.2729440123358245</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1.621449951999693</v>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>HD     55</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>GJ 3</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU17" t="n">
-        <v>2.745567710296219</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>16.39172288343968</v>
-      </c>
-      <c r="AW17" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3638,15 +3435,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT18" t="n">
+        <v>1.78211177339737</v>
+      </c>
       <c r="AU18" t="n">
-        <v>1.78211177339737</v>
-      </c>
-      <c r="AV18" t="n">
         <v>18.81162115767776</v>
       </c>
-      <c r="AW18" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -3723,102 +3520,6 @@
           <t>6471497502884511232</t>
         </is>
       </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>6471497502884511232</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>6471497502884511232</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>6471497502884511232</t>
-        </is>
-      </c>
-      <c r="Z19" t="n">
-        <v>310.5788689173076</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>-52.70400747589355</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>8.804230053181648</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>8.240460395812988</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>9.048484802246094</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>7.358860492706299</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1.689624309539795</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>81.02792076812638</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>3917.272</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0.61094534</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0.08590003</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>0.6361759299999999</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0.3110902437816222</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0.261076460238167</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1.27297373505892</v>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>HD 196877</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>GJ 798.0, GJ 798</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>102186</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU19" t="n">
-        <v>2.3728520291368</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>12.34142491279828</v>
-      </c>
-      <c r="AW19" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3981,15 +3682,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT20" t="n">
+        <v>2.635775028242927</v>
+      </c>
       <c r="AU20" t="n">
-        <v>2.635775028242927</v>
-      </c>
-      <c r="AV20" t="n">
         <v>12.7833499049576</v>
       </c>
-      <c r="AW20" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -4074,102 +3775,6 @@
           <t>6669657123437047424</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>6669657123437047424</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>6669657123437047424</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>6669657123437047424</t>
-        </is>
-      </c>
-      <c r="Z21" t="n">
-        <v>304.9014800275145</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>-46.42856921734209</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.696639160513877</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.282655715942383</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>8.93438720703125</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>7.506181240081787</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1.428205966949463</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>54.04408367109657</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>4389.5796</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0.6886628</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0.16172463</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0.69715226</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0.4212175615883222</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0.3049162003307058</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1.836727717196075</v>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>HD 192961</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>GJ 787</t>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>100223</t>
-        </is>
-      </c>
-      <c r="AS21" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU21" t="n">
-        <v>2.032467946890793</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>18.50341299310089</v>
-      </c>
-      <c r="AW21" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4247,102 +3852,6 @@
           <t>4737533237421005952</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>4737533237421005952</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>4737533237421005952</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>4737533237421005952</t>
-        </is>
-      </c>
-      <c r="Z22" t="n">
-        <v>50.82325574741139</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>-49.9907184713681</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8.543711507334709</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.192389488220215</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>8.778672218322754</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>7.462452411651611</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1.316219806671143</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>51.81551879878727</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>4410</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>0.74283314</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0.17813864</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0.67277056</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>0.4417625331460715</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0.2844115961768082</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1.822195496765714</v>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>HD  21209A, HD  21209</t>
-        </is>
-      </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>GJ 9115 A, GJ 140.1 A</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>15774</t>
-        </is>
-      </c>
-      <c r="AS22" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU22" t="n">
-        <v>2.439441087603737</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>19.29923743277091</v>
-      </c>
-      <c r="AW22" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -4417,102 +3926,6 @@
           <t>5285775539195330560</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>5285775539195330560</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>5285775539195330560</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>5285775539195330560</t>
-        </is>
-      </c>
-      <c r="Z23" t="n">
-        <v>108.2768913871574</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>-63.34238904353339</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9.05973434832096</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.570058822631836</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>9.300670623779297</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>7.744371891021729</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.556298732757568</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>51.05388225075709</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>4179.2197</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.15366574</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0.74814504</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0.4133280492459198</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0.3434973018235495</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1.913173990332276</v>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>HD  56533</t>
-        </is>
-      </c>
-      <c r="AQ23" t="inlineStr">
-        <is>
-          <t>GJ 9226, GJ 268.2</t>
-        </is>
-      </c>
-      <c r="AR23" t="inlineStr">
-        <is>
-          <t>34890</t>
-        </is>
-      </c>
-      <c r="AS23" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU23" t="n">
-        <v>1.43282729890182</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>19.58714902597188</v>
-      </c>
-      <c r="AW23" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4587,102 +4000,6 @@
           <t>4833654227548585856</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>4833654227548585856</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>4833654227548585856</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>4833654227548585856</t>
-        </is>
-      </c>
-      <c r="Z24" t="n">
-        <v>53.75662455732397</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>-48.41777462792747</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>8.559503447828293</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.020994186401367</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>8.802591323852539</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>7.159848213195801</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1.642743110656738</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>73.51988280065039</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>3850</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0.6617253</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0.1286912</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>0.7185779</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0.3813171613997799</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0.218216145001496</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1.225959512009539</v>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>HD  22496</t>
-        </is>
-      </c>
-      <c r="AQ24" t="inlineStr">
-        <is>
-          <t>GJ 146</t>
-        </is>
-      </c>
-      <c r="AR24" t="inlineStr">
-        <is>
-          <t>16711</t>
-        </is>
-      </c>
-      <c r="AS24" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU24" t="n">
-        <v>1.783430422381145</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>13.60176270562762</v>
-      </c>
-      <c r="AW24" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4842,15 +4159,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT25" t="n">
+        <v>2.366201403288587</v>
+      </c>
       <c r="AU25" t="n">
-        <v>2.366201403288587</v>
-      </c>
-      <c r="AV25" t="n">
         <v>17.91335395150217</v>
       </c>
-      <c r="AW25" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -5012,13 +4329,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT26" t="n">
+        <v>1.177088983194154</v>
+      </c>
       <c r="AU26" t="n">
-        <v>1.177088983194154</v>
-      </c>
-      <c r="AV26" t="n">
         <v>6.041412326770681</v>
       </c>
-      <c r="AW26" t="inlineStr">
+      <c r="AV26" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -5182,13 +4499,13 @@
           <t>Eruptive*</t>
         </is>
       </c>
+      <c r="AT27" t="n">
+        <v>1.381521552589273</v>
+      </c>
       <c r="AU27" t="n">
-        <v>1.381521552589273</v>
-      </c>
-      <c r="AV27" t="n">
         <v>5.009818934047725</v>
       </c>
-      <c r="AW27" t="inlineStr">
+      <c r="AV27" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -5355,15 +4672,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT28" t="n">
+        <v>1.82962437834759</v>
+      </c>
       <c r="AU28" t="n">
-        <v>1.82962437834759</v>
-      </c>
-      <c r="AV28" t="n">
         <v>16.33263262714404</v>
       </c>
-      <c r="AW28" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -5525,15 +4842,15 @@
           <t>SB*</t>
         </is>
       </c>
+      <c r="AT29" t="n">
+        <v>1.729244200975598</v>
+      </c>
       <c r="AU29" t="n">
-        <v>1.729244200975598</v>
-      </c>
-      <c r="AV29" t="n">
         <v>10.0868340463566</v>
       </c>
-      <c r="AW29" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -5690,15 +5007,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT30" t="n">
+        <v>0.8158904314580906</v>
+      </c>
       <c r="AU30" t="n">
-        <v>0.8158904314580906</v>
-      </c>
-      <c r="AV30" t="n">
         <v>19.61960010657953</v>
       </c>
-      <c r="AW30" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -5863,15 +5180,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT31" t="n">
+        <v>1.781510507227236</v>
+      </c>
       <c r="AU31" t="n">
-        <v>1.781510507227236</v>
-      </c>
-      <c r="AV31" t="n">
         <v>10.46386619996736</v>
       </c>
-      <c r="AW31" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -6033,15 +5350,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT32" t="n">
+        <v>1.270700200018976</v>
+      </c>
       <c r="AU32" t="n">
-        <v>1.270700200018976</v>
-      </c>
-      <c r="AV32" t="n">
         <v>16.8464974404826</v>
       </c>
-      <c r="AW32" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -6201,15 +5518,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT33" t="n">
+        <v>2.052239288285687</v>
+      </c>
       <c r="AU33" t="n">
-        <v>2.052239288285687</v>
-      </c>
-      <c r="AV33" t="n">
         <v>13.93717968355234</v>
       </c>
-      <c r="AW33" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -6376,13 +5693,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT34" t="n">
+        <v>1.37647581175124</v>
+      </c>
       <c r="AU34" t="n">
-        <v>1.37647581175124</v>
-      </c>
-      <c r="AV34" t="n">
         <v>12.04471428916949</v>
       </c>
-      <c r="AW34" t="inlineStr">
+      <c r="AV34" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -6549,15 +5866,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT35" t="n">
+        <v>1.115093151133548</v>
+      </c>
       <c r="AU35" t="n">
-        <v>1.115093151133548</v>
-      </c>
-      <c r="AV35" t="n">
         <v>15.04606590403891</v>
       </c>
-      <c r="AW35" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -6719,15 +6036,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT36" t="n">
+        <v>1.852212400374402</v>
+      </c>
       <c r="AU36" t="n">
-        <v>1.852212400374402</v>
-      </c>
-      <c r="AV36" t="n">
         <v>18.27507516390551</v>
       </c>
-      <c r="AW36" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -6892,15 +6209,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT37" t="n">
+        <v>1.373454807188958</v>
+      </c>
       <c r="AU37" t="n">
-        <v>1.373454807188958</v>
-      </c>
-      <c r="AV37" t="n">
         <v>14.06905111863229</v>
       </c>
-      <c r="AW37" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV37" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -7062,15 +6379,15 @@
           <t>SB*</t>
         </is>
       </c>
+      <c r="AT38" t="n">
+        <v>1.320714924499832</v>
+      </c>
       <c r="AU38" t="n">
-        <v>1.320714924499832</v>
-      </c>
-      <c r="AV38" t="n">
         <v>19.88607472028888</v>
       </c>
-      <c r="AW38" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -7240,15 +6557,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT39" t="n">
+        <v>1.769575738741929</v>
+      </c>
       <c r="AU39" t="n">
-        <v>1.769575738741929</v>
-      </c>
-      <c r="AV39" t="n">
         <v>15.71044010482964</v>
       </c>
-      <c r="AW39" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -7328,102 +6645,6 @@
           <t>4258375617747092864</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>4258375617747092864</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>4258375617747092864</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>4258375617747092864</t>
-        </is>
-      </c>
-      <c r="Z40" t="n">
-        <v>281.8629551175184</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>-3.641055455311226</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>8.786167160444259</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8.26960277557373</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>9.028376579284668</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>7.420927047729492</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>1.607449531555176</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>70.13347528858606</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>4022.2102</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>0.11139318</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0.69506925</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0.3533903924347861</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0.2800848151418651</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>1.55802133070193</v>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>HD 173818</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>GJ 726</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>92200</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU40" t="n">
-        <v>2.084557182793672</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>14.25852627272766</v>
-      </c>
-      <c r="AW40" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -7586,15 +6807,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT41" t="n">
+        <v>1.302097459932565</v>
+      </c>
       <c r="AU41" t="n">
-        <v>1.302097459932565</v>
-      </c>
-      <c r="AV41" t="n">
         <v>18.27285714846244</v>
       </c>
-      <c r="AW41" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -7756,15 +6977,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT42" t="n">
+        <v>1.712118408202441</v>
+      </c>
       <c r="AU42" t="n">
-        <v>1.712118408202441</v>
-      </c>
-      <c r="AV42" t="n">
         <v>8.811567976359871</v>
       </c>
-      <c r="AW42" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -7841,102 +7062,6 @@
           <t>6832674634380238848</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>6832674634380238848</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>6832674634380238848</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>6832674634380238848</t>
-        </is>
-      </c>
-      <c r="Z43" t="n">
-        <v>320.0567709913498</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>-19.85548923847976</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>9.066298904175758</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>8.497677803039551</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>9.310630798339844</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>7.617907047271729</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>1.692723751068115</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>63.38643828104384</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>3939.6514</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>0.10051212</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0.5759601</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0.3363424972877731</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0.3002265324091725</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>1.508423193722087</v>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP43" t="inlineStr">
-        <is>
-          <t>HD 203040</t>
-        </is>
-      </c>
-      <c r="AQ43" t="inlineStr">
-        <is>
-          <t>GJ 9736, GJ 826.1</t>
-        </is>
-      </c>
-      <c r="AR43" t="inlineStr">
-        <is>
-          <t>105341</t>
-        </is>
-      </c>
-      <c r="AS43" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU43" t="n">
-        <v>3.140321084148939</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>15.77624531553869</v>
-      </c>
-      <c r="AW43" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8096,15 +7221,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT44" t="n">
+        <v>1.705355230604966</v>
+      </c>
       <c r="AU44" t="n">
-        <v>1.705355230604966</v>
-      </c>
-      <c r="AV44" t="n">
         <v>12.83466070882423</v>
       </c>
-      <c r="AW44" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -8266,13 +7391,13 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT45" t="n">
+        <v>1.735189810693292</v>
+      </c>
       <c r="AU45" t="n">
-        <v>1.735189810693292</v>
-      </c>
-      <c r="AV45" t="n">
         <v>3.219810408490127</v>
       </c>
-      <c r="AW45" t="inlineStr">
+      <c r="AV45" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -8431,15 +7556,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT46" t="n">
+        <v>1.114227419076153</v>
+      </c>
       <c r="AU46" t="n">
-        <v>1.114227419076153</v>
-      </c>
-      <c r="AV46" t="n">
         <v>16.95317213092454</v>
       </c>
-      <c r="AW46" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -8606,13 +7731,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT47" t="n">
+        <v>0.7470212065555705</v>
+      </c>
       <c r="AU47" t="n">
-        <v>0.7470212065555705</v>
-      </c>
-      <c r="AV47" t="n">
         <v>6.099256325704463</v>
       </c>
-      <c r="AW47" t="inlineStr">
+      <c r="AV47" t="inlineStr">
         <is>
           <t>Brightest</t>
         </is>
@@ -8694,97 +7819,6 @@
           <t>6335064087152916224</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>6335064087152916224</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>6335064087152916224</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>6335064087152916224</t>
-        </is>
-      </c>
-      <c r="Z48" t="n">
-        <v>230.5157597977008</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>-4.777508623880735</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>9.435870217838287</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8.901265144348145</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>9.678739547729492</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>8.044776916503906</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>1.633962631225586</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>52.21004716861264</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>4093.7727</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>0.64730173</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>0.113832116</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>0.7120389</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>0.3565852273888486</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>0.3933991440170905</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>2.11386180640969</v>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AQ48" t="inlineStr">
-        <is>
-          <t>GJ 583</t>
-        </is>
-      </c>
-      <c r="AR48" t="inlineStr">
-        <is>
-          <t>75201</t>
-        </is>
-      </c>
-      <c r="AS48" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU48" t="n">
-        <v>1.793063235341547</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>19.15340158131814</v>
-      </c>
-      <c r="AW48" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -8947,15 +7981,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT49" t="n">
+        <v>1.455359828131016</v>
+      </c>
       <c r="AU49" t="n">
-        <v>1.455359828131016</v>
-      </c>
-      <c r="AV49" t="n">
         <v>11.27730561279955</v>
       </c>
-      <c r="AW49" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -9032,102 +8066,6 @@
           <t>6313600142709958144</t>
         </is>
       </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>6313600142709958144</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>6313600142709958144</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>6313600142709958144</t>
-        </is>
-      </c>
-      <c r="Z50" t="n">
-        <v>225.1808186516746</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>-11.13726849432206</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>9.452585903630256</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>8.844958305358887</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>9.698563575744629</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>7.939717769622803</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>1.758845806121826</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>56.06777131891592</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>3890.9976</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>0.110792436</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>0.764504</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>0.3535030973536811</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>0.3434949446544288</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>1.769296033820299</v>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP50" t="inlineStr">
-        <is>
-          <t>HD 132683</t>
-        </is>
-      </c>
-      <c r="AQ50" t="inlineStr">
-        <is>
-          <t>GJ 9507, GJ 571.1</t>
-        </is>
-      </c>
-      <c r="AR50" t="inlineStr">
-        <is>
-          <t>73457</t>
-        </is>
-      </c>
-      <c r="AS50" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU50" t="n">
-        <v>1.342801953045888</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>17.83555822670312</v>
-      </c>
-      <c r="AW50" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9287,15 +8225,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT51" t="n">
+        <v>1.226402369197755</v>
+      </c>
       <c r="AU51" t="n">
-        <v>1.226402369197755</v>
-      </c>
-      <c r="AV51" t="n">
         <v>12.57936463354278</v>
       </c>
-      <c r="AW51" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -9460,15 +8398,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT52" t="n">
+        <v>1.758053457990462</v>
+      </c>
       <c r="AU52" t="n">
-        <v>1.758053457990462</v>
-      </c>
-      <c r="AV52" t="n">
         <v>5.886360157633197</v>
       </c>
-      <c r="AW52" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -9625,15 +8563,15 @@
           <t>SB*</t>
         </is>
       </c>
+      <c r="AT53" t="n">
+        <v>0.9637122808438549</v>
+      </c>
       <c r="AU53" t="n">
-        <v>0.9637122808438549</v>
-      </c>
-      <c r="AV53" t="n">
         <v>18.56027893012671</v>
       </c>
-      <c r="AW53" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -9710,102 +8648,6 @@
           <t>5073448642595674752</t>
         </is>
       </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>5073448642595674752</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>5073448642595674752</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>5073448642595674752</t>
-        </is>
-      </c>
-      <c r="Z54" t="n">
-        <v>48.68701104937745</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>-26.44581248850255</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>9.127499003171922</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>8.660046577453613</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>9.367588996887207</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>7.845291137695312</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>1.522297859191895</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>53.55426056338445</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>4130.81</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>0.662613</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>0.12756857</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>0.69739515</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>0.3771107961493197</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>0.347385855302755</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>1.942157721485126</v>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP54" t="inlineStr">
-        <is>
-          <t>HD  20280</t>
-        </is>
-      </c>
-      <c r="AQ54" t="inlineStr">
-        <is>
-          <t>GJ 131</t>
-        </is>
-      </c>
-      <c r="AR54" t="inlineStr">
-        <is>
-          <t>15095</t>
-        </is>
-      </c>
-      <c r="AS54" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU54" t="n">
-        <v>1.953543939316974</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>18.67265068138592</v>
-      </c>
-      <c r="AW54" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9968,15 +8810,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT55" t="n">
+        <v>2.216291768419251</v>
+      </c>
       <c r="AU55" t="n">
-        <v>2.216291768419251</v>
-      </c>
-      <c r="AV55" t="n">
         <v>3.638438981826665</v>
       </c>
-      <c r="AW55" t="inlineStr">
-        <is>
-          <t>Brightest</t>
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -10138,15 +8980,15 @@
           <t>EclBin</t>
         </is>
       </c>
+      <c r="AT56" t="n">
+        <v>1.252485750795232</v>
+      </c>
       <c r="AU56" t="n">
-        <v>1.252485750795232</v>
-      </c>
-      <c r="AV56" t="n">
         <v>15.04871165248797</v>
       </c>
-      <c r="AW56" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10313,15 +9155,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT57" t="n">
+        <v>1.702394448792871</v>
+      </c>
       <c r="AU57" t="n">
-        <v>1.702394448792871</v>
-      </c>
-      <c r="AV57" t="n">
         <v>17.68128750509605</v>
       </c>
-      <c r="AW57" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -10395,92 +9237,6 @@
           <t>4072260704719970944</t>
         </is>
       </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>4072260704719970944</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>4072260704719970944</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>4072260704719970944</t>
-        </is>
-      </c>
-      <c r="Z58" t="n">
-        <v>282.587477867388</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>-26.92373729815386</v>
-      </c>
-      <c r="AB58" t="n">
-        <v>9.67037747138977</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>9.050765991210938</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>9.916899681091309</v>
-      </c>
-      <c r="AE58" t="n">
-        <v>8.136176109313965</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>1.780723571777344</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>56.66021768982383</v>
-      </c>
-      <c r="AH58" t="n">
-        <v>3780</v>
-      </c>
-      <c r="AI58" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ58" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="AK58" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="AL58" t="n">
-        <v>0.4190619018868291</v>
-      </c>
-      <c r="AM58" t="n">
-        <v>0.3330449041784046</v>
-      </c>
-      <c r="AN58" t="n">
-        <v>1.867779189947706</v>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AR58" t="inlineStr">
-        <is>
-          <t>92444</t>
-        </is>
-      </c>
-      <c r="AS58" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU58" t="n">
-        <v>0.7087251445485094</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>17.64906738400336</v>
-      </c>
-      <c r="AW58" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -10640,15 +9396,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT59" t="n">
+        <v>1.566652800021061</v>
+      </c>
       <c r="AU59" t="n">
-        <v>1.566652800021061</v>
-      </c>
-      <c r="AV59" t="n">
         <v>17.68739743596811</v>
       </c>
-      <c r="AW59" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -10728,102 +9484,6 @@
           <t>4111366313257506560</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>4111366313257506560</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>4111366313257506560</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>4111366313257506560</t>
-        </is>
-      </c>
-      <c r="Z60" t="n">
-        <v>262.2759143258954</v>
-      </c>
-      <c r="AA60" t="n">
-        <v>-23.83643565047791</v>
-      </c>
-      <c r="AB60" t="n">
-        <v>9.582686301946641</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>9.06427001953125</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>9.824929237365723</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>8.216133117675781</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>1.608796119689941</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>54.36675345788812</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>4108.1836</v>
-      </c>
-      <c r="AI60" t="n">
-        <v>0.63693863</v>
-      </c>
-      <c r="AJ60" t="n">
-        <v>0.08764215</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>0.5844045</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>0.312766704585708</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>0.4239206135824281</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>2.116175820186592</v>
-      </c>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP60" t="inlineStr">
-        <is>
-          <t>HD 158233</t>
-        </is>
-      </c>
-      <c r="AQ60" t="inlineStr">
-        <is>
-          <t>GJ 4008</t>
-        </is>
-      </c>
-      <c r="AR60" t="inlineStr">
-        <is>
-          <t>85561</t>
-        </is>
-      </c>
-      <c r="AS60" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU60" t="n">
-        <v>3.191221396749432</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>18.39359418021142</v>
-      </c>
-      <c r="AW60" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -10895,102 +9555,6 @@
           <t>4843073709303881728</t>
         </is>
       </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>4843073709303881728</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>4843073709303881728</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>4843073709303881728</t>
-        </is>
-      </c>
-      <c r="Z61" t="n">
-        <v>59.15194648780565</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>-41.3431573010344</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>8.834761856145859</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>8.376395225524902</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>9.074453353881836</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>7.56816577911377</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>1.506287574768066</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>56.93518463192297</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>4336.919</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>0.672662</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>0.14044195</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>0.6694981</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>0.3932234203104373</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>0.3230788704383446</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>1.858379847004002</v>
-      </c>
-      <c r="AO61" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP61" t="inlineStr">
-        <is>
-          <t>HD  25004</t>
-        </is>
-      </c>
-      <c r="AQ61" t="inlineStr">
-        <is>
-          <t>GJ 1066</t>
-        </is>
-      </c>
-      <c r="AR61" t="inlineStr">
-        <is>
-          <t>18450</t>
-        </is>
-      </c>
-      <c r="AS61" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU61" t="n">
-        <v>2.241552152343242</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>17.56383168799474</v>
-      </c>
-      <c r="AW61" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -11145,15 +9709,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT62" t="n">
+        <v>1.603459718691285</v>
+      </c>
       <c r="AU62" t="n">
-        <v>1.603459718691285</v>
-      </c>
-      <c r="AV62" t="n">
         <v>7.228567098899183</v>
       </c>
-      <c r="AW62" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11315,13 +9879,13 @@
           <t>**</t>
         </is>
       </c>
+      <c r="AT63" t="n">
+        <v>0.9941371187539264</v>
+      </c>
       <c r="AU63" t="n">
-        <v>0.9941371187539264</v>
-      </c>
-      <c r="AV63" t="n">
         <v>12.03939579583873</v>
       </c>
-      <c r="AW63" t="inlineStr">
+      <c r="AV63" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -11485,15 +10049,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT64" t="n">
+        <v>1.055039360931723</v>
+      </c>
       <c r="AU64" t="n">
-        <v>1.055039360931723</v>
-      </c>
-      <c r="AV64" t="n">
         <v>17.55481503082285</v>
       </c>
-      <c r="AW64" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11660,13 +10224,13 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT65" t="n">
+        <v>0.9403060490214101</v>
+      </c>
       <c r="AU65" t="n">
-        <v>0.9403060490214101</v>
-      </c>
-      <c r="AV65" t="n">
         <v>14.136843884035</v>
       </c>
-      <c r="AW65" t="inlineStr">
+      <c r="AV65" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -11827,15 +10391,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT66" t="n">
+        <v>1.333250845514523</v>
+      </c>
       <c r="AU66" t="n">
-        <v>1.333250845514523</v>
-      </c>
-      <c r="AV66" t="n">
         <v>15.771242532647</v>
       </c>
-      <c r="AW66" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11997,15 +10561,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT67" t="n">
+        <v>2.026252168653316</v>
+      </c>
       <c r="AU67" t="n">
-        <v>2.026252168653316</v>
-      </c>
-      <c r="AV67" t="n">
         <v>18.2083349278885</v>
       </c>
-      <c r="AW67" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV67" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -12082,102 +10646,6 @@
           <t>3498481592531208576</t>
         </is>
       </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>3498481592531208576</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>3498481592531208576</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>3498481592531208576</t>
-        </is>
-      </c>
-      <c r="Z68" t="n">
-        <v>192.0400474542226</v>
-      </c>
-      <c r="AA68" t="n">
-        <v>-24.80394386396552</v>
-      </c>
-      <c r="AB68" t="n">
-        <v>9.903611348943711</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>9.304690361022949</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>10.14919948577881</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>8.406003952026367</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>1.743195533752441</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>53.39872999671822</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>3973.937</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>0.59998924</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>0.07866455999999999</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>0.5917184</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>0.2973165950806304</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>0.4533946297083031</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>2.141736311873126</v>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP68" t="inlineStr">
-        <is>
-          <t>HD 111261B</t>
-        </is>
-      </c>
-      <c r="AQ68" t="inlineStr">
-        <is>
-          <t>GJ 1164 B</t>
-        </is>
-      </c>
-      <c r="AR68" t="inlineStr">
-        <is>
-          <t>62471</t>
-        </is>
-      </c>
-      <c r="AS68" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU68" t="n">
-        <v>2.895997877367483</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>18.72703714229642</v>
-      </c>
-      <c r="AW68" t="inlineStr">
-        <is>
-          <t>Dimmest</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -12255,97 +10723,6 @@
           <t>6260386975385254656</t>
         </is>
       </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>6260386975385254656</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>6260386975385254656</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>6260386975385254656</t>
-        </is>
-      </c>
-      <c r="Z69" t="n">
-        <v>235.1447950075073</v>
-      </c>
-      <c r="AA69" t="n">
-        <v>-18.04862887919031</v>
-      </c>
-      <c r="AB69" t="n">
-        <v>8.889188472819328</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>8.362634658813477</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>9.131756782531738</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>7.509888172149658</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>1.62186861038208</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>64.18253335778927</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>4101.4546</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>0.6586084</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>0.12352164</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>0.6961553700000001</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>0.3713759460688757</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>0.3070159535824746</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>1.69820117765091</v>
-      </c>
-      <c r="AO69" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP69" t="inlineStr">
-        <is>
-          <t>HD 139763</t>
-        </is>
-      </c>
-      <c r="AR69" t="inlineStr">
-        <is>
-          <t>76779</t>
-        </is>
-      </c>
-      <c r="AS69" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU69" t="n">
-        <v>1.95212998726749</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>15.58056293018915</v>
-      </c>
-      <c r="AW69" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -12505,15 +10882,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT70" t="n">
+        <v>0.659625634182931</v>
+      </c>
       <c r="AU70" t="n">
-        <v>0.659625634182931</v>
-      </c>
-      <c r="AV70" t="n">
         <v>14.6168504480454</v>
       </c>
-      <c r="AW70" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV70" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -12675,15 +11052,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT71" t="n">
+        <v>1.717218532617633</v>
+      </c>
       <c r="AU71" t="n">
-        <v>1.717218532617633</v>
-      </c>
-      <c r="AV71" t="n">
         <v>11.44526772917466</v>
       </c>
-      <c r="AW71" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV71" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -12848,15 +11225,15 @@
           <t>Eruptive*</t>
         </is>
       </c>
+      <c r="AT72" t="n">
+        <v>1.865432587008721</v>
+      </c>
       <c r="AU72" t="n">
-        <v>1.865432587008721</v>
-      </c>
-      <c r="AV72" t="n">
         <v>15.28440035086513</v>
       </c>
-      <c r="AW72" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV72" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -13021,15 +11398,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT73" t="n">
+        <v>1.384748027353553</v>
+      </c>
       <c r="AU73" t="n">
-        <v>1.384748027353553</v>
-      </c>
-      <c r="AV73" t="n">
         <v>8.843964761225756</v>
       </c>
-      <c r="AW73" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV73" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13194,15 +11571,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT74" t="n">
+        <v>1.747532432148586</v>
+      </c>
       <c r="AU74" t="n">
-        <v>1.747532432148586</v>
-      </c>
-      <c r="AV74" t="n">
         <v>7.601527372616974</v>
       </c>
-      <c r="AW74" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV74" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13364,15 +11741,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT75" t="n">
+        <v>1.854344319993111</v>
+      </c>
       <c r="AU75" t="n">
-        <v>1.854344319993111</v>
-      </c>
-      <c r="AV75" t="n">
         <v>17.65498702978585</v>
       </c>
-      <c r="AW75" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV75" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -13534,15 +11911,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT76" t="n">
+        <v>1.219684522050477</v>
+      </c>
       <c r="AU76" t="n">
-        <v>1.219684522050477</v>
-      </c>
-      <c r="AV76" t="n">
         <v>15.21037582946627</v>
       </c>
-      <c r="AW76" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV76" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -13704,13 +12081,13 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT77" t="n">
+        <v>0.94254112753729</v>
+      </c>
       <c r="AU77" t="n">
-        <v>0.94254112753729</v>
-      </c>
-      <c r="AV77" t="n">
         <v>13.23996519741542</v>
       </c>
-      <c r="AW77" t="inlineStr">
+      <c r="AV77" t="inlineStr">
         <is>
           <t>Bright</t>
         </is>
@@ -13871,15 +12248,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT78" t="n">
+        <v>1.953362366508123</v>
+      </c>
       <c r="AU78" t="n">
-        <v>1.953362366508123</v>
-      </c>
-      <c r="AV78" t="n">
         <v>7.435229060298576</v>
       </c>
-      <c r="AW78" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV78" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14044,15 +12421,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT79" t="n">
+        <v>2.138539647024254</v>
+      </c>
       <c r="AU79" t="n">
-        <v>2.138539647024254</v>
-      </c>
-      <c r="AV79" t="n">
         <v>13.20790661666426</v>
       </c>
-      <c r="AW79" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
+      <c r="AV79" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -14209,15 +12586,15 @@
           <t>**</t>
         </is>
       </c>
+      <c r="AT80" t="n">
+        <v>4.095590407139206</v>
+      </c>
       <c r="AU80" t="n">
-        <v>4.095590407139206</v>
-      </c>
-      <c r="AV80" t="n">
         <v>15.20673823569016</v>
       </c>
-      <c r="AW80" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV80" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -14297,102 +12674,6 @@
           <t>2395031273585836288</t>
         </is>
       </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>2395031273585836288</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>2395031273585836288</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>2395031273585836288</t>
-        </is>
-      </c>
-      <c r="Z81" t="n">
-        <v>353.2074101827482</v>
-      </c>
-      <c r="AA81" t="n">
-        <v>-16.84661852217994</v>
-      </c>
-      <c r="AB81" t="n">
-        <v>8.587043935575485</v>
-      </c>
-      <c r="AC81" t="n">
-        <v>8.085914611816406</v>
-      </c>
-      <c r="AD81" t="n">
-        <v>8.828512191772461</v>
-      </c>
-      <c r="AE81" t="n">
-        <v>7.250840187072754</v>
-      </c>
-      <c r="AF81" t="n">
-        <v>1.577672004699707</v>
-      </c>
-      <c r="AG81" t="n">
-        <v>68.73564590379422</v>
-      </c>
-      <c r="AH81" t="n">
-        <v>4066.7944</v>
-      </c>
-      <c r="AI81" t="n">
-        <v>0.6749642</v>
-      </c>
-      <c r="AJ81" t="n">
-        <v>0.13573194</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>0.7526889</v>
-      </c>
-      <c r="AL81" t="n">
-        <v>0.3896531512744821</v>
-      </c>
-      <c r="AM81" t="n">
-        <v>0.2623562655211376</v>
-      </c>
-      <c r="AN81" t="n">
-        <v>1.504798516942306</v>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP81" t="inlineStr">
-        <is>
-          <t>HD 221503</t>
-        </is>
-      </c>
-      <c r="AQ81" t="inlineStr">
-        <is>
-          <t>GJ 898</t>
-        </is>
-      </c>
-      <c r="AR81" t="inlineStr">
-        <is>
-          <t>116215</t>
-        </is>
-      </c>
-      <c r="AS81" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU81" t="n">
-        <v>1.582829748692533</v>
-      </c>
-      <c r="AV81" t="n">
-        <v>14.54849207934481</v>
-      </c>
-      <c r="AW81" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -14632,15 +12913,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT83" t="n">
+        <v>1.584025803819568</v>
+      </c>
       <c r="AU83" t="n">
-        <v>1.584025803819568</v>
-      </c>
-      <c r="AV83" t="n">
         <v>12.92827044128057</v>
       </c>
-      <c r="AW83" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV83" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -14794,6 +13075,102 @@
           <t>704967037090946688</t>
         </is>
       </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>704967037090946688</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>704967037090946688</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>704967037090946688</t>
+        </is>
+      </c>
+      <c r="Z85" t="n">
+        <v>133.146760620834</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>28.3297830003627</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>5.928375293149948</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>5.732680797576904</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>6.155681133270264</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>5.147009372711182</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.008671760559082</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>79.44818375718161</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>5184.4775</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>0.6048682</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>0.92796665</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0.7859231827122458</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>0.09642394740613273</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.047302508265534</v>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="AP85" t="inlineStr">
+        <is>
+          <t>HD  75732</t>
+        </is>
+      </c>
+      <c r="AQ85" t="inlineStr">
+        <is>
+          <t>GJ 324 A</t>
+        </is>
+      </c>
+      <c r="AR85" t="inlineStr">
+        <is>
+          <t>43587</t>
+        </is>
+      </c>
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.501703318933316</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>12.58682014753555</v>
+      </c>
+      <c r="AV85" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14953,15 +13330,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT86" t="n">
+        <v>1.630200033813258</v>
+      </c>
       <c r="AU86" t="n">
-        <v>1.630200033813258</v>
-      </c>
-      <c r="AV86" t="n">
         <v>16.81223174833525</v>
       </c>
-      <c r="AW86" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV86" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15038,97 +13415,6 @@
           <t>4805806449875760384</t>
         </is>
       </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>4805806449875760384</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>4805806449875760384</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>4805806449875760384</t>
-        </is>
-      </c>
-      <c r="Z87" t="n">
-        <v>82.55855476960322</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>-42.69796597525414</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>9.68979214331627</v>
-      </c>
-      <c r="AC87" t="n">
-        <v>9.101789474487305</v>
-      </c>
-      <c r="AD87" t="n">
-        <v>9.934929847717285</v>
-      </c>
-      <c r="AE87" t="n">
-        <v>8.209831237792969</v>
-      </c>
-      <c r="AF87" t="n">
-        <v>1.725098609924316</v>
-      </c>
-      <c r="AG87" t="n">
-        <v>52.19632472037114</v>
-      </c>
-      <c r="AH87" t="n">
-        <v>4000.1545</v>
-      </c>
-      <c r="AI87" t="n">
-        <v>0.63111806</v>
-      </c>
-      <c r="AJ87" t="n">
-        <v>0.09948211999999999</v>
-      </c>
-      <c r="AK87" t="n">
-        <v>0.65671146</v>
-      </c>
-      <c r="AL87" t="n">
-        <v>0.3341422746926936</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>0.4185498602889894</v>
-      </c>
-      <c r="AN87" t="n">
-        <v>2.149692954629578</v>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP87" t="inlineStr">
-        <is>
-          <t>HD 274255</t>
-        </is>
-      </c>
-      <c r="AR87" t="inlineStr">
-        <is>
-          <t>25775</t>
-        </is>
-      </c>
-      <c r="AS87" t="inlineStr">
-        <is>
-          <t>BYDraV*_Candidate</t>
-        </is>
-      </c>
-      <c r="AU87" t="n">
-        <v>2.228367536626836</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>19.15843702324353</v>
-      </c>
-      <c r="AW87" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -15288,15 +13574,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT88" t="n">
+        <v>1.75728268109685</v>
+      </c>
       <c r="AU88" t="n">
-        <v>1.75728268109685</v>
-      </c>
-      <c r="AV88" t="n">
         <v>12.93223839703444</v>
       </c>
-      <c r="AW88" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV88" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -15458,15 +13744,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT89" t="n">
+        <v>1.15004501453396</v>
+      </c>
       <c r="AU89" t="n">
-        <v>1.15004501453396</v>
-      </c>
-      <c r="AV89" t="n">
         <v>18.34013046861489</v>
       </c>
-      <c r="AW89" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV89" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -15623,15 +13909,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT90" t="n">
+        <v>1.185166893634851</v>
+      </c>
       <c r="AU90" t="n">
-        <v>1.185166893634851</v>
-      </c>
-      <c r="AV90" t="n">
         <v>14.79273794856554</v>
       </c>
-      <c r="AW90" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV90" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15793,15 +14079,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT91" t="n">
+        <v>1.844836198763456</v>
+      </c>
       <c r="AU91" t="n">
-        <v>1.844836198763456</v>
-      </c>
-      <c r="AV91" t="n">
         <v>12.16426728699849</v>
       </c>
-      <c r="AW91" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV91" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15966,15 +14252,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT92" t="n">
+        <v>1.450416803044171</v>
+      </c>
       <c r="AU92" t="n">
-        <v>1.450416803044171</v>
-      </c>
-      <c r="AV92" t="n">
         <v>17.30031548819083</v>
       </c>
-      <c r="AW92" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV92" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16136,15 +14422,15 @@
           <t>RSCVnV*</t>
         </is>
       </c>
+      <c r="AT93" t="n">
+        <v>1.297074282976997</v>
+      </c>
       <c r="AU93" t="n">
-        <v>1.297074282976997</v>
-      </c>
-      <c r="AV93" t="n">
         <v>10.36054259710993</v>
       </c>
-      <c r="AW93" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV93" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -16309,15 +14595,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT94" t="n">
+        <v>0.7764721183421155</v>
+      </c>
       <c r="AU94" t="n">
-        <v>0.7764721183421155</v>
-      </c>
-      <c r="AV94" t="n">
         <v>18.26943818519626</v>
       </c>
-      <c r="AW94" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV94" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -16479,15 +14765,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT95" t="n">
+        <v>2.324699077934539</v>
+      </c>
       <c r="AU95" t="n">
-        <v>2.324699077934539</v>
-      </c>
-      <c r="AV95" t="n">
         <v>13.59651784149522</v>
       </c>
-      <c r="AW95" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV95" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16649,15 +14935,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT96" t="n">
+        <v>1.848206256583958</v>
+      </c>
       <c r="AU96" t="n">
-        <v>1.848206256583958</v>
-      </c>
-      <c r="AV96" t="n">
         <v>14.82647987202467</v>
       </c>
-      <c r="AW96" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV96" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16819,15 +15105,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT97" t="n">
+        <v>1.642855324617889</v>
+      </c>
       <c r="AU97" t="n">
-        <v>1.642855324617889</v>
-      </c>
-      <c r="AV97" t="n">
         <v>16.18810659335618</v>
       </c>
-      <c r="AW97" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV97" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16904,102 +15190,6 @@
           <t>6866310172545095424</t>
         </is>
       </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>6866310172545095424</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>6866310172545095424</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>6866310172545095424</t>
-        </is>
-      </c>
-      <c r="Z98" t="n">
-        <v>302.5795144151588</v>
-      </c>
-      <c r="AA98" t="n">
-        <v>-20.4950698499972</v>
-      </c>
-      <c r="AB98" t="n">
-        <v>8.888467973728179</v>
-      </c>
-      <c r="AC98" t="n">
-        <v>8.386856079101562</v>
-      </c>
-      <c r="AD98" t="n">
-        <v>9.130548477172852</v>
-      </c>
-      <c r="AE98" t="n">
-        <v>7.528278350830078</v>
-      </c>
-      <c r="AF98" t="n">
-        <v>1.602270126342773</v>
-      </c>
-      <c r="AG98" t="n">
-        <v>63.20742001816341</v>
-      </c>
-      <c r="AH98" t="n">
-        <v>4124.9</v>
-      </c>
-      <c r="AI98" t="n">
-        <v>0.6622315600000001</v>
-      </c>
-      <c r="AJ98" t="n">
-        <v>0.12293527</v>
-      </c>
-      <c r="AK98" t="n">
-        <v>0.7342213</v>
-      </c>
-      <c r="AL98" t="n">
-        <v>0.3702590183811431</v>
-      </c>
-      <c r="AM98" t="n">
-        <v>0.3103460500167974</v>
-      </c>
-      <c r="AN98" t="n">
-        <v>1.718745875167374</v>
-      </c>
-      <c r="AO98" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP98" t="inlineStr">
-        <is>
-          <t>HD 191391</t>
-        </is>
-      </c>
-      <c r="AQ98" t="inlineStr">
-        <is>
-          <t>GJ 782</t>
-        </is>
-      </c>
-      <c r="AR98" t="inlineStr">
-        <is>
-          <t>99385</t>
-        </is>
-      </c>
-      <c r="AS98" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU98" t="n">
-        <v>1.673127109034097</v>
-      </c>
-      <c r="AV98" t="n">
-        <v>15.82092734860303</v>
-      </c>
-      <c r="AW98" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -17162,15 +15352,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT99" t="n">
+        <v>3.335030171081395</v>
+      </c>
       <c r="AU99" t="n">
-        <v>3.335030171081395</v>
-      </c>
-      <c r="AV99" t="n">
         <v>11.81992438968151</v>
       </c>
-      <c r="AW99" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV99" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -17332,15 +15522,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT100" t="n">
+        <v>2.167672195328044</v>
+      </c>
       <c r="AU100" t="n">
-        <v>2.167672195328044</v>
-      </c>
-      <c r="AV100" t="n">
         <v>13.72611351927495</v>
       </c>
-      <c r="AW100" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV100" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -17414,102 +15604,6 @@
           <t>4270814637616488064</t>
         </is>
       </c>
-      <c r="W101" t="inlineStr">
-        <is>
-          <t>4270814637616488064</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>4270814637616488064</t>
-        </is>
-      </c>
-      <c r="Y101" t="inlineStr">
-        <is>
-          <t>4270814637616488064</t>
-        </is>
-      </c>
-      <c r="Z101" t="n">
-        <v>274.9618362969113</v>
-      </c>
-      <c r="AA101" t="n">
-        <v>-1.938612759804832</v>
-      </c>
-      <c r="AB101" t="n">
-        <v>9.632092778863907</v>
-      </c>
-      <c r="AC101" t="n">
-        <v>9.063088417053223</v>
-      </c>
-      <c r="AD101" t="n">
-        <v>9.876449584960938</v>
-      </c>
-      <c r="AE101" t="n">
-        <v>8.182724952697754</v>
-      </c>
-      <c r="AF101" t="n">
-        <v>1.693724632263184</v>
-      </c>
-      <c r="AG101" t="n">
-        <v>52.39629220529056</v>
-      </c>
-      <c r="AH101" t="n">
-        <v>4205</v>
-      </c>
-      <c r="AI101" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ101" t="n">
-        <v>0.102434</v>
-      </c>
-      <c r="AK101" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="AL101" t="n">
-        <v>0.3372117479355314</v>
-      </c>
-      <c r="AM101" t="n">
-        <v>0.4512559326716648</v>
-      </c>
-      <c r="AN101" t="n">
-        <v>2.270169891124356</v>
-      </c>
-      <c r="AO101" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP101" t="inlineStr">
-        <is>
-          <t>HD 168442</t>
-        </is>
-      </c>
-      <c r="AQ101" t="inlineStr">
-        <is>
-          <t>GJ 710</t>
-        </is>
-      </c>
-      <c r="AR101" t="inlineStr">
-        <is>
-          <t>89825</t>
-        </is>
-      </c>
-      <c r="AS101" t="inlineStr">
-        <is>
-          <t>Variable*</t>
-        </is>
-      </c>
-      <c r="AU101" t="n">
-        <v>0.6635472110517399</v>
-      </c>
-      <c r="AV101" t="n">
-        <v>19.08531993221894</v>
-      </c>
-      <c r="AW101" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -17669,15 +15763,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT102" t="n">
+        <v>1.25015691391364</v>
+      </c>
       <c r="AU102" t="n">
-        <v>1.25015691391364</v>
-      </c>
-      <c r="AV102" t="n">
         <v>9.893947947441871</v>
       </c>
-      <c r="AW102" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV102" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -17754,97 +15848,6 @@
           <t>4819591920506512768</t>
         </is>
       </c>
-      <c r="W103" t="inlineStr">
-        <is>
-          <t>4819591920506512768</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>4819591920506512768</t>
-        </is>
-      </c>
-      <c r="Y103" t="inlineStr">
-        <is>
-          <t>4819591920506512768</t>
-        </is>
-      </c>
-      <c r="Z103" t="n">
-        <v>81.12595314463759</v>
-      </c>
-      <c r="AA103" t="n">
-        <v>-38.96990653268172</v>
-      </c>
-      <c r="AB103" t="n">
-        <v>9.031418509688377</v>
-      </c>
-      <c r="AC103" t="n">
-        <v>8.539438247680664</v>
-      </c>
-      <c r="AD103" t="n">
-        <v>9.272552490234375</v>
-      </c>
-      <c r="AE103" t="n">
-        <v>7.708310604095459</v>
-      </c>
-      <c r="AF103" t="n">
-        <v>1.564241886138916</v>
-      </c>
-      <c r="AG103" t="n">
-        <v>57.27060617763743</v>
-      </c>
-      <c r="AH103" t="n">
-        <v>4265.911</v>
-      </c>
-      <c r="AI103" t="n">
-        <v>0.670469</v>
-      </c>
-      <c r="AJ103" t="n">
-        <v>0.12170362</v>
-      </c>
-      <c r="AK103" t="n">
-        <v>0.6386978</v>
-      </c>
-      <c r="AL103" t="n">
-        <v>0.3668865106019408</v>
-      </c>
-      <c r="AM103" t="n">
-        <v>0.3485261764443434</v>
-      </c>
-      <c r="AN103" t="n">
-        <v>1.933296656800961</v>
-      </c>
-      <c r="AO103" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP103" t="inlineStr">
-        <is>
-          <t>HD  35650</t>
-        </is>
-      </c>
-      <c r="AR103" t="inlineStr">
-        <is>
-          <t>25283</t>
-        </is>
-      </c>
-      <c r="AS103" t="inlineStr">
-        <is>
-          <t>RotV*</t>
-        </is>
-      </c>
-      <c r="AU103" t="n">
-        <v>2.573311979644731</v>
-      </c>
-      <c r="AV103" t="n">
-        <v>17.46096412701272</v>
-      </c>
-      <c r="AW103" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -18004,15 +16007,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT104" t="n">
+        <v>1.480664521061823</v>
+      </c>
       <c r="AU104" t="n">
-        <v>1.480664521061823</v>
-      </c>
-      <c r="AV104" t="n">
         <v>19.77580196500298</v>
       </c>
-      <c r="AW104" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV104" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -18169,15 +16172,15 @@
           <t>BYDraV*</t>
         </is>
       </c>
+      <c r="AT105" t="n">
+        <v>1.392699324365376</v>
+      </c>
       <c r="AU105" t="n">
-        <v>1.392699324365376</v>
-      </c>
-      <c r="AV105" t="n">
         <v>19.6296874213325</v>
       </c>
-      <c r="AW105" t="inlineStr">
-        <is>
-          <t>Dim</t>
+      <c r="AV105" t="inlineStr">
+        <is>
+          <t>Dimmest</t>
         </is>
       </c>
     </row>
@@ -18341,15 +16344,15 @@
           <t>RSCVnV*</t>
         </is>
       </c>
+      <c r="AT106" t="n">
+        <v>1.185370263578394</v>
+      </c>
       <c r="AU106" t="n">
-        <v>1.185370263578394</v>
-      </c>
-      <c r="AV106" t="n">
         <v>18.59937001542844</v>
       </c>
-      <c r="AW106" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV106" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -18426,102 +16429,6 @@
           <t>6508401923473282432</t>
         </is>
       </c>
-      <c r="W107" t="inlineStr">
-        <is>
-          <t>6508401923473282432</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>6508401923473282432</t>
-        </is>
-      </c>
-      <c r="Y107" t="inlineStr">
-        <is>
-          <t>6508401923473282432</t>
-        </is>
-      </c>
-      <c r="Z107" t="n">
-        <v>335.5661138004264</v>
-      </c>
-      <c r="AA107" t="n">
-        <v>-54.5595680078303</v>
-      </c>
-      <c r="AB107" t="n">
-        <v>8.960261054987907</v>
-      </c>
-      <c r="AC107" t="n">
-        <v>8.409995079040527</v>
-      </c>
-      <c r="AD107" t="n">
-        <v>9.203866004943848</v>
-      </c>
-      <c r="AE107" t="n">
-        <v>7.540348529815674</v>
-      </c>
-      <c r="AF107" t="n">
-        <v>1.663517475128174</v>
-      </c>
-      <c r="AG107" t="n">
-        <v>76.15946505307657</v>
-      </c>
-      <c r="AH107" t="n">
-        <v>3920</v>
-      </c>
-      <c r="AI107" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AJ107" t="n">
-        <v>0.187</v>
-      </c>
-      <c r="AK107" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="AL107" t="n">
-        <v>0.4589700401978843</v>
-      </c>
-      <c r="AM107" t="n">
-        <v>0.2811993874321437</v>
-      </c>
-      <c r="AN107" t="n">
-        <v>1.650402802109548</v>
-      </c>
-      <c r="AO107" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="AP107" t="inlineStr">
-        <is>
-          <t>HD 211970</t>
-        </is>
-      </c>
-      <c r="AQ107" t="inlineStr">
-        <is>
-          <t>GJ 1267</t>
-        </is>
-      </c>
-      <c r="AR107" t="inlineStr">
-        <is>
-          <t>110443</t>
-        </is>
-      </c>
-      <c r="AS107" t="inlineStr">
-        <is>
-          <t>HighPM*</t>
-        </is>
-      </c>
-      <c r="AU107" t="n">
-        <v>0.6635472110517399</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>13.13034432822088</v>
-      </c>
-      <c r="AW107" t="inlineStr">
-        <is>
-          <t>Dimmer</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -18681,15 +16588,15 @@
           <t>HighPM*</t>
         </is>
       </c>
+      <c r="AT108" t="n">
+        <v>2.202675635122268</v>
+      </c>
       <c r="AU108" t="n">
-        <v>2.202675635122268</v>
-      </c>
-      <c r="AV108" t="n">
         <v>10.76135042939101</v>
       </c>
-      <c r="AW108" t="inlineStr">
-        <is>
-          <t>Bright</t>
+      <c r="AV108" t="inlineStr">
+        <is>
+          <t>Dim</t>
         </is>
       </c>
     </row>

--- a/results/merged_result_MJ_with_properties.xlsx
+++ b/results/merged_result_MJ_with_properties.xlsx
@@ -481,7 +481,7 @@
     <col width="23" customWidth="1" min="42" max="42"/>
     <col width="30" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
-    <col width="13" customWidth="1" min="45" max="45"/>
+    <col width="19" customWidth="1" min="45" max="45"/>
     <col width="22" customWidth="1" min="46" max="46"/>
     <col width="19" customWidth="1" min="47" max="47"/>
     <col width="13" customWidth="1" min="48" max="48"/>
@@ -895,7 +895,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -1835,29 +1835,34 @@
           <t>5630532113072532736</t>
         </is>
       </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>5630532113072532736</t>
+        </is>
+      </c>
       <c r="Z8" t="n">
-        <v>142.6166899241985</v>
+        <v>142.6166788918856</v>
       </c>
       <c r="AA8" t="n">
-        <v>-32.10205002423861</v>
+        <v>-32.10200628852181</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.32715599093914</v>
+        <v>8.306259956345558</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.993447303771973</v>
+        <v>8.002314567565918</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.560214042663574</v>
+        <v>8.539155006408691</v>
       </c>
       <c r="AE8" t="n">
-        <v>7.320436954498291</v>
+        <v>7.30592679977417</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.239777088165283</v>
+        <v>1.233228206634521</v>
       </c>
       <c r="AG8" t="n">
-        <v>50.93645103359646</v>
+        <v>50.9426573151017</v>
       </c>
       <c r="AH8" t="n">
         <v>4576.884</v>
@@ -1875,10 +1880,10 @@
         <v>0.490707367225516</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.2563593581410618</v>
+        <v>0.2539042489581328</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.709220756196676</v>
+        <v>1.692851787552183</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
@@ -1909,11 +1914,11 @@
         <v>1.621604673108436</v>
       </c>
       <c r="AU8" t="n">
-        <v>19.6323061326048</v>
+        <v>19.62991435281008</v>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2091,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2261,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2434,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -2508,6 +2513,102 @@
           <t>6080301367488384896</t>
         </is>
       </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>6080301367488384896</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>6080301367488384896</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>6080301367488384896</t>
+        </is>
+      </c>
+      <c r="Z12" t="n">
+        <v>196.2337538641043</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-52.4464606454391</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>9.038844431605339</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.445794105529785</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.284271240234375</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>7.547557353973389</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.736713886260986</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>61.3202021352086</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>3640</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.1310105</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.7293058</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.3862192906125948</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.2029069987476966</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.997255190854221</v>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>HD 113538</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>GJ 9425, GJ 496.1</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>63833</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT12" t="n">
+        <v>1.288964635557539</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>16.30783926307092</v>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2678,7 +2779,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2848,7 +2949,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -3018,7 +3119,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3289,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -3268,6 +3369,102 @@
           <t>4706630501049679744</t>
         </is>
       </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>4706630501049679744</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>4706630501049679744</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>4706630501049679744</t>
+        </is>
+      </c>
+      <c r="Z17" t="n">
+        <v>1.322328801511178</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-67.83508132890724</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>8.455076312074661</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.091019630432129</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8.690603256225586</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>7.35163402557373</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.338969230651855</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>61.00639982208859</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>4398.7754</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.7053809</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.14590912</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.63571703</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.3999643383147214</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.2729440123358245</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1.621449951999693</v>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>HD     55</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>GJ 3</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.745567710296219</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>16.39172288343968</v>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3443,7 +3640,7 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -3520,6 +3717,102 @@
           <t>6471497502884511232</t>
         </is>
       </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>6471497502884511232</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>6471497502884511232</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>6471497502884511232</t>
+        </is>
+      </c>
+      <c r="Z19" t="n">
+        <v>310.5788689173076</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-52.70400747589355</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>8.804230053181648</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.240460395812988</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>9.048484802246094</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>7.358860492706299</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>1.689624309539795</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>81.02792076812638</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>3917.272</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.61094534</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.08590003</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.6361759299999999</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.3110902437816222</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.261076460238167</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>1.27297373505892</v>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>HD 196877</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>GJ 798.0, GJ 798</t>
+        </is>
+      </c>
+      <c r="AR19" t="inlineStr">
+        <is>
+          <t>102186</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.3728520291368</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>12.34142491279828</v>
+      </c>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3690,7 +3983,7 @@
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -3775,6 +4068,102 @@
           <t>6669657123437047424</t>
         </is>
       </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>6669657123437047424</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>6669657123437047424</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>6669657123437047424</t>
+        </is>
+      </c>
+      <c r="Z21" t="n">
+        <v>304.9014800275145</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-46.42856921734209</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>8.696639160513877</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8.282655715942383</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8.93438720703125</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>7.506181240081787</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1.428205966949463</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>54.04408367109657</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>4389.5796</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.6886628</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.16172463</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.69715226</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4212175615883222</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.3049162003307058</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1.836727717196075</v>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>HD 192961</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>GJ 787</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>100223</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.032467946890793</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>18.50341299310089</v>
+      </c>
+      <c r="AV21" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3852,6 +4241,102 @@
           <t>4737533237421005952</t>
         </is>
       </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>4737533237421005952</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>4737533237421005952</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>4737533237421005952</t>
+        </is>
+      </c>
+      <c r="Z22" t="n">
+        <v>50.82325574741139</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-49.9907184713681</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.543711507334709</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.192389488220215</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8.778672218322754</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>7.462452411651611</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1.316219806671143</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>51.81551879878727</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>4410</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.74283314</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.17813864</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.67277056</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.4417625331460715</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2844115961768082</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1.822195496765714</v>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>HD  21209A, HD  21209</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>GJ 9115 A, GJ 140.1 A</t>
+        </is>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>15774</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.439441087603737</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>19.29923743277091</v>
+      </c>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3926,6 +4411,102 @@
           <t>5285775539195330560</t>
         </is>
       </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>5285775539195330560</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>5285775539195330560</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>5285775539195330560</t>
+        </is>
+      </c>
+      <c r="Z23" t="n">
+        <v>108.2768913871574</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-63.34238904353339</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9.05973434832096</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.570058822631836</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>9.300670623779297</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>7.744371891021729</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1.556298732757568</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>51.05388225075709</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>4179.2197</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.15366574</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.74814504</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.4133280492459198</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.3434973018235495</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1.913173990332276</v>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>HD  56533</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>GJ 9226, GJ 268.2</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>34890</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT23" t="n">
+        <v>1.43282729890182</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>19.58714902597188</v>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4000,6 +4581,102 @@
           <t>4833654227548585856</t>
         </is>
       </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>4833654227548585856</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>4833654227548585856</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>4833654227548585856</t>
+        </is>
+      </c>
+      <c r="Z24" t="n">
+        <v>53.75662455732397</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-48.41777462792747</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.559503447828293</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.020994186401367</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8.802591323852539</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>7.159848213195801</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.642743110656738</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>73.51988280065039</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>3850</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.6617253</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.1286912</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.7185779</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.3813171613997799</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.218216145001496</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.225959512009539</v>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>HD  22496</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>GJ 146</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>16711</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.783430422381145</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>13.60176270562762</v>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4167,7 +4844,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -4680,7 +5357,7 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -4850,7 +5527,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5015,7 +5692,7 @@
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5865,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5358,7 +6035,7 @@
       </c>
       <c r="AV32" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5526,7 +6203,7 @@
       </c>
       <c r="AV33" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5701,7 +6378,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -5874,7 +6551,7 @@
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6721,7 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6217,7 +6894,7 @@
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -6387,7 +7064,7 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6565,7 +7242,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6645,6 +7322,102 @@
           <t>4258375617747092864</t>
         </is>
       </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>4258375617747092864</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>4258375617747092864</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>4258375617747092864</t>
+        </is>
+      </c>
+      <c r="Z40" t="n">
+        <v>281.8629551175184</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>-3.641055455311226</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>8.786167160444259</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>8.26960277557373</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>9.028376579284668</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>7.420927047729492</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.607449531555176</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>70.13347528858606</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>4022.2102</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.11139318</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.69506925</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.3533903924347861</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.2800848151418651</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.55802133070193</v>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>HD 173818</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>GJ 726</t>
+        </is>
+      </c>
+      <c r="AR40" t="inlineStr">
+        <is>
+          <t>92200</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.084557182793672</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>14.25852627272766</v>
+      </c>
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6815,7 +7588,7 @@
       </c>
       <c r="AV41" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -6985,7 +7758,7 @@
       </c>
       <c r="AV42" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -7062,6 +7835,102 @@
           <t>6832674634380238848</t>
         </is>
       </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>6832674634380238848</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>6832674634380238848</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>6832674634380238848</t>
+        </is>
+      </c>
+      <c r="Z43" t="n">
+        <v>320.0567709913498</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>-19.85548923847976</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9.066298904175758</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.497677803039551</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>9.310630798339844</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>7.617907047271729</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.692723751068115</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>63.38643828104384</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>3939.6514</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.10051212</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.5759601</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.3363424972877731</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.3002265324091725</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.508423193722087</v>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>HD 203040</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>GJ 9736, GJ 826.1</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>105341</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT43" t="n">
+        <v>3.140321084148939</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>15.77624531553869</v>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7229,7 +8098,7 @@
       </c>
       <c r="AV44" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -7564,7 +8433,7 @@
       </c>
       <c r="AV46" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -7819,6 +8688,97 @@
           <t>6335064087152916224</t>
         </is>
       </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>6335064087152916224</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>6335064087152916224</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>6335064087152916224</t>
+        </is>
+      </c>
+      <c r="Z48" t="n">
+        <v>230.5157597977008</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-4.777508623880735</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>9.435870217838287</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8.901265144348145</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>9.678739547729492</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>8.044776916503906</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>1.633962631225586</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>52.21004716861264</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>4093.7727</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0.64730173</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>0.113832116</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>0.7120389</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>0.3565852273888486</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>0.3933991440170905</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>2.11386180640969</v>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>GJ 583</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>75201</t>
+        </is>
+      </c>
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT48" t="n">
+        <v>1.793063235341547</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>19.15340158131814</v>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7989,7 +8949,7 @@
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8066,6 +9026,102 @@
           <t>6313600142709958144</t>
         </is>
       </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>6313600142709958144</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>6313600142709958144</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>6313600142709958144</t>
+        </is>
+      </c>
+      <c r="Z50" t="n">
+        <v>225.1808186516746</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-11.13726849432206</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9.452585903630256</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>8.844958305358887</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>9.698563575744629</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>7.939717769622803</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.758845806121826</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>56.06777131891592</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>3890.9976</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>0.110792436</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>0.764504</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>0.3535030973536811</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>0.3434949446544288</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1.769296033820299</v>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>HD 132683</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>GJ 9507, GJ 571.1</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>73457</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT50" t="n">
+        <v>1.342801953045888</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>17.83555822670312</v>
+      </c>
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8233,7 +9289,7 @@
       </c>
       <c r="AV51" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8406,7 +9462,7 @@
       </c>
       <c r="AV52" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8571,7 +9627,7 @@
       </c>
       <c r="AV53" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -8648,6 +9704,102 @@
           <t>5073448642595674752</t>
         </is>
       </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>5073448642595674752</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>5073448642595674752</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>5073448642595674752</t>
+        </is>
+      </c>
+      <c r="Z54" t="n">
+        <v>48.68701104937745</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-26.44581248850255</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>9.127499003171922</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>8.660046577453613</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>9.367588996887207</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>7.845291137695312</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>1.522297859191895</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>53.55426056338445</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>4130.81</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>0.662613</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>0.12756857</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>0.69739515</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>0.3771107961493197</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>0.347385855302755</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>1.942157721485126</v>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP54" t="inlineStr">
+        <is>
+          <t>HD  20280</t>
+        </is>
+      </c>
+      <c r="AQ54" t="inlineStr">
+        <is>
+          <t>GJ 131</t>
+        </is>
+      </c>
+      <c r="AR54" t="inlineStr">
+        <is>
+          <t>15095</t>
+        </is>
+      </c>
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT54" t="n">
+        <v>1.953543939316974</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>18.67265068138592</v>
+      </c>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8818,7 +9970,7 @@
       </c>
       <c r="AV55" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -8988,7 +10140,7 @@
       </c>
       <c r="AV56" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9163,7 +10315,7 @@
       </c>
       <c r="AV57" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9237,6 +10389,92 @@
           <t>4072260704719970944</t>
         </is>
       </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>4072260704719970944</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>4072260704719970944</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>4072260704719970944</t>
+        </is>
+      </c>
+      <c r="Z58" t="n">
+        <v>282.587477867388</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-26.92373729815386</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>9.67037747138977</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>9.050765991210938</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>9.916899681091309</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>8.136176109313965</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>1.780723571777344</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>56.66021768982383</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>0.4190619018868291</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>0.3330449041784046</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.867779189947706</v>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AR58" t="inlineStr">
+        <is>
+          <t>92444</t>
+        </is>
+      </c>
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT58" t="n">
+        <v>0.7087251445485094</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>17.64906738400336</v>
+      </c>
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9404,7 +10642,7 @@
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9484,6 +10722,102 @@
           <t>4111366313257506560</t>
         </is>
       </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>4111366313257506560</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>4111366313257506560</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>4111366313257506560</t>
+        </is>
+      </c>
+      <c r="Z60" t="n">
+        <v>262.2759143258954</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-23.83643565047791</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>9.582686301946641</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>9.06427001953125</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>9.824929237365723</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>8.216133117675781</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>1.608796119689941</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>54.36675345788812</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>4108.1836</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>0.63693863</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>0.08764215</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>0.5844045</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>0.312766704585708</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>0.4239206135824281</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>2.116175820186592</v>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>HD 158233</t>
+        </is>
+      </c>
+      <c r="AQ60" t="inlineStr">
+        <is>
+          <t>GJ 4008</t>
+        </is>
+      </c>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>85561</t>
+        </is>
+      </c>
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT60" t="n">
+        <v>3.191221396749432</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>18.39359418021142</v>
+      </c>
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9555,6 +10889,102 @@
           <t>4843073709303881728</t>
         </is>
       </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>4843073709303881728</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>4843073709303881728</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>4843073709303881728</t>
+        </is>
+      </c>
+      <c r="Z61" t="n">
+        <v>59.15194648780565</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>-41.3431573010344</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>8.834761856145859</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>8.376395225524902</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>9.074453353881836</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>7.56816577911377</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>1.506287574768066</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>56.93518463192297</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>4336.919</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.672662</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.14044195</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.6694981</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3932234203104373</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3230788704383446</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1.858379847004002</v>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>HD  25004</t>
+        </is>
+      </c>
+      <c r="AQ61" t="inlineStr">
+        <is>
+          <t>GJ 1066</t>
+        </is>
+      </c>
+      <c r="AR61" t="inlineStr">
+        <is>
+          <t>18450</t>
+        </is>
+      </c>
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT61" t="n">
+        <v>2.241552152343242</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>17.56383168799474</v>
+      </c>
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9717,7 +11147,7 @@
       </c>
       <c r="AV62" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -9887,7 +11317,7 @@
       </c>
       <c r="AV63" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -10057,7 +11487,7 @@
       </c>
       <c r="AV64" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -10232,7 +11662,7 @@
       </c>
       <c r="AV65" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -10399,7 +11829,7 @@
       </c>
       <c r="AV66" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -10569,7 +11999,7 @@
       </c>
       <c r="AV67" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10646,6 +12076,102 @@
           <t>3498481592531208576</t>
         </is>
       </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>3498481592531208576</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>3498481592531208576</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>3498481592531208576</t>
+        </is>
+      </c>
+      <c r="Z68" t="n">
+        <v>192.0400474542226</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>-24.80394386396552</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>9.903611348943711</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>9.304690361022949</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>10.14919948577881</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>8.406003952026367</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>1.743195533752441</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>53.39872999671822</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>3973.937</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>0.59998924</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>0.07866455999999999</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>0.5917184</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>0.2973165950806304</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>0.4533946297083031</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>2.141736311873126</v>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>HD 111261B</t>
+        </is>
+      </c>
+      <c r="AQ68" t="inlineStr">
+        <is>
+          <t>GJ 1164 B</t>
+        </is>
+      </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>62471</t>
+        </is>
+      </c>
+      <c r="AS68" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT68" t="n">
+        <v>2.895997877367483</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>18.72703714229642</v>
+      </c>
+      <c r="AV68" t="inlineStr">
+        <is>
+          <t>Dimmer</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10723,6 +12249,97 @@
           <t>6260386975385254656</t>
         </is>
       </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>6260386975385254656</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>6260386975385254656</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>6260386975385254656</t>
+        </is>
+      </c>
+      <c r="Z69" t="n">
+        <v>235.1447950075073</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>-18.04862887919031</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>8.889188472819328</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>8.362634658813477</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>9.131756782531738</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>7.509888172149658</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1.62186861038208</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>64.18253335778927</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>4101.4546</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>0.6586084</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>0.12352164</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>0.6961553700000001</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>0.3713759460688757</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>0.3070159535824746</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.69820117765091</v>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>HD 139763</t>
+        </is>
+      </c>
+      <c r="AR69" t="inlineStr">
+        <is>
+          <t>76779</t>
+        </is>
+      </c>
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT69" t="n">
+        <v>1.95212998726749</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>15.58056293018915</v>
+      </c>
+      <c r="AV69" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10890,7 +12507,7 @@
       </c>
       <c r="AV70" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11060,7 +12677,7 @@
       </c>
       <c r="AV71" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11233,7 +12850,7 @@
       </c>
       <c r="AV72" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11406,7 +13023,7 @@
       </c>
       <c r="AV73" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11579,7 +13196,7 @@
       </c>
       <c r="AV74" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -11749,7 +13366,7 @@
       </c>
       <c r="AV75" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -11919,7 +13536,7 @@
       </c>
       <c r="AV76" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -12089,7 +13706,7 @@
       </c>
       <c r="AV77" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Brightest</t>
         </is>
       </c>
     </row>
@@ -12256,7 +13873,7 @@
       </c>
       <c r="AV78" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -12429,7 +14046,7 @@
       </c>
       <c r="AV79" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -12516,50 +14133,55 @@
           <t>2552288133874677760</t>
         </is>
       </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2552288133874677760</t>
+        </is>
+      </c>
       <c r="Z80" t="n">
-        <v>15.60373575245375</v>
+        <v>15.60377702114439</v>
       </c>
       <c r="AA80" t="n">
-        <v>5.06248962829555</v>
+        <v>5.062519159832716</v>
       </c>
       <c r="AB80" t="n">
-        <v>8.16461388376236</v>
+        <v>8.138711054863929</v>
       </c>
       <c r="AC80" t="n">
-        <v>7.887868881225586</v>
+        <v>8.022833824157715</v>
       </c>
       <c r="AD80" t="n">
-        <v>8.399222373962402</v>
+        <v>8.372888565063477</v>
       </c>
       <c r="AE80" t="n">
-        <v>7.097153663635254</v>
+        <v>7.088135242462158</v>
       </c>
       <c r="AF80" t="n">
-        <v>1.302068710327148</v>
+        <v>1.284753322601318</v>
       </c>
       <c r="AG80" t="n">
-        <v>65.76032180609275</v>
+        <v>44.45961683567542</v>
       </c>
       <c r="AH80" t="n">
-        <v>4753.16</v>
+        <v>4620</v>
       </c>
       <c r="AI80" t="n">
         <v>0.7</v>
       </c>
       <c r="AJ80" t="n">
-        <v>0.14162683</v>
+        <v>0.401</v>
       </c>
       <c r="AK80" t="n">
-        <v>0.5549585</v>
+        <v>1.02</v>
       </c>
       <c r="AL80" t="n">
-        <v>0.3885521458696633</v>
+        <v>0.657532490378953</v>
       </c>
       <c r="AM80" t="n">
-        <v>0.24021713357441</v>
+        <v>0.2356941195577267</v>
       </c>
       <c r="AN80" t="n">
-        <v>1.401151048948318</v>
+        <v>1.788397427293551</v>
       </c>
       <c r="AO80" t="inlineStr">
         <is>
@@ -12587,14 +14209,14 @@
         </is>
       </c>
       <c r="AT80" t="n">
-        <v>4.095590407139206</v>
+        <v>0.659625634182931</v>
       </c>
       <c r="AU80" t="n">
-        <v>15.20673823569016</v>
+        <v>22.49232159818294</v>
       </c>
       <c r="AV80" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -12674,6 +14296,102 @@
           <t>2395031273585836288</t>
         </is>
       </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>2395031273585836288</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>2395031273585836288</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2395031273585836288</t>
+        </is>
+      </c>
+      <c r="Z81" t="n">
+        <v>353.2074101827482</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>-16.84661852217994</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>8.587043935575485</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>8.085914611816406</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>8.828512191772461</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>7.250840187072754</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.577672004699707</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>68.73564590379422</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>4066.7944</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0.6749642</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>0.13573194</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>0.7526889</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0.3896531512744821</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>0.2623562655211376</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.504798516942306</v>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>HD 221503</t>
+        </is>
+      </c>
+      <c r="AQ81" t="inlineStr">
+        <is>
+          <t>GJ 898</t>
+        </is>
+      </c>
+      <c r="AR81" t="inlineStr">
+        <is>
+          <t>116215</t>
+        </is>
+      </c>
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.582829748692533</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>14.54849207934481</v>
+      </c>
+      <c r="AV81" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -12921,7 +14639,7 @@
       </c>
       <c r="AV83" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13168,7 +14886,7 @@
       </c>
       <c r="AV85" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13338,7 +15056,7 @@
       </c>
       <c r="AV86" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13415,6 +15133,97 @@
           <t>4805806449875760384</t>
         </is>
       </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>4805806449875760384</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>4805806449875760384</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>4805806449875760384</t>
+        </is>
+      </c>
+      <c r="Z87" t="n">
+        <v>82.55855476960322</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>-42.69796597525414</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>9.68979214331627</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>9.101789474487305</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>9.934929847717285</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>8.209831237792969</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.725098609924316</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>52.19632472037114</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>4000.1545</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0.63111806</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>0.09948211999999999</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>0.65671146</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0.3341422746926936</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0.4185498602889894</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>2.149692954629578</v>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP87" t="inlineStr">
+        <is>
+          <t>HD 274255</t>
+        </is>
+      </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>25775</t>
+        </is>
+      </c>
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>BYDraV*_Candidate</t>
+        </is>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.228367536626836</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>19.15843702324353</v>
+      </c>
+      <c r="AV87" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -13582,7 +15391,7 @@
       </c>
       <c r="AV88" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13752,7 +15561,7 @@
       </c>
       <c r="AV89" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -13917,7 +15726,7 @@
       </c>
       <c r="AV90" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14087,7 +15896,7 @@
       </c>
       <c r="AV91" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14260,7 +16069,7 @@
       </c>
       <c r="AV92" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14430,7 +16239,7 @@
       </c>
       <c r="AV93" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14603,7 +16412,7 @@
       </c>
       <c r="AV94" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -14773,7 +16582,7 @@
       </c>
       <c r="AV95" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -14943,7 +16752,7 @@
       </c>
       <c r="AV96" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15113,7 +16922,7 @@
       </c>
       <c r="AV97" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15190,6 +16999,102 @@
           <t>6866310172545095424</t>
         </is>
       </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>6866310172545095424</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>6866310172545095424</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>6866310172545095424</t>
+        </is>
+      </c>
+      <c r="Z98" t="n">
+        <v>302.5795144151588</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>-20.4950698499972</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>8.888467973728179</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>8.386856079101562</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>9.130548477172852</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>7.528278350830078</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.602270126342773</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>63.20742001816341</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>4124.9</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>0.6622315600000001</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>0.12293527</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>0.7342213</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0.3702590183811431</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0.3103460500167974</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.718745875167374</v>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP98" t="inlineStr">
+        <is>
+          <t>HD 191391</t>
+        </is>
+      </c>
+      <c r="AQ98" t="inlineStr">
+        <is>
+          <t>GJ 782</t>
+        </is>
+      </c>
+      <c r="AR98" t="inlineStr">
+        <is>
+          <t>99385</t>
+        </is>
+      </c>
+      <c r="AS98" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT98" t="n">
+        <v>1.673127109034097</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>15.82092734860303</v>
+      </c>
+      <c r="AV98" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -15360,7 +17265,7 @@
       </c>
       <c r="AV99" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15530,7 +17435,7 @@
       </c>
       <c r="AV100" t="inlineStr">
         <is>
-          <t>Dimmer</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15604,6 +17509,102 @@
           <t>4270814637616488064</t>
         </is>
       </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>4270814637616488064</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>4270814637616488064</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>4270814637616488064</t>
+        </is>
+      </c>
+      <c r="Z101" t="n">
+        <v>274.9618362969113</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>-1.938612759804832</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>9.632092778863907</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>9.063088417053223</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>9.876449584960938</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>8.182724952697754</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.693724632263184</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>52.39629220529056</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>4205</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>0.102434</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0.3372117479355314</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0.4512559326716648</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>2.270169891124356</v>
+      </c>
+      <c r="AO101" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP101" t="inlineStr">
+        <is>
+          <t>HD 168442</t>
+        </is>
+      </c>
+      <c r="AQ101" t="inlineStr">
+        <is>
+          <t>GJ 710</t>
+        </is>
+      </c>
+      <c r="AR101" t="inlineStr">
+        <is>
+          <t>89825</t>
+        </is>
+      </c>
+      <c r="AS101" t="inlineStr">
+        <is>
+          <t>Variable*</t>
+        </is>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.6635472110517399</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>19.08531993221894</v>
+      </c>
+      <c r="AV101" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -15771,7 +17772,7 @@
       </c>
       <c r="AV102" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -15848,6 +17849,97 @@
           <t>4819591920506512768</t>
         </is>
       </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>4819591920506512768</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>4819591920506512768</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>4819591920506512768</t>
+        </is>
+      </c>
+      <c r="Z103" t="n">
+        <v>81.12595314463759</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>-38.96990653268172</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>9.031418509688377</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>8.539438247680664</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>9.272552490234375</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>7.708310604095459</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.564241886138916</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>57.27060617763743</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>4265.911</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>0.670469</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>0.12170362</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>0.6386978</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>0.3668865106019408</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>0.3485261764443434</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.933296656800961</v>
+      </c>
+      <c r="AO103" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP103" t="inlineStr">
+        <is>
+          <t>HD  35650</t>
+        </is>
+      </c>
+      <c r="AR103" t="inlineStr">
+        <is>
+          <t>25283</t>
+        </is>
+      </c>
+      <c r="AS103" t="inlineStr">
+        <is>
+          <t>RotV*</t>
+        </is>
+      </c>
+      <c r="AT103" t="n">
+        <v>2.573311979644731</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>17.46096412701272</v>
+      </c>
+      <c r="AV103" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16015,7 +18107,7 @@
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -16180,7 +18272,7 @@
       </c>
       <c r="AV105" t="inlineStr">
         <is>
-          <t>Dimmest</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -16352,7 +18444,7 @@
       </c>
       <c r="AV106" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -16429,6 +18521,102 @@
           <t>6508401923473282432</t>
         </is>
       </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>6508401923473282432</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>6508401923473282432</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>6508401923473282432</t>
+        </is>
+      </c>
+      <c r="Z107" t="n">
+        <v>335.5661138004264</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>-54.5595680078303</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>8.960261054987907</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>8.409995079040527</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>9.203866004943848</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>7.540348529815674</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.663517475128174</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>76.15946505307657</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>3920</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0.4589700401978843</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0.2811993874321437</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.650402802109548</v>
+      </c>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="AP107" t="inlineStr">
+        <is>
+          <t>HD 211970</t>
+        </is>
+      </c>
+      <c r="AQ107" t="inlineStr">
+        <is>
+          <t>GJ 1267</t>
+        </is>
+      </c>
+      <c r="AR107" t="inlineStr">
+        <is>
+          <t>110443</t>
+        </is>
+      </c>
+      <c r="AS107" t="inlineStr">
+        <is>
+          <t>HighPM*</t>
+        </is>
+      </c>
+      <c r="AT107" t="n">
+        <v>0.6635472110517399</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>13.13034432822088</v>
+      </c>
+      <c r="AV107" t="inlineStr">
+        <is>
+          <t>Dim</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16596,7 +18784,7 @@
       </c>
       <c r="AV108" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>

--- a/results/merged_result_MJ_with_properties.xlsx
+++ b/results/merged_result_MJ_with_properties.xlsx
@@ -1745,7 +1745,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>Brightest</t>
+          <t>Bright</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="AV49" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10472,7 +10472,7 @@
       </c>
       <c r="AV58" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -10642,7 +10642,7 @@
       </c>
       <c r="AV59" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="AV60" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="AV83" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -15221,7 +15221,7 @@
       </c>
       <c r="AV87" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -16582,7 +16582,7 @@
       </c>
       <c r="AV95" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>
@@ -17602,7 +17602,7 @@
       </c>
       <c r="AV101" t="inlineStr">
         <is>
-          <t>Dim</t>
+          <t>Dimmer</t>
         </is>
       </c>
     </row>
@@ -18107,7 +18107,7 @@
       </c>
       <c r="AV104" t="inlineStr">
         <is>
-          <t>Bright</t>
+          <t>Dim</t>
         </is>
       </c>
     </row>

--- a/results/merged_result_MJ_with_properties.xlsx
+++ b/results/merged_result_MJ_with_properties.xlsx
@@ -478,7 +478,7 @@
     <col width="21" customWidth="1" min="39" max="39"/>
     <col width="33" customWidth="1" min="40" max="40"/>
     <col width="15" customWidth="1" min="41" max="41"/>
-    <col width="23" customWidth="1" min="42" max="42"/>
+    <col width="20" customWidth="1" min="42" max="42"/>
     <col width="30" customWidth="1" min="43" max="43"/>
     <col width="12" customWidth="1" min="44" max="44"/>
     <col width="19" customWidth="1" min="45" max="45"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>HD 196761</t>
+          <t>HD196761</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>HD 172051</t>
+          <t>HD172051</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>HD 130992</t>
+          <t>HD130992</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>HD 220339</t>
+          <t>HD220339</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>HD  10700</t>
+          <t>HD10700</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>HD  35854</t>
+          <t>HD35854</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
@@ -1892,7 +1892,7 @@
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>HD  82342</t>
+          <t>HD82342</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>HD  52919</t>
+          <t>HD52919</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>HD 189567</t>
+          <t>HD189567</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>HD 156274</t>
+          <t>HD156274</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>HD 113538</t>
+          <t>HD113538</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>HD 142709</t>
+          <t>HD142709</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>HD 136352</t>
+          <t>HD136352</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>HD 115617</t>
+          <t>HD115617</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>HD 102438</t>
+          <t>HD102438</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>HD     55</t>
+          <t>HD55</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>HD 170493</t>
+          <t>HD170493</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>HD 196877</t>
+          <t>HD196877</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>HD 101581</t>
+          <t>HD101581</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>HD 192961</t>
+          <t>HD192961</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>HD  21209A, HD  21209</t>
+          <t>HD21209A,HD21209</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>HD  56533</t>
+          <t>HD56533</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>HD  22496</t>
+          <t>HD22496</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>HD   2025</t>
+          <t>HD2025</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>HD  20794</t>
+          <t>HD20794</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
@@ -5158,7 +5158,7 @@
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>HD  26965</t>
+          <t>HD26965</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
@@ -5331,7 +5331,7 @@
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>HD  21749</t>
+          <t>HD21749</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
@@ -5501,7 +5501,7 @@
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>HD 160346</t>
+          <t>HD160346</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>HD 157347</t>
+          <t>HD157347</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
@@ -5839,7 +5839,7 @@
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>HD 154363</t>
+          <t>HD154363</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>HD  76151</t>
+          <t>HD76151</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>HD  23356</t>
+          <t>HD23356</t>
         </is>
       </c>
       <c r="AR33" t="inlineStr">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>HD  20766</t>
+          <t>HD20766</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>HD 200779</t>
+          <t>HD200779</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
@@ -6695,7 +6695,7 @@
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>HD 222335</t>
+          <t>HD222335</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>HD 120467</t>
+          <t>HD120467</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>HD 181321</t>
+          <t>HD181321</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>HD 213042</t>
+          <t>HD213042</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>HD 173818</t>
+          <t>HD173818</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
@@ -7562,7 +7562,7 @@
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>HD 154088</t>
+          <t>HD154088</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>HD 192310</t>
+          <t>HD192310</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
@@ -7902,7 +7902,7 @@
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>HD 203040</t>
+          <t>HD203040</t>
         </is>
       </c>
       <c r="AQ43" t="inlineStr">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>HD  14412</t>
+          <t>HD14412</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
@@ -8242,7 +8242,7 @@
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>HD  22049</t>
+          <t>HD22049</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>HD 177565</t>
+          <t>HD177565</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr">
@@ -8582,7 +8582,7 @@
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>HD 190248</t>
+          <t>HD190248</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="AP49" t="inlineStr">
         <is>
-          <t>HD  85512</t>
+          <t>HD85512</t>
         </is>
       </c>
       <c r="AQ49" t="inlineStr">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="AP50" t="inlineStr">
         <is>
-          <t>HD 132683</t>
+          <t>HD132683</t>
         </is>
       </c>
       <c r="AQ50" t="inlineStr">
@@ -9263,7 +9263,7 @@
       </c>
       <c r="AP51" t="inlineStr">
         <is>
-          <t>HD  69830</t>
+          <t>HD69830</t>
         </is>
       </c>
       <c r="AQ51" t="inlineStr">
@@ -9436,7 +9436,7 @@
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>HD 131977</t>
+          <t>HD131977</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="AP53" t="inlineStr">
         <is>
-          <t>HD 120690</t>
+          <t>HD120690</t>
         </is>
       </c>
       <c r="AQ53" t="inlineStr">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>HD  20280</t>
+          <t>HD20280</t>
         </is>
       </c>
       <c r="AQ54" t="inlineStr">
@@ -9944,7 +9944,7 @@
       </c>
       <c r="AP55" t="inlineStr">
         <is>
-          <t>HD 209100</t>
+          <t>HD209100</t>
         </is>
       </c>
       <c r="AQ55" t="inlineStr">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="AP56" t="inlineStr">
         <is>
-          <t>HD   4391</t>
+          <t>HD4391</t>
         </is>
       </c>
       <c r="AQ56" t="inlineStr">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>HD  21175</t>
+          <t>HD21175</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
@@ -10616,7 +10616,7 @@
       </c>
       <c r="AP59" t="inlineStr">
         <is>
-          <t>HD  30876</t>
+          <t>HD30876</t>
         </is>
       </c>
       <c r="AQ59" t="inlineStr">
@@ -10789,7 +10789,7 @@
       </c>
       <c r="AP60" t="inlineStr">
         <is>
-          <t>HD 158233</t>
+          <t>HD158233</t>
         </is>
       </c>
       <c r="AQ60" t="inlineStr">
@@ -10956,7 +10956,7 @@
       </c>
       <c r="AP61" t="inlineStr">
         <is>
-          <t>HD  25004</t>
+          <t>HD25004</t>
         </is>
       </c>
       <c r="AQ61" t="inlineStr">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="AP62" t="inlineStr">
         <is>
-          <t>HD  16160</t>
+          <t>HD16160</t>
         </is>
       </c>
       <c r="AQ62" t="inlineStr">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="AP63" t="inlineStr">
         <is>
-          <t>HD  20807</t>
+          <t>HD20807</t>
         </is>
       </c>
       <c r="AQ63" t="inlineStr">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="AP64" t="inlineStr">
         <is>
-          <t>HD   1237A, HD   1237</t>
+          <t>HD1237A,HD1237</t>
         </is>
       </c>
       <c r="AQ64" t="inlineStr">
@@ -11636,7 +11636,7 @@
       </c>
       <c r="AP65" t="inlineStr">
         <is>
-          <t>HD 146233</t>
+          <t>HD146233</t>
         </is>
       </c>
       <c r="AQ65" t="inlineStr">
@@ -11803,7 +11803,7 @@
       </c>
       <c r="AP66" t="inlineStr">
         <is>
-          <t>HD  41593</t>
+          <t>HD41593</t>
         </is>
       </c>
       <c r="AQ66" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>HD  31560</t>
+          <t>HD31560</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="AP68" t="inlineStr">
         <is>
-          <t>HD 111261B</t>
+          <t>HD111261B</t>
         </is>
       </c>
       <c r="AQ68" t="inlineStr">
@@ -12316,7 +12316,7 @@
       </c>
       <c r="AP69" t="inlineStr">
         <is>
-          <t>HD 139763</t>
+          <t>HD139763</t>
         </is>
       </c>
       <c r="AR69" t="inlineStr">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="AP70" t="inlineStr">
         <is>
-          <t>HD  45088</t>
+          <t>HD45088</t>
         </is>
       </c>
       <c r="AQ70" t="inlineStr">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="AP71" t="inlineStr">
         <is>
-          <t>HD 222237</t>
+          <t>HD222237</t>
         </is>
       </c>
       <c r="AQ71" t="inlineStr">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>HD  24916, HD  24916A</t>
+          <t>HD24916,HD24916A</t>
         </is>
       </c>
       <c r="AQ72" t="inlineStr">
@@ -12997,7 +12997,7 @@
       </c>
       <c r="AP73" t="inlineStr">
         <is>
-          <t>HD  32147</t>
+          <t>HD32147</t>
         </is>
       </c>
       <c r="AQ73" t="inlineStr">
@@ -13170,7 +13170,7 @@
       </c>
       <c r="AP74" t="inlineStr">
         <is>
-          <t>HD 216803</t>
+          <t>HD216803</t>
         </is>
       </c>
       <c r="AQ74" t="inlineStr">
@@ -13340,7 +13340,7 @@
       </c>
       <c r="AP75" t="inlineStr">
         <is>
-          <t>HD  65277, HD  65277A</t>
+          <t>HD65277,HD65277A</t>
         </is>
       </c>
       <c r="AQ75" t="inlineStr">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="AP76" t="inlineStr">
         <is>
-          <t>HD  38858</t>
+          <t>HD38858</t>
         </is>
       </c>
       <c r="AQ76" t="inlineStr">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>HD  30495</t>
+          <t>HD30495</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="AP78" t="inlineStr">
         <is>
-          <t>HD   4628</t>
+          <t>HD4628</t>
         </is>
       </c>
       <c r="AQ78" t="inlineStr">
@@ -14020,7 +14020,7 @@
       </c>
       <c r="AP79" t="inlineStr">
         <is>
-          <t>HD 166348</t>
+          <t>HD166348</t>
         </is>
       </c>
       <c r="AQ79" t="inlineStr">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="AP80" t="inlineStr">
         <is>
-          <t>HD   6101</t>
+          <t>HD6101</t>
         </is>
       </c>
       <c r="AQ80" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="AP81" t="inlineStr">
         <is>
-          <t>HD 221503</t>
+          <t>HD221503</t>
         </is>
       </c>
       <c r="AQ81" t="inlineStr">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="AP83" t="inlineStr">
         <is>
-          <t>HD  36003</t>
+          <t>HD36003</t>
         </is>
       </c>
       <c r="AQ83" t="inlineStr">
@@ -14860,7 +14860,7 @@
       </c>
       <c r="AP85" t="inlineStr">
         <is>
-          <t>HD  75732</t>
+          <t>HD75732</t>
         </is>
       </c>
       <c r="AQ85" t="inlineStr">
@@ -15030,7 +15030,7 @@
       </c>
       <c r="AP86" t="inlineStr">
         <is>
-          <t>HD 152391</t>
+          <t>HD152391</t>
         </is>
       </c>
       <c r="AQ86" t="inlineStr">
@@ -15200,7 +15200,7 @@
       </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>HD 274255</t>
+          <t>HD274255</t>
         </is>
       </c>
       <c r="AR87" t="inlineStr">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="AP88" t="inlineStr">
         <is>
-          <t>HD  40307</t>
+          <t>HD40307</t>
         </is>
       </c>
       <c r="AQ88" t="inlineStr">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="AP89" t="inlineStr">
         <is>
-          <t>HD  53143</t>
+          <t>HD53143</t>
         </is>
       </c>
       <c r="AQ89" t="inlineStr">
@@ -15700,7 +15700,7 @@
       </c>
       <c r="AP90" t="inlineStr">
         <is>
-          <t>HD 140538A, HD 140538</t>
+          <t>HD140538A,HD140538</t>
         </is>
       </c>
       <c r="AQ90" t="inlineStr">
@@ -15870,7 +15870,7 @@
       </c>
       <c r="AP91" t="inlineStr">
         <is>
-          <t>HD  72673</t>
+          <t>HD72673</t>
         </is>
       </c>
       <c r="AQ91" t="inlineStr">
@@ -16043,7 +16043,7 @@
       </c>
       <c r="AP92" t="inlineStr">
         <is>
-          <t>HD  94765</t>
+          <t>HD94765</t>
         </is>
       </c>
       <c r="AQ92" t="inlineStr">
@@ -16213,7 +16213,7 @@
       </c>
       <c r="AP93" t="inlineStr">
         <is>
-          <t>HD  17925</t>
+          <t>HD17925</t>
         </is>
       </c>
       <c r="AQ93" t="inlineStr">
@@ -16386,7 +16386,7 @@
       </c>
       <c r="AP94" t="inlineStr">
         <is>
-          <t>HD  82558</t>
+          <t>HD82558</t>
         </is>
       </c>
       <c r="AQ94" t="inlineStr">
@@ -16556,7 +16556,7 @@
       </c>
       <c r="AP95" t="inlineStr">
         <is>
-          <t>HD 145417</t>
+          <t>HD145417</t>
         </is>
       </c>
       <c r="AQ95" t="inlineStr">
@@ -16726,7 +16726,7 @@
       </c>
       <c r="AP96" t="inlineStr">
         <is>
-          <t>HD 144628</t>
+          <t>HD144628</t>
         </is>
       </c>
       <c r="AQ96" t="inlineStr">
@@ -16896,7 +16896,7 @@
       </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>HD 109200</t>
+          <t>HD109200</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="AP98" t="inlineStr">
         <is>
-          <t>HD 191391</t>
+          <t>HD191391</t>
         </is>
       </c>
       <c r="AQ98" t="inlineStr">
@@ -17239,7 +17239,7 @@
       </c>
       <c r="AP99" t="inlineStr">
         <is>
-          <t>HD 125072</t>
+          <t>HD125072</t>
         </is>
       </c>
       <c r="AQ99" t="inlineStr">
@@ -17409,7 +17409,7 @@
       </c>
       <c r="AP100" t="inlineStr">
         <is>
-          <t>HD 154577</t>
+          <t>HD154577</t>
         </is>
       </c>
       <c r="AQ100" t="inlineStr">
@@ -17576,7 +17576,7 @@
       </c>
       <c r="AP101" t="inlineStr">
         <is>
-          <t>HD 168442</t>
+          <t>HD168442</t>
         </is>
       </c>
       <c r="AQ101" t="inlineStr">
@@ -17746,7 +17746,7 @@
       </c>
       <c r="AP102" t="inlineStr">
         <is>
-          <t>HD 149661</t>
+          <t>HD149661</t>
         </is>
       </c>
       <c r="AQ102" t="inlineStr">
@@ -17916,7 +17916,7 @@
       </c>
       <c r="AP103" t="inlineStr">
         <is>
-          <t>HD  35650</t>
+          <t>HD35650</t>
         </is>
       </c>
       <c r="AR103" t="inlineStr">
@@ -18081,7 +18081,7 @@
       </c>
       <c r="AP104" t="inlineStr">
         <is>
-          <t>HD 189733, HD 189733A</t>
+          <t>HD189733,HD189733A</t>
         </is>
       </c>
       <c r="AQ104" t="inlineStr">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="AP105" t="inlineStr">
         <is>
-          <t>HD 192263</t>
+          <t>HD192263</t>
         </is>
       </c>
       <c r="AR105" t="inlineStr">
@@ -18418,7 +18418,7 @@
       </c>
       <c r="AP106" t="inlineStr">
         <is>
-          <t>HD  42807</t>
+          <t>HD42807</t>
         </is>
       </c>
       <c r="AQ106" t="inlineStr">
@@ -18588,7 +18588,7 @@
       </c>
       <c r="AP107" t="inlineStr">
         <is>
-          <t>HD 211970</t>
+          <t>HD211970</t>
         </is>
       </c>
       <c r="AQ107" t="inlineStr">
@@ -18758,7 +18758,7 @@
       </c>
       <c r="AP108" t="inlineStr">
         <is>
-          <t>HD  13445</t>
+          <t>HD13445</t>
         </is>
       </c>
       <c r="AQ108" t="inlineStr">
